--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="629">
   <si>
     <t>MATANZA</t>
   </si>
@@ -1810,9 +1810,6 @@
     <t>18762--9709--9803</t>
   </si>
   <si>
-    <t>18877--</t>
-  </si>
-  <si>
     <t>18893--</t>
   </si>
   <si>
@@ -1930,12 +1927,6 @@
     <t>D-2897</t>
   </si>
   <si>
-    <t>18860--4396</t>
-  </si>
-  <si>
-    <t>18860--9767</t>
-  </si>
-  <si>
     <t>18829--9741--9865</t>
   </si>
   <si>
@@ -1943,6 +1934,30 @@
   </si>
   <si>
     <t>18850--8329--NC-443--8373</t>
+  </si>
+  <si>
+    <t>18877--9772--9886</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6784</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6780</t>
+  </si>
+  <si>
+    <t>FOLIO 10275</t>
+  </si>
+  <si>
+    <t>A-956</t>
+  </si>
+  <si>
+    <t>18860--9767--9874</t>
+  </si>
+  <si>
+    <t>18860--4396--4432</t>
+  </si>
+  <si>
+    <t>18893--2949--2972</t>
   </si>
 </sst>
 </file>
@@ -2366,8 +2381,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3483,7 +3498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="904">
+  <cellXfs count="907">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5419,9 +5434,6 @@
     <xf numFmtId="164" fontId="30" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5497,18 +5509,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5542,6 +5542,18 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6001,14 +6013,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6375,18 +6397,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6408,22 +6430,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -9168,13 +9190,13 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" s="327" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="787" t="s">
+      <c r="A55" s="786" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="775" t="s">
+      <c r="C55" s="774" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="329"/>
@@ -9185,7 +9207,7 @@
       <c r="G55" s="321">
         <v>44200</v>
       </c>
-      <c r="H55" s="777">
+      <c r="H55" s="776">
         <v>195</v>
       </c>
       <c r="I55" s="275">
@@ -9204,10 +9226,10 @@
         <f t="shared" si="4"/>
         <v>23802.75</v>
       </c>
-      <c r="O55" s="789" t="s">
+      <c r="O55" s="788" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="791">
+      <c r="P55" s="790">
         <v>44222</v>
       </c>
       <c r="Q55" s="94"/>
@@ -9220,11 +9242,11 @@
       <c r="X55"/>
     </row>
     <row r="56" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="788"/>
+      <c r="A56" s="787"/>
       <c r="B56" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="776"/>
+      <c r="C56" s="775"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="51">
@@ -9233,7 +9255,7 @@
       <c r="G56" s="87">
         <v>44200</v>
       </c>
-      <c r="H56" s="778"/>
+      <c r="H56" s="777"/>
       <c r="I56" s="48">
         <v>184.1</v>
       </c>
@@ -9250,8 +9272,8 @@
         <f t="shared" si="4"/>
         <v>14728</v>
       </c>
-      <c r="O56" s="790"/>
-      <c r="P56" s="792"/>
+      <c r="O56" s="789"/>
+      <c r="P56" s="791"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -9410,13 +9432,13 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="779" t="s">
+      <c r="A60" s="778" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="781" t="s">
+      <c r="C60" s="780" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="293"/>
@@ -9427,7 +9449,7 @@
       <c r="G60" s="87">
         <v>44207</v>
       </c>
-      <c r="H60" s="783">
+      <c r="H60" s="782">
         <v>210</v>
       </c>
       <c r="I60" s="48">
@@ -9446,10 +9468,10 @@
         <f t="shared" si="4"/>
         <v>15624</v>
       </c>
-      <c r="O60" s="797" t="s">
+      <c r="O60" s="796" t="s">
         <v>35</v>
       </c>
-      <c r="P60" s="785">
+      <c r="P60" s="784">
         <v>44222</v>
       </c>
       <c r="Q60" s="94"/>
@@ -9460,11 +9482,11 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="780"/>
+      <c r="A61" s="779"/>
       <c r="B61" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="782"/>
+      <c r="C61" s="781"/>
       <c r="D61" s="293"/>
       <c r="E61" s="93"/>
       <c r="F61" s="51">
@@ -9473,7 +9495,7 @@
       <c r="G61" s="87">
         <v>44207</v>
       </c>
-      <c r="H61" s="784"/>
+      <c r="H61" s="783"/>
       <c r="I61" s="48">
         <v>344.7</v>
       </c>
@@ -9490,8 +9512,8 @@
         <f t="shared" si="4"/>
         <v>25680.149999999998</v>
       </c>
-      <c r="O61" s="798"/>
-      <c r="P61" s="786"/>
+      <c r="O61" s="797"/>
+      <c r="P61" s="785"/>
       <c r="Q61" s="94"/>
       <c r="R61" s="40"/>
       <c r="S61" s="41"/>
@@ -9550,13 +9572,13 @@
       <c r="V62" s="44"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="793" t="s">
+      <c r="A63" s="792" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="764" t="s">
+      <c r="C63" s="763" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="91"/>
@@ -9567,7 +9589,7 @@
       <c r="G63" s="49">
         <v>44211</v>
       </c>
-      <c r="H63" s="800">
+      <c r="H63" s="799">
         <v>219</v>
       </c>
       <c r="I63" s="51">
@@ -9586,10 +9608,10 @@
         <f t="shared" si="4"/>
         <v>33096</v>
       </c>
-      <c r="O63" s="802" t="s">
+      <c r="O63" s="801" t="s">
         <v>35</v>
       </c>
-      <c r="P63" s="770">
+      <c r="P63" s="769">
         <v>44235</v>
       </c>
       <c r="Q63" s="94"/>
@@ -9600,11 +9622,11 @@
       <c r="V63" s="44"/>
     </row>
     <row r="64" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="794"/>
+      <c r="A64" s="793"/>
       <c r="B64" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="799"/>
+      <c r="C64" s="798"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51">
@@ -9613,7 +9635,7 @@
       <c r="G64" s="419">
         <v>44211</v>
       </c>
-      <c r="H64" s="801"/>
+      <c r="H64" s="800"/>
       <c r="I64" s="51">
         <v>542.70000000000005</v>
       </c>
@@ -9630,8 +9652,8 @@
         <f t="shared" si="4"/>
         <v>40431.15</v>
       </c>
-      <c r="O64" s="803"/>
-      <c r="P64" s="771"/>
+      <c r="O64" s="802"/>
+      <c r="P64" s="770"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -9640,13 +9662,13 @@
       <c r="V64" s="44"/>
     </row>
     <row r="65" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="806" t="s">
+      <c r="A65" s="805" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="808" t="s">
+      <c r="C65" s="807" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="91"/>
@@ -9657,7 +9679,7 @@
       <c r="G65" s="420">
         <v>44214</v>
       </c>
-      <c r="H65" s="801">
+      <c r="H65" s="800">
         <v>224</v>
       </c>
       <c r="I65" s="51">
@@ -9676,10 +9698,10 @@
         <f t="shared" si="4"/>
         <v>65128.645000000004</v>
       </c>
-      <c r="O65" s="804" t="s">
+      <c r="O65" s="803" t="s">
         <v>35</v>
       </c>
-      <c r="P65" s="748">
+      <c r="P65" s="747">
         <v>44242</v>
       </c>
       <c r="Q65" s="94"/>
@@ -9690,11 +9712,11 @@
       <c r="V65" s="44"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="807"/>
+      <c r="A66" s="806"/>
       <c r="B66" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="809"/>
+      <c r="C66" s="808"/>
       <c r="D66" s="96"/>
       <c r="E66" s="97"/>
       <c r="F66" s="51">
@@ -9703,7 +9725,7 @@
       <c r="G66" s="419">
         <v>44214</v>
       </c>
-      <c r="H66" s="810"/>
+      <c r="H66" s="809"/>
       <c r="I66" s="51">
         <v>265.60000000000002</v>
       </c>
@@ -9720,8 +9742,8 @@
         <f t="shared" si="4"/>
         <v>19256</v>
       </c>
-      <c r="O66" s="805"/>
-      <c r="P66" s="749"/>
+      <c r="O66" s="804"/>
+      <c r="P66" s="748"/>
       <c r="Q66" s="94"/>
       <c r="R66" s="40"/>
       <c r="S66" s="41"/>
@@ -9730,13 +9752,13 @@
       <c r="V66" s="44"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="762" t="s">
+      <c r="A67" s="761" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="764" t="s">
+      <c r="C67" s="763" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="96"/>
@@ -9744,10 +9766,10 @@
       <c r="F67" s="418">
         <v>327.7</v>
       </c>
-      <c r="G67" s="766">
+      <c r="G67" s="765">
         <v>44216</v>
       </c>
-      <c r="H67" s="768">
+      <c r="H67" s="767">
         <v>228</v>
       </c>
       <c r="I67" s="51">
@@ -9766,10 +9788,10 @@
         <f t="shared" si="4"/>
         <v>24413.649999999998</v>
       </c>
-      <c r="O67" s="804" t="s">
+      <c r="O67" s="803" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="748">
+      <c r="P67" s="747">
         <v>5</v>
       </c>
       <c r="Q67" s="94"/>
@@ -9780,18 +9802,18 @@
       <c r="V67" s="44"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="763"/>
+      <c r="A68" s="762"/>
       <c r="B68" s="396" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="765"/>
+      <c r="C68" s="764"/>
       <c r="D68" s="96"/>
       <c r="E68" s="97"/>
       <c r="F68" s="418">
         <v>308.2</v>
       </c>
-      <c r="G68" s="767"/>
-      <c r="H68" s="769"/>
+      <c r="G68" s="766"/>
+      <c r="H68" s="768"/>
       <c r="I68" s="51">
         <v>308.2</v>
       </c>
@@ -9808,8 +9830,8 @@
         <f t="shared" si="4"/>
         <v>24656</v>
       </c>
-      <c r="O68" s="805"/>
-      <c r="P68" s="749"/>
+      <c r="O68" s="804"/>
+      <c r="P68" s="748"/>
       <c r="Q68" s="94"/>
       <c r="R68" s="40"/>
       <c r="S68" s="41"/>
@@ -10238,13 +10260,13 @@
       <c r="V77" s="44"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="760" t="s">
+      <c r="A78" s="759" t="s">
         <v>171</v>
       </c>
       <c r="B78" s="441" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="754" t="s">
+      <c r="C78" s="753" t="s">
         <v>180</v>
       </c>
       <c r="D78" s="438"/>
@@ -10255,7 +10277,7 @@
       <c r="G78" s="49">
         <v>44221</v>
       </c>
-      <c r="H78" s="756">
+      <c r="H78" s="755">
         <v>31601</v>
       </c>
       <c r="I78" s="51">
@@ -10274,10 +10296,10 @@
         <f t="shared" si="4"/>
         <v>8804.4000000000015</v>
       </c>
-      <c r="O78" s="804" t="s">
+      <c r="O78" s="803" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="750">
+      <c r="P78" s="749">
         <v>44260</v>
       </c>
       <c r="Q78" s="39"/>
@@ -10288,11 +10310,11 @@
       <c r="V78" s="44"/>
     </row>
     <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="761"/>
+      <c r="A79" s="760"/>
       <c r="B79" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="755"/>
+      <c r="C79" s="754"/>
       <c r="D79" s="438"/>
       <c r="E79" s="97"/>
       <c r="F79" s="51">
@@ -10301,7 +10323,7 @@
       <c r="G79" s="49">
         <v>44221</v>
       </c>
-      <c r="H79" s="757"/>
+      <c r="H79" s="756"/>
       <c r="I79" s="51">
         <v>441</v>
       </c>
@@ -10318,8 +10340,8 @@
         <f t="shared" si="4"/>
         <v>21609</v>
       </c>
-      <c r="O79" s="805"/>
-      <c r="P79" s="751"/>
+      <c r="O79" s="804"/>
+      <c r="P79" s="750"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="40"/>
       <c r="S79" s="41"/>
@@ -10328,13 +10350,13 @@
       <c r="V79" s="44"/>
     </row>
     <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="752" t="s">
+      <c r="A80" s="751" t="s">
         <v>171</v>
       </c>
       <c r="B80" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="754" t="s">
+      <c r="C80" s="753" t="s">
         <v>182</v>
       </c>
       <c r="D80" s="438"/>
@@ -10345,7 +10367,7 @@
       <c r="G80" s="49">
         <v>44226</v>
       </c>
-      <c r="H80" s="756">
+      <c r="H80" s="755">
         <v>31677</v>
       </c>
       <c r="I80" s="51">
@@ -10364,10 +10386,10 @@
         <f t="shared" si="4"/>
         <v>5047</v>
       </c>
-      <c r="O80" s="758" t="s">
+      <c r="O80" s="757" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="748">
+      <c r="P80" s="747">
         <v>44260</v>
       </c>
       <c r="Q80" s="39"/>
@@ -10378,11 +10400,11 @@
       <c r="V80" s="44"/>
     </row>
     <row r="81" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="753"/>
+      <c r="A81" s="752"/>
       <c r="B81" s="442" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="755"/>
+      <c r="C81" s="754"/>
       <c r="D81" s="438"/>
       <c r="E81" s="97"/>
       <c r="F81" s="51">
@@ -10392,7 +10414,7 @@
       <c r="G81" s="49">
         <v>44226</v>
       </c>
-      <c r="H81" s="757"/>
+      <c r="H81" s="756"/>
       <c r="I81" s="51">
         <f>23.2+20+94.2</f>
         <v>137.4</v>
@@ -10410,8 +10432,8 @@
         <f t="shared" si="4"/>
         <v>7969.2000000000007</v>
       </c>
-      <c r="O81" s="759"/>
-      <c r="P81" s="749"/>
+      <c r="O81" s="758"/>
+      <c r="P81" s="748"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="40"/>
       <c r="S81" s="41"/>
@@ -15036,11 +15058,11 @@
     <row r="236" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A236" s="206"/>
       <c r="B236" s="207"/>
-      <c r="F236" s="795" t="s">
+      <c r="F236" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="795"/>
-      <c r="H236" s="796"/>
+      <c r="G236" s="794"/>
+      <c r="H236" s="795"/>
       <c r="I236" s="216">
         <f>SUM(I6:I235)</f>
         <v>434282.17000000004</v>
@@ -15688,18 +15710,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -15721,22 +15743,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -17835,13 +17857,13 @@
       <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:24" s="327" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="819" t="s">
+      <c r="A38" s="818" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="817" t="s">
+      <c r="C38" s="816" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="329"/>
@@ -17852,7 +17874,7 @@
       <c r="G38" s="321">
         <v>44228</v>
       </c>
-      <c r="H38" s="821">
+      <c r="H38" s="820">
         <v>245</v>
       </c>
       <c r="I38" s="275">
@@ -17871,10 +17893,10 @@
         <f t="shared" si="1"/>
         <v>98459.199999999997</v>
       </c>
-      <c r="O38" s="789" t="s">
+      <c r="O38" s="788" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="791">
+      <c r="P38" s="790">
         <v>44251</v>
       </c>
       <c r="Q38" s="94"/>
@@ -17887,11 +17909,11 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="820"/>
+      <c r="A39" s="819"/>
       <c r="B39" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="818"/>
+      <c r="C39" s="817"/>
       <c r="D39" s="330"/>
       <c r="E39" s="47"/>
       <c r="F39" s="51">
@@ -17900,7 +17922,7 @@
       <c r="G39" s="87">
         <v>44228</v>
       </c>
-      <c r="H39" s="822"/>
+      <c r="H39" s="821"/>
       <c r="I39" s="48">
         <v>69.599999999999994</v>
       </c>
@@ -17917,8 +17939,8 @@
         <f t="shared" si="1"/>
         <v>4941.5999999999995</v>
       </c>
-      <c r="O39" s="790"/>
-      <c r="P39" s="792"/>
+      <c r="O39" s="789"/>
+      <c r="P39" s="791"/>
       <c r="Q39" s="94"/>
       <c r="R39" s="40"/>
       <c r="S39" s="67"/>
@@ -18123,13 +18145,13 @@
       <c r="V43" s="44"/>
     </row>
     <row r="44" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="811" t="s">
+      <c r="A44" s="810" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="827" t="s">
+      <c r="C44" s="826" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="69"/>
@@ -18137,10 +18159,10 @@
       <c r="F44" s="51">
         <v>961.2</v>
       </c>
-      <c r="G44" s="813">
+      <c r="G44" s="812">
         <v>44242</v>
       </c>
-      <c r="H44" s="829">
+      <c r="H44" s="828">
         <v>291</v>
       </c>
       <c r="I44" s="48">
@@ -18159,10 +18181,10 @@
         <f t="shared" si="1"/>
         <v>71609.400000000009</v>
       </c>
-      <c r="O44" s="815" t="s">
+      <c r="O44" s="814" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="825">
+      <c r="P44" s="824">
         <v>44277</v>
       </c>
       <c r="Q44" s="94"/>
@@ -18173,18 +18195,18 @@
       <c r="V44" s="44"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="812"/>
+      <c r="A45" s="811"/>
       <c r="B45" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="828"/>
+      <c r="C45" s="827"/>
       <c r="D45" s="293"/>
       <c r="E45" s="93"/>
       <c r="F45" s="51">
         <v>199.4</v>
       </c>
-      <c r="G45" s="814"/>
-      <c r="H45" s="830"/>
+      <c r="G45" s="813"/>
+      <c r="H45" s="829"/>
       <c r="I45" s="48">
         <v>199.4</v>
       </c>
@@ -18201,8 +18223,8 @@
         <f t="shared" si="1"/>
         <v>15952</v>
       </c>
-      <c r="O45" s="816"/>
-      <c r="P45" s="826"/>
+      <c r="O45" s="815"/>
+      <c r="P45" s="825"/>
       <c r="Q45" s="94"/>
       <c r="R45" s="40"/>
       <c r="S45" s="41"/>
@@ -18413,7 +18435,7 @@
     <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="389"/>
       <c r="B50" s="86"/>
-      <c r="C50" s="764"/>
+      <c r="C50" s="763"/>
       <c r="D50" s="91"/>
       <c r="E50" s="93"/>
       <c r="F50" s="51"/>
@@ -18431,8 +18453,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="802"/>
-      <c r="P50" s="770"/>
+      <c r="O50" s="801"/>
+      <c r="P50" s="769"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="40"/>
       <c r="S50" s="41"/>
@@ -18443,7 +18465,7 @@
     <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="390"/>
       <c r="B51" s="86"/>
-      <c r="C51" s="765"/>
+      <c r="C51" s="764"/>
       <c r="D51" s="91"/>
       <c r="E51" s="93"/>
       <c r="F51" s="51"/>
@@ -18461,8 +18483,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="823"/>
-      <c r="P51" s="824"/>
+      <c r="O51" s="822"/>
+      <c r="P51" s="823"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="40"/>
       <c r="S51" s="41"/>
@@ -19044,11 +19066,11 @@
     <row r="67" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="206"/>
       <c r="B67" s="207"/>
-      <c r="F67" s="795" t="s">
+      <c r="F67" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="795"/>
-      <c r="H67" s="796"/>
+      <c r="G67" s="794"/>
+      <c r="H67" s="795"/>
       <c r="I67" s="216">
         <f>SUM(I4:I66)</f>
         <v>496746.44999999995</v>
@@ -19689,18 +19711,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -19722,22 +19744,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -22884,13 +22906,13 @@
       <c r="V54" s="44"/>
     </row>
     <row r="55" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="787" t="s">
+      <c r="A55" s="786" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="817" t="s">
+      <c r="C55" s="816" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="330"/>
@@ -22902,7 +22924,7 @@
       <c r="G55" s="87">
         <v>44270</v>
       </c>
-      <c r="H55" s="777">
+      <c r="H55" s="776">
         <v>324</v>
       </c>
       <c r="I55" s="524">
@@ -22921,10 +22943,10 @@
         <f t="shared" si="1"/>
         <v>37058.699999999997</v>
       </c>
-      <c r="O55" s="837" t="s">
+      <c r="O55" s="836" t="s">
         <v>224</v>
       </c>
-      <c r="P55" s="839">
+      <c r="P55" s="838">
         <v>44300</v>
       </c>
       <c r="Q55" s="94"/>
@@ -22935,11 +22957,11 @@
       <c r="V55" s="44"/>
     </row>
     <row r="56" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="788"/>
+      <c r="A56" s="787"/>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="818"/>
+      <c r="C56" s="817"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="519">
@@ -22948,7 +22970,7 @@
       <c r="G56" s="87">
         <v>44270</v>
       </c>
-      <c r="H56" s="778"/>
+      <c r="H56" s="777"/>
       <c r="I56" s="524">
         <v>936.4</v>
       </c>
@@ -22965,8 +22987,8 @@
         <f t="shared" si="1"/>
         <v>70698.2</v>
       </c>
-      <c r="O56" s="838"/>
-      <c r="P56" s="840"/>
+      <c r="O56" s="837"/>
+      <c r="P56" s="839"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -23075,7 +23097,7 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="833" t="s">
+      <c r="A59" s="832" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -23092,7 +23114,7 @@
       <c r="G59" s="49">
         <v>44257</v>
       </c>
-      <c r="H59" s="835">
+      <c r="H59" s="834">
         <v>48</v>
       </c>
       <c r="I59" s="519">
@@ -23111,10 +23133,10 @@
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="O59" s="802" t="s">
+      <c r="O59" s="801" t="s">
         <v>206</v>
       </c>
-      <c r="P59" s="770">
+      <c r="P59" s="769">
         <v>44272</v>
       </c>
       <c r="Q59" s="94"/>
@@ -23125,7 +23147,7 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="834"/>
+      <c r="A60" s="833"/>
       <c r="B60" s="61" t="s">
         <v>205</v>
       </c>
@@ -23140,7 +23162,7 @@
       <c r="G60" s="49">
         <v>44261</v>
       </c>
-      <c r="H60" s="836"/>
+      <c r="H60" s="835"/>
       <c r="I60" s="519">
         <v>8994</v>
       </c>
@@ -23157,8 +23179,8 @@
         <f t="shared" si="1"/>
         <v>364257</v>
       </c>
-      <c r="O60" s="823"/>
-      <c r="P60" s="824"/>
+      <c r="O60" s="822"/>
+      <c r="P60" s="823"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -28033,11 +28055,11 @@
     <row r="222" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A222" s="206"/>
       <c r="B222" s="207"/>
-      <c r="F222" s="831" t="s">
+      <c r="F222" s="830" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="831"/>
-      <c r="H222" s="832"/>
+      <c r="G222" s="830"/>
+      <c r="H222" s="831"/>
       <c r="I222" s="536">
         <f>SUM(I4:I221)</f>
         <v>579418.55000000005</v>
@@ -28656,18 +28678,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -28683,22 +28705,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -29433,10 +29455,10 @@
       <c r="K13" s="477">
         <v>50</v>
       </c>
-      <c r="L13" s="841" t="s">
+      <c r="L13" s="840" t="s">
         <v>347</v>
       </c>
-      <c r="M13" s="842"/>
+      <c r="M13" s="841"/>
       <c r="N13" s="38">
         <f t="shared" si="1"/>
         <v>1187490</v>
@@ -36599,11 +36621,11 @@
     <row r="226" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A226" s="206"/>
       <c r="B226" s="207"/>
-      <c r="F226" s="795" t="s">
+      <c r="F226" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G226" s="795"/>
-      <c r="H226" s="796"/>
+      <c r="G226" s="794"/>
+      <c r="H226" s="795"/>
       <c r="I226" s="216">
         <f>SUM(I4:I225)</f>
         <v>405885.8</v>
@@ -37214,18 +37236,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -37241,22 +37263,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -40096,10 +40118,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="843" t="s">
+      <c r="O59" s="842" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="855">
+      <c r="P59" s="854">
         <v>44361</v>
       </c>
       <c r="Q59" s="94"/>
@@ -40146,8 +40168,8 @@
         <f t="shared" si="1"/>
         <v>132498</v>
       </c>
-      <c r="O60" s="845"/>
-      <c r="P60" s="856"/>
+      <c r="O60" s="844"/>
+      <c r="P60" s="855"/>
       <c r="Q60" s="94"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -40156,13 +40178,13 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="866" t="s">
+      <c r="A61" s="865" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="781" t="s">
+      <c r="C61" s="780" t="s">
         <v>456</v>
       </c>
       <c r="D61" s="293"/>
@@ -40173,7 +40195,7 @@
       <c r="G61" s="49">
         <v>44347</v>
       </c>
-      <c r="H61" s="867">
+      <c r="H61" s="866">
         <v>426</v>
       </c>
       <c r="I61" s="51">
@@ -40192,10 +40214,10 @@
         <f t="shared" si="1"/>
         <v>78121.8</v>
       </c>
-      <c r="O61" s="868" t="s">
+      <c r="O61" s="867" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="869">
+      <c r="P61" s="868">
         <v>44365</v>
       </c>
       <c r="Q61" s="94"/>
@@ -40206,11 +40228,11 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="834"/>
+      <c r="A62" s="833"/>
       <c r="B62" s="328" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="782"/>
+      <c r="C62" s="781"/>
       <c r="D62" s="293"/>
       <c r="E62" s="93"/>
       <c r="F62" s="51">
@@ -40219,7 +40241,7 @@
       <c r="G62" s="49">
         <v>44347</v>
       </c>
-      <c r="H62" s="810"/>
+      <c r="H62" s="809"/>
       <c r="I62" s="51">
         <v>97.9</v>
       </c>
@@ -40236,8 +40258,8 @@
         <f t="shared" si="1"/>
         <v>8419.4</v>
       </c>
-      <c r="O62" s="805"/>
-      <c r="P62" s="749"/>
+      <c r="O62" s="804"/>
+      <c r="P62" s="748"/>
       <c r="Q62" s="94"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
@@ -40248,7 +40270,7 @@
     <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="389"/>
       <c r="B63" s="86"/>
-      <c r="C63" s="799"/>
+      <c r="C63" s="798"/>
       <c r="D63" s="91"/>
       <c r="E63" s="93"/>
       <c r="F63" s="51"/>
@@ -40266,8 +40288,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="802"/>
-      <c r="P63" s="770"/>
+      <c r="O63" s="801"/>
+      <c r="P63" s="769"/>
       <c r="Q63" s="94"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
@@ -40278,7 +40300,7 @@
     <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="390"/>
       <c r="B64" s="86"/>
-      <c r="C64" s="765"/>
+      <c r="C64" s="764"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51"/>
@@ -40296,8 +40318,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="823"/>
-      <c r="P64" s="824"/>
+      <c r="O64" s="822"/>
+      <c r="P64" s="823"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -40396,13 +40418,13 @@
       <c r="V67" s="326"/>
     </row>
     <row r="68" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="857" t="s">
+      <c r="A68" s="856" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="599" t="s">
         <v>401</v>
       </c>
-      <c r="C68" s="860" t="s">
+      <c r="C68" s="859" t="s">
         <v>402</v>
       </c>
       <c r="D68" s="600"/>
@@ -40414,7 +40436,7 @@
       <c r="G68" s="321">
         <v>44319</v>
       </c>
-      <c r="H68" s="777">
+      <c r="H68" s="776">
         <v>32862</v>
       </c>
       <c r="I68" s="275">
@@ -40433,10 +40455,10 @@
         <f t="shared" si="1"/>
         <v>24507</v>
       </c>
-      <c r="O68" s="789" t="s">
+      <c r="O68" s="788" t="s">
         <v>224</v>
       </c>
-      <c r="P68" s="791">
+      <c r="P68" s="790">
         <v>44347</v>
       </c>
       <c r="Q68" s="94"/>
@@ -40447,11 +40469,11 @@
       <c r="V68" s="326"/>
     </row>
     <row r="69" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="858"/>
+      <c r="A69" s="857"/>
       <c r="B69" s="599" t="s">
         <v>399</v>
       </c>
-      <c r="C69" s="861"/>
+      <c r="C69" s="860"/>
       <c r="D69" s="600"/>
       <c r="E69" s="97"/>
       <c r="F69" s="320">
@@ -40461,7 +40483,7 @@
       <c r="G69" s="321">
         <v>44319</v>
       </c>
-      <c r="H69" s="863"/>
+      <c r="H69" s="862"/>
       <c r="I69" s="275">
         <v>210.3</v>
       </c>
@@ -40478,8 +40500,8 @@
         <f t="shared" si="1"/>
         <v>7360.5</v>
       </c>
-      <c r="O69" s="864"/>
-      <c r="P69" s="865"/>
+      <c r="O69" s="863"/>
+      <c r="P69" s="864"/>
       <c r="Q69" s="94"/>
       <c r="R69" s="324"/>
       <c r="S69" s="41"/>
@@ -40488,11 +40510,11 @@
       <c r="V69" s="326"/>
     </row>
     <row r="70" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="859"/>
+      <c r="A70" s="858"/>
       <c r="B70" s="599" t="s">
         <v>403</v>
       </c>
-      <c r="C70" s="862"/>
+      <c r="C70" s="861"/>
       <c r="D70" s="600"/>
       <c r="E70" s="97"/>
       <c r="F70" s="320">
@@ -40501,7 +40523,7 @@
       <c r="G70" s="321">
         <v>44319</v>
       </c>
-      <c r="H70" s="778"/>
+      <c r="H70" s="777"/>
       <c r="I70" s="275">
         <v>23.4</v>
       </c>
@@ -40518,8 +40540,8 @@
         <f t="shared" si="1"/>
         <v>912.59999999999991</v>
       </c>
-      <c r="O70" s="790"/>
-      <c r="P70" s="792"/>
+      <c r="O70" s="789"/>
+      <c r="P70" s="791"/>
       <c r="Q70" s="94"/>
       <c r="R70" s="324"/>
       <c r="S70" s="41"/>
@@ -41079,13 +41101,13 @@
       <c r="V81" s="44"/>
     </row>
     <row r="82" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="849" t="s">
+      <c r="A82" s="848" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="659" t="s">
         <v>478</v>
       </c>
-      <c r="C82" s="754" t="s">
+      <c r="C82" s="753" t="s">
         <v>479</v>
       </c>
       <c r="D82" s="438"/>
@@ -41093,10 +41115,10 @@
       <c r="F82" s="418">
         <v>2525.1999999999998</v>
       </c>
-      <c r="G82" s="766">
+      <c r="G82" s="765">
         <v>44341</v>
       </c>
-      <c r="H82" s="829" t="s">
+      <c r="H82" s="828" t="s">
         <v>480</v>
       </c>
       <c r="I82" s="48">
@@ -41115,10 +41137,10 @@
         <f t="shared" si="1"/>
         <v>202016</v>
       </c>
-      <c r="O82" s="843" t="s">
+      <c r="O82" s="842" t="s">
         <v>206</v>
       </c>
-      <c r="P82" s="846">
+      <c r="P82" s="845">
         <v>44375</v>
       </c>
       <c r="Q82" s="94"/>
@@ -41129,18 +41151,18 @@
       <c r="V82" s="44"/>
     </row>
     <row r="83" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="850"/>
+      <c r="A83" s="849"/>
       <c r="B83" s="659" t="s">
         <v>438</v>
       </c>
-      <c r="C83" s="852"/>
+      <c r="C83" s="851"/>
       <c r="D83" s="438"/>
       <c r="E83" s="97"/>
       <c r="F83" s="418">
         <v>4048</v>
       </c>
-      <c r="G83" s="854"/>
-      <c r="H83" s="853"/>
+      <c r="G83" s="853"/>
+      <c r="H83" s="852"/>
       <c r="I83" s="48">
         <v>4048</v>
       </c>
@@ -41157,8 +41179,8 @@
         <f t="shared" si="1"/>
         <v>242880</v>
       </c>
-      <c r="O83" s="844"/>
-      <c r="P83" s="847"/>
+      <c r="O83" s="843"/>
+      <c r="P83" s="846"/>
       <c r="Q83" s="94"/>
       <c r="R83" s="40"/>
       <c r="S83" s="41"/>
@@ -41167,18 +41189,18 @@
       <c r="V83" s="44"/>
     </row>
     <row r="84" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="850"/>
+      <c r="A84" s="849"/>
       <c r="B84" s="659" t="s">
         <v>481</v>
       </c>
-      <c r="C84" s="852"/>
+      <c r="C84" s="851"/>
       <c r="D84" s="438"/>
       <c r="E84" s="97"/>
       <c r="F84" s="418">
         <v>2185.8000000000002</v>
       </c>
-      <c r="G84" s="854"/>
-      <c r="H84" s="853"/>
+      <c r="G84" s="853"/>
+      <c r="H84" s="852"/>
       <c r="I84" s="48">
         <v>2185.8000000000002</v>
       </c>
@@ -41195,8 +41217,8 @@
         <f t="shared" si="1"/>
         <v>198907.80000000002</v>
       </c>
-      <c r="O84" s="844"/>
-      <c r="P84" s="847"/>
+      <c r="O84" s="843"/>
+      <c r="P84" s="846"/>
       <c r="Q84" s="94"/>
       <c r="R84" s="40"/>
       <c r="S84" s="41"/>
@@ -41205,18 +41227,18 @@
       <c r="V84" s="44"/>
     </row>
     <row r="85" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="850"/>
+      <c r="A85" s="849"/>
       <c r="B85" s="659" t="s">
         <v>482</v>
       </c>
-      <c r="C85" s="852"/>
+      <c r="C85" s="851"/>
       <c r="D85" s="438"/>
       <c r="E85" s="97"/>
       <c r="F85" s="418">
         <v>413</v>
       </c>
-      <c r="G85" s="854"/>
-      <c r="H85" s="853"/>
+      <c r="G85" s="853"/>
+      <c r="H85" s="852"/>
       <c r="I85" s="48">
         <v>413</v>
       </c>
@@ -41233,8 +41255,8 @@
         <f t="shared" si="1"/>
         <v>25193</v>
       </c>
-      <c r="O85" s="844"/>
-      <c r="P85" s="847"/>
+      <c r="O85" s="843"/>
+      <c r="P85" s="846"/>
       <c r="Q85" s="94"/>
       <c r="R85" s="40"/>
       <c r="S85" s="41"/>
@@ -41243,18 +41265,18 @@
       <c r="V85" s="44"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="850"/>
+      <c r="A86" s="849"/>
       <c r="B86" s="659" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="852"/>
+      <c r="C86" s="851"/>
       <c r="D86" s="438"/>
       <c r="E86" s="97"/>
       <c r="F86" s="418">
         <v>518</v>
       </c>
-      <c r="G86" s="854"/>
-      <c r="H86" s="853"/>
+      <c r="G86" s="853"/>
+      <c r="H86" s="852"/>
       <c r="I86" s="48">
         <v>518</v>
       </c>
@@ -41271,8 +41293,8 @@
         <f t="shared" si="1"/>
         <v>18648</v>
       </c>
-      <c r="O86" s="844"/>
-      <c r="P86" s="847"/>
+      <c r="O86" s="843"/>
+      <c r="P86" s="846"/>
       <c r="Q86" s="94"/>
       <c r="R86" s="40"/>
       <c r="S86" s="41"/>
@@ -41281,18 +41303,18 @@
       <c r="V86" s="44"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="850"/>
+      <c r="A87" s="849"/>
       <c r="B87" s="659" t="s">
         <v>483</v>
       </c>
-      <c r="C87" s="852"/>
+      <c r="C87" s="851"/>
       <c r="D87" s="438"/>
       <c r="E87" s="97"/>
       <c r="F87" s="418">
         <v>1848.4</v>
       </c>
-      <c r="G87" s="854"/>
-      <c r="H87" s="853"/>
+      <c r="G87" s="853"/>
+      <c r="H87" s="852"/>
       <c r="I87" s="48">
         <v>1848.4</v>
       </c>
@@ -41309,8 +41331,8 @@
         <f t="shared" si="1"/>
         <v>53603.600000000006</v>
       </c>
-      <c r="O87" s="844"/>
-      <c r="P87" s="847"/>
+      <c r="O87" s="843"/>
+      <c r="P87" s="846"/>
       <c r="Q87" s="94"/>
       <c r="R87" s="40"/>
       <c r="S87" s="41"/>
@@ -41319,18 +41341,18 @@
       <c r="V87" s="44"/>
     </row>
     <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="850"/>
+      <c r="A88" s="849"/>
       <c r="B88" s="659" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="852"/>
+      <c r="C88" s="851"/>
       <c r="D88" s="438"/>
       <c r="E88" s="97"/>
       <c r="F88" s="418">
         <v>744</v>
       </c>
-      <c r="G88" s="854"/>
-      <c r="H88" s="853"/>
+      <c r="G88" s="853"/>
+      <c r="H88" s="852"/>
       <c r="I88" s="48">
         <v>744</v>
       </c>
@@ -41347,8 +41369,8 @@
         <f t="shared" si="1"/>
         <v>28272</v>
       </c>
-      <c r="O88" s="844"/>
-      <c r="P88" s="847"/>
+      <c r="O88" s="843"/>
+      <c r="P88" s="846"/>
       <c r="Q88" s="94"/>
       <c r="R88" s="40"/>
       <c r="S88" s="41"/>
@@ -41357,18 +41379,18 @@
       <c r="V88" s="44"/>
     </row>
     <row r="89" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="851"/>
+      <c r="A89" s="850"/>
       <c r="B89" s="659" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="755"/>
+      <c r="C89" s="754"/>
       <c r="D89" s="438"/>
       <c r="E89" s="97"/>
       <c r="F89" s="418">
         <v>1469</v>
       </c>
-      <c r="G89" s="767"/>
-      <c r="H89" s="830"/>
+      <c r="G89" s="766"/>
+      <c r="H89" s="829"/>
       <c r="I89" s="48">
         <v>1469</v>
       </c>
@@ -41385,8 +41407,8 @@
         <f t="shared" si="1"/>
         <v>117520</v>
       </c>
-      <c r="O89" s="845"/>
-      <c r="P89" s="848"/>
+      <c r="O89" s="844"/>
+      <c r="P89" s="847"/>
       <c r="Q89" s="94"/>
       <c r="R89" s="40"/>
       <c r="S89" s="41"/>
@@ -46326,11 +46348,11 @@
     <row r="253" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A253" s="206"/>
       <c r="B253" s="207"/>
-      <c r="F253" s="795" t="s">
+      <c r="F253" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G253" s="795"/>
-      <c r="H253" s="796"/>
+      <c r="G253" s="794"/>
+      <c r="H253" s="795"/>
       <c r="I253" s="216">
         <f>SUM(I4:I252)</f>
         <v>442400.9</v>
@@ -46966,18 +46988,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -46993,22 +47015,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -48039,7 +48061,7 @@
         <v>44365</v>
       </c>
       <c r="S17" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T17" s="44">
         <v>6032</v>
@@ -48112,7 +48134,7 @@
         <v>44365</v>
       </c>
       <c r="S18" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T18" s="44">
         <v>0</v>
@@ -48250,7 +48272,7 @@
         <v>44375</v>
       </c>
       <c r="S20" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T20" s="44">
         <v>6032</v>
@@ -48323,7 +48345,7 @@
         <v>44375</v>
       </c>
       <c r="S21" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T21" s="44">
         <v>6032</v>
@@ -48396,7 +48418,7 @@
         <v>44375</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T22" s="44">
         <v>6032</v>
@@ -48534,7 +48556,7 @@
         <v>44379</v>
       </c>
       <c r="S24" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T24" s="44">
         <v>6032</v>
@@ -48607,7 +48629,7 @@
         <v>44379</v>
       </c>
       <c r="S25" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T25" s="44">
         <v>0</v>
@@ -48680,7 +48702,7 @@
         <v>44379</v>
       </c>
       <c r="S26" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T26" s="44">
         <v>6032</v>
@@ -49631,13 +49653,13 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="787" t="s">
+      <c r="A54" s="786" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="880" t="s">
+      <c r="C54" s="879" t="s">
         <v>521</v>
       </c>
       <c r="D54" s="608"/>
@@ -49648,7 +49670,7 @@
       <c r="G54" s="87">
         <v>44361</v>
       </c>
-      <c r="H54" s="885">
+      <c r="H54" s="884">
         <v>439</v>
       </c>
       <c r="I54" s="48">
@@ -49667,10 +49689,10 @@
         <f t="shared" si="1"/>
         <v>116188</v>
       </c>
-      <c r="O54" s="878" t="s">
+      <c r="O54" s="877" t="s">
         <v>224</v>
       </c>
-      <c r="P54" s="879">
+      <c r="P54" s="878">
         <v>44382</v>
       </c>
       <c r="Q54" s="508"/>
@@ -49681,11 +49703,11 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="788"/>
+      <c r="A55" s="787"/>
       <c r="B55" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C55" s="881"/>
+      <c r="C55" s="880"/>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
       <c r="F55" s="51">
@@ -49694,7 +49716,7 @@
       <c r="G55" s="87">
         <v>44361</v>
       </c>
-      <c r="H55" s="886"/>
+      <c r="H55" s="885"/>
       <c r="I55" s="48">
         <v>90</v>
       </c>
@@ -49711,8 +49733,8 @@
         <f t="shared" si="1"/>
         <v>7740</v>
       </c>
-      <c r="O55" s="878"/>
-      <c r="P55" s="879"/>
+      <c r="O55" s="877"/>
+      <c r="P55" s="878"/>
       <c r="Q55" s="508"/>
       <c r="R55" s="40"/>
       <c r="S55" s="67"/>
@@ -49721,13 +49743,13 @@
       <c r="V55" s="326"/>
     </row>
     <row r="56" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="882" t="s">
+      <c r="A56" s="881" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="884" t="s">
+      <c r="C56" s="883" t="s">
         <v>524</v>
       </c>
       <c r="D56" s="608"/>
@@ -49738,7 +49760,7 @@
       <c r="G56" s="87">
         <v>44368</v>
       </c>
-      <c r="H56" s="829">
+      <c r="H56" s="828">
         <v>457</v>
       </c>
       <c r="I56" s="48">
@@ -49757,10 +49779,10 @@
         <f t="shared" si="1"/>
         <v>102145</v>
       </c>
-      <c r="O56" s="804" t="s">
+      <c r="O56" s="803" t="s">
         <v>224</v>
       </c>
-      <c r="P56" s="887">
+      <c r="P56" s="886">
         <v>44393</v>
       </c>
       <c r="Q56" s="508"/>
@@ -49771,11 +49793,11 @@
       <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="883"/>
+      <c r="A57" s="882"/>
       <c r="B57" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="884"/>
+      <c r="C57" s="883"/>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
       <c r="F57" s="51">
@@ -49784,7 +49806,7 @@
       <c r="G57" s="87">
         <v>44368</v>
       </c>
-      <c r="H57" s="830"/>
+      <c r="H57" s="829"/>
       <c r="I57" s="48">
         <v>112.8023</v>
       </c>
@@ -49801,8 +49823,8 @@
         <f t="shared" si="1"/>
         <v>9700.997800000001</v>
       </c>
-      <c r="O57" s="805"/>
-      <c r="P57" s="888"/>
+      <c r="O57" s="804"/>
+      <c r="P57" s="887"/>
       <c r="Q57" s="508"/>
       <c r="R57" s="40"/>
       <c r="S57" s="67"/>
@@ -49811,13 +49833,13 @@
       <c r="V57" s="44"/>
     </row>
     <row r="58" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="811" t="s">
+      <c r="A58" s="810" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="808" t="s">
+      <c r="C58" s="807" t="s">
         <v>525</v>
       </c>
       <c r="D58" s="608"/>
@@ -49825,10 +49847,10 @@
       <c r="F58" s="51">
         <v>1272.8</v>
       </c>
-      <c r="G58" s="889">
+      <c r="G58" s="888">
         <v>44375</v>
       </c>
-      <c r="H58" s="874">
+      <c r="H58" s="873">
         <v>469</v>
       </c>
       <c r="I58" s="48">
@@ -49847,10 +49869,10 @@
         <f t="shared" si="1"/>
         <v>98642</v>
       </c>
-      <c r="O58" s="804" t="s">
+      <c r="O58" s="803" t="s">
         <v>224</v>
       </c>
-      <c r="P58" s="887">
+      <c r="P58" s="886">
         <v>44393</v>
       </c>
       <c r="Q58" s="508"/>
@@ -49861,18 +49883,18 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="812"/>
+      <c r="A59" s="811"/>
       <c r="B59" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="C59" s="809"/>
+      <c r="C59" s="808"/>
       <c r="D59" s="610"/>
       <c r="E59" s="609"/>
       <c r="F59" s="51">
         <v>91.4</v>
       </c>
-      <c r="G59" s="890"/>
-      <c r="H59" s="875"/>
+      <c r="G59" s="889"/>
+      <c r="H59" s="874"/>
       <c r="I59" s="48">
         <v>91.4</v>
       </c>
@@ -49889,8 +49911,8 @@
         <f t="shared" si="1"/>
         <v>7860.4000000000005</v>
       </c>
-      <c r="O59" s="805"/>
-      <c r="P59" s="888"/>
+      <c r="O59" s="804"/>
+      <c r="P59" s="887"/>
       <c r="Q59" s="508"/>
       <c r="R59" s="40"/>
       <c r="S59" s="41"/>
@@ -50305,13 +50327,13 @@
       <c r="V71" s="326"/>
     </row>
     <row r="72" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="872" t="s">
+      <c r="A72" s="871" t="s">
         <v>451</v>
       </c>
       <c r="B72" s="659" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="870" t="s">
+      <c r="C72" s="869" t="s">
         <v>453</v>
       </c>
       <c r="D72" s="660"/>
@@ -50322,7 +50344,7 @@
       <c r="G72" s="87">
         <v>44361</v>
       </c>
-      <c r="H72" s="874" t="s">
+      <c r="H72" s="873" t="s">
         <v>455</v>
       </c>
       <c r="I72" s="48">
@@ -50335,10 +50357,10 @@
       <c r="K72" s="56">
         <v>55</v>
       </c>
-      <c r="L72" s="876" t="s">
+      <c r="L72" s="875" t="s">
         <v>460</v>
       </c>
-      <c r="M72" s="877"/>
+      <c r="M72" s="876"/>
       <c r="N72" s="57">
         <f t="shared" si="1"/>
         <v>11111.1</v>
@@ -50357,11 +50379,11 @@
       <c r="V72" s="326"/>
     </row>
     <row r="73" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="873"/>
+      <c r="A73" s="872"/>
       <c r="B73" s="659" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="871"/>
+      <c r="C73" s="870"/>
       <c r="D73" s="660"/>
       <c r="E73" s="613"/>
       <c r="F73" s="51">
@@ -50370,7 +50392,7 @@
       <c r="G73" s="87">
         <v>44361</v>
       </c>
-      <c r="H73" s="875"/>
+      <c r="H73" s="874"/>
       <c r="I73" s="48">
         <v>72.849999999999994</v>
       </c>
@@ -50381,8 +50403,8 @@
       <c r="K73" s="56">
         <v>100</v>
       </c>
-      <c r="L73" s="876"/>
-      <c r="M73" s="877"/>
+      <c r="L73" s="875"/>
+      <c r="M73" s="876"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>7284.9999999999991</v>
@@ -55522,11 +55544,11 @@
     <row r="243" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A243" s="206"/>
       <c r="B243" s="207"/>
-      <c r="F243" s="795" t="s">
+      <c r="F243" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="795"/>
-      <c r="H243" s="796"/>
+      <c r="G243" s="794"/>
+      <c r="H243" s="795"/>
       <c r="I243" s="216">
         <f>SUM(I4:I242)</f>
         <v>406525.67229999998</v>
@@ -56130,17 +56152,17 @@
   <dimension ref="A1:X279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="208" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="208" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="208" customWidth="1"/>
     <col min="4" max="4" width="11" style="208" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="209" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="210" customWidth="1"/>
@@ -56162,18 +56184,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="773" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -56189,22 +56211,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -56283,7 +56305,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="48" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="721" t="s">
+      <c r="A4" s="720" t="s">
         <v>282</v>
       </c>
       <c r="B4" s="267" t="s">
@@ -56305,7 +56327,7 @@
       <c r="G4" s="271">
         <v>44378</v>
       </c>
-      <c r="H4" s="738" t="s">
+      <c r="H4" s="733" t="s">
         <v>564</v>
       </c>
       <c r="I4" s="34">
@@ -56319,10 +56341,10 @@
       <c r="K4" s="322">
         <v>42</v>
       </c>
-      <c r="L4" s="722" t="s">
+      <c r="L4" s="721" t="s">
         <v>565</v>
       </c>
-      <c r="M4" s="722">
+      <c r="M4" s="721">
         <v>6847.5</v>
       </c>
       <c r="N4" s="38">
@@ -56344,15 +56366,15 @@
       <c r="S4" s="483"/>
       <c r="T4" s="42"/>
       <c r="U4" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V4" s="44">
         <v>6032</v>
       </c>
-      <c r="W4" s="742" t="s">
-        <v>605</v>
-      </c>
-      <c r="X4" s="743">
+      <c r="W4" s="737" t="s">
+        <v>604</v>
+      </c>
+      <c r="X4" s="738">
         <v>3960</v>
       </c>
     </row>
@@ -56402,10 +56424,10 @@
         <f t="shared" si="1"/>
         <v>914340</v>
       </c>
-      <c r="O5" s="723" t="s">
+      <c r="O5" s="722" t="s">
         <v>569</v>
       </c>
-      <c r="P5" s="724" t="s">
+      <c r="P5" s="723" t="s">
         <v>570</v>
       </c>
       <c r="Q5" s="645">
@@ -56417,13 +56439,13 @@
       <c r="S5" s="483"/>
       <c r="T5" s="42"/>
       <c r="U5" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V5" s="44">
         <v>6032</v>
       </c>
       <c r="W5" s="411" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X5" s="412">
         <v>3960</v>
@@ -56475,10 +56497,10 @@
         <f t="shared" si="1"/>
         <v>249690</v>
       </c>
-      <c r="O6" s="723" t="s">
+      <c r="O6" s="722" t="s">
         <v>569</v>
       </c>
-      <c r="P6" s="724" t="s">
+      <c r="P6" s="723" t="s">
         <v>570</v>
       </c>
       <c r="Q6" s="645">
@@ -56490,13 +56512,13 @@
       <c r="S6" s="483"/>
       <c r="T6" s="42"/>
       <c r="U6" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V6" s="44">
         <v>0</v>
       </c>
       <c r="W6" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X6" s="361">
         <v>0</v>
@@ -56510,7 +56532,7 @@
         <v>467</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D7" s="93">
         <v>59</v>
@@ -56548,10 +56570,10 @@
         <f t="shared" si="1"/>
         <v>916320</v>
       </c>
-      <c r="O7" s="723" t="s">
+      <c r="O7" s="722" t="s">
         <v>569</v>
       </c>
-      <c r="P7" s="724" t="s">
+      <c r="P7" s="723" t="s">
         <v>570</v>
       </c>
       <c r="Q7" s="645">
@@ -56563,13 +56585,13 @@
       <c r="S7" s="483"/>
       <c r="T7" s="42"/>
       <c r="U7" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V7" s="44">
         <v>6032</v>
       </c>
       <c r="W7" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X7" s="361">
         <v>3960</v>
@@ -56583,7 +56605,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="274" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D8" s="93">
         <v>59</v>
@@ -56599,7 +56621,7 @@
         <v>44383</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I8" s="51">
         <v>22960</v>
@@ -56636,13 +56658,13 @@
       <c r="S8" s="483"/>
       <c r="T8" s="42"/>
       <c r="U8" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V8" s="44">
         <v>6032</v>
       </c>
       <c r="W8" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X8" s="361">
         <v>3960</v>
@@ -56656,7 +56678,7 @@
         <v>508</v>
       </c>
       <c r="C9" s="274" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D9" s="93">
         <v>59</v>
@@ -56709,13 +56731,13 @@
       <c r="S9" s="483"/>
       <c r="T9" s="42"/>
       <c r="U9" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V9" s="44">
         <v>6032</v>
       </c>
       <c r="W9" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X9" s="361">
         <v>3960</v>
@@ -56729,7 +56751,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="274" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="173">
         <v>59</v>
@@ -56745,7 +56767,7 @@
         <v>44386</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I10" s="51">
         <v>21425</v>
@@ -56757,10 +56779,10 @@
       <c r="K10" s="322">
         <v>41</v>
       </c>
-      <c r="L10" s="741" t="s">
+      <c r="L10" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M10" s="741">
+      <c r="M10" s="736">
         <v>7027.4</v>
       </c>
       <c r="N10" s="38">
@@ -56782,13 +56804,13 @@
       <c r="S10" s="483"/>
       <c r="T10" s="42"/>
       <c r="U10" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V10" s="44">
         <v>6032</v>
       </c>
       <c r="W10" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X10" s="361">
         <v>3960</v>
@@ -56802,7 +56824,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="274" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D11" s="93">
         <v>0</v>
@@ -56851,13 +56873,13 @@
       <c r="S11" s="483"/>
       <c r="T11" s="42"/>
       <c r="U11" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V11" s="44">
         <v>0</v>
       </c>
       <c r="W11" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X11" s="361">
         <v>0</v>
@@ -56871,7 +56893,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="274" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D12" s="93">
         <v>59</v>
@@ -56887,7 +56909,7 @@
         <v>44388</v>
       </c>
       <c r="H12" s="677" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I12" s="51">
         <v>21910</v>
@@ -56899,20 +56921,20 @@
       <c r="K12" s="322">
         <v>41</v>
       </c>
-      <c r="L12" s="741" t="s">
+      <c r="L12" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M12" s="741">
+      <c r="M12" s="736">
         <v>4790.99</v>
       </c>
       <c r="N12" s="38">
         <f t="shared" si="1"/>
         <v>898310</v>
       </c>
-      <c r="O12" s="729" t="s">
+      <c r="O12" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="740">
+      <c r="P12" s="735">
         <v>44410</v>
       </c>
       <c r="Q12" s="645">
@@ -56924,13 +56946,13 @@
       <c r="S12" s="483"/>
       <c r="T12" s="42"/>
       <c r="U12" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V12" s="44">
         <v>6032</v>
       </c>
       <c r="W12" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X12" s="361">
         <v>3960</v>
@@ -56944,7 +56966,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="274" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" s="93">
         <v>0</v>
@@ -56960,7 +56982,7 @@
         <v>44388</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I13" s="51">
         <v>5360</v>
@@ -56972,10 +56994,10 @@
       <c r="K13" s="322">
         <v>41</v>
       </c>
-      <c r="L13" s="741" t="s">
+      <c r="L13" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M13" s="741">
+      <c r="M13" s="736">
         <v>732.53</v>
       </c>
       <c r="N13" s="38">
@@ -56997,13 +57019,13 @@
       <c r="S13" s="483"/>
       <c r="T13" s="42"/>
       <c r="U13" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V13" s="44">
         <v>0</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X13" s="361">
         <v>0</v>
@@ -57017,7 +57039,7 @@
         <v>283</v>
       </c>
       <c r="C14" s="274" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D14" s="93">
         <v>59</v>
@@ -57033,7 +57055,7 @@
         <v>44391</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I14" s="51">
         <v>21140</v>
@@ -57045,20 +57067,20 @@
       <c r="K14" s="322">
         <v>41</v>
       </c>
-      <c r="L14" s="741" t="s">
+      <c r="L14" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M14" s="741">
+      <c r="M14" s="736">
         <v>5200.4399999999996</v>
       </c>
       <c r="N14" s="38">
         <f t="shared" si="1"/>
         <v>866740</v>
       </c>
-      <c r="O14" s="729" t="s">
+      <c r="O14" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="740">
+      <c r="P14" s="735">
         <v>44414</v>
       </c>
       <c r="Q14" s="645">
@@ -57070,13 +57092,13 @@
       <c r="S14" s="483"/>
       <c r="T14" s="42"/>
       <c r="U14" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V14" s="44">
         <v>6032</v>
       </c>
       <c r="W14" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X14" s="361">
         <v>3960</v>
@@ -57090,7 +57112,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="679" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D15" s="93">
         <v>59</v>
@@ -57106,7 +57128,7 @@
         <v>44393</v>
       </c>
       <c r="H15" s="677" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I15" s="51">
         <v>20885</v>
@@ -57118,20 +57140,20 @@
       <c r="K15" s="322">
         <v>41</v>
       </c>
-      <c r="L15" s="741" t="s">
+      <c r="L15" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M15" s="741">
+      <c r="M15" s="736">
         <v>6279.42</v>
       </c>
       <c r="N15" s="38">
         <f t="shared" si="1"/>
         <v>856285</v>
       </c>
-      <c r="O15" s="729" t="s">
+      <c r="O15" s="728" t="s">
         <v>206</v>
       </c>
-      <c r="P15" s="740">
+      <c r="P15" s="735">
         <v>44418</v>
       </c>
       <c r="Q15" s="645">
@@ -57145,7 +57167,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="44"/>
       <c r="W15" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X15" s="361">
         <v>3960</v>
@@ -57159,7 +57181,7 @@
         <v>513</v>
       </c>
       <c r="C16" s="274" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D16" s="93">
         <v>0</v>
@@ -57175,7 +57197,7 @@
         <v>44393</v>
       </c>
       <c r="H16" s="677" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I16" s="51">
         <v>5740</v>
@@ -57187,20 +57209,20 @@
       <c r="K16" s="581">
         <v>41</v>
       </c>
-      <c r="L16" s="741" t="s">
+      <c r="L16" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M16" s="741">
+      <c r="M16" s="736">
         <v>1725.83</v>
       </c>
       <c r="N16" s="57">
         <f t="shared" si="1"/>
         <v>235340</v>
       </c>
-      <c r="O16" s="729" t="s">
+      <c r="O16" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="740">
+      <c r="P16" s="735">
         <v>44418</v>
       </c>
       <c r="Q16" s="645">
@@ -57214,7 +57236,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="44"/>
       <c r="W16" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X16" s="361">
         <v>0</v>
@@ -57228,7 +57250,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="274" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D17" s="93">
         <v>59</v>
@@ -57244,7 +57266,7 @@
         <v>44395</v>
       </c>
       <c r="H17" s="677" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I17" s="51">
         <v>22060</v>
@@ -57256,20 +57278,20 @@
       <c r="K17" s="581">
         <v>40</v>
       </c>
-      <c r="L17" s="741" t="s">
+      <c r="L17" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M17" s="741">
+      <c r="M17" s="736">
         <v>5294.4</v>
       </c>
       <c r="N17" s="57">
         <f t="shared" si="1"/>
         <v>882400</v>
       </c>
-      <c r="O17" s="729" t="s">
+      <c r="O17" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="740">
+      <c r="P17" s="735">
         <v>44418</v>
       </c>
       <c r="Q17" s="645">
@@ -57283,7 +57305,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="44"/>
       <c r="W17" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X17" s="361">
         <v>3960</v>
@@ -57297,7 +57319,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="274" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D18" s="93">
         <v>59</v>
@@ -57313,7 +57335,7 @@
         <v>44397</v>
       </c>
       <c r="H18" s="677" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I18" s="51">
         <v>21640</v>
@@ -57325,20 +57347,20 @@
       <c r="K18" s="581">
         <v>40</v>
       </c>
-      <c r="L18" s="741" t="s">
+      <c r="L18" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M18" s="741">
+      <c r="M18" s="736">
         <v>5193.6000000000004</v>
       </c>
       <c r="N18" s="57">
         <f t="shared" si="1"/>
         <v>865600</v>
       </c>
-      <c r="O18" s="729" t="s">
+      <c r="O18" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="740">
+      <c r="P18" s="735">
         <v>44420</v>
       </c>
       <c r="Q18" s="647">
@@ -57352,21 +57374,21 @@
       <c r="U18" s="43"/>
       <c r="V18" s="44"/>
       <c r="W18" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X18" s="361">
         <v>3960</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="716" t="s">
+      <c r="A19" s="715" t="s">
         <v>554</v>
       </c>
       <c r="B19" s="273" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="274" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D19" s="93">
         <v>59</v>
@@ -57382,7 +57404,7 @@
         <v>44399</v>
       </c>
       <c r="H19" s="677" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I19" s="51">
         <v>20640</v>
@@ -57394,20 +57416,20 @@
       <c r="K19" s="581">
         <v>39</v>
       </c>
-      <c r="L19" s="741" t="s">
+      <c r="L19" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M19" s="741">
+      <c r="M19" s="736">
         <v>5903.04</v>
       </c>
       <c r="N19" s="57">
         <f t="shared" si="1"/>
         <v>804960</v>
       </c>
-      <c r="O19" s="729" t="s">
+      <c r="O19" s="728" t="s">
         <v>206</v>
       </c>
-      <c r="P19" s="740">
+      <c r="P19" s="735">
         <v>44424</v>
       </c>
       <c r="Q19" s="647">
@@ -57421,7 +57443,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="44"/>
       <c r="W19" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X19" s="361">
         <v>3960</v>
@@ -57435,7 +57457,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="274" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D20" s="93">
         <v>59</v>
@@ -57451,7 +57473,7 @@
         <v>44400</v>
       </c>
       <c r="H20" s="677" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I20" s="51">
         <f>21100-105.5</f>
@@ -57464,20 +57486,20 @@
       <c r="K20" s="581">
         <v>39</v>
       </c>
-      <c r="L20" s="741" t="s">
+      <c r="L20" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M20" s="741">
+      <c r="M20" s="736">
         <v>5458.57</v>
       </c>
       <c r="N20" s="57">
         <f t="shared" si="1"/>
         <v>818785.5</v>
       </c>
-      <c r="O20" s="729" t="s">
+      <c r="O20" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="740">
+      <c r="P20" s="735">
         <v>44424</v>
       </c>
       <c r="Q20" s="647">
@@ -57491,13 +57513,13 @@
       <c r="U20" s="43"/>
       <c r="V20" s="44"/>
       <c r="W20" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X20" s="361">
         <v>3960</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A21" s="280" t="s">
         <v>231</v>
       </c>
@@ -57505,7 +57527,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="274" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D21" s="93">
         <v>59</v>
@@ -57521,7 +57543,7 @@
         <v>44402</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="I21" s="51">
         <v>20510</v>
@@ -57533,16 +57555,20 @@
       <c r="K21" s="581">
         <v>39</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="L21" s="736" t="s">
+        <v>565</v>
+      </c>
+      <c r="M21" s="736">
+        <v>4799.34</v>
+      </c>
       <c r="N21" s="57">
         <f t="shared" si="1"/>
         <v>799890</v>
       </c>
-      <c r="O21" s="729" t="s">
+      <c r="O21" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="740">
+      <c r="P21" s="735">
         <v>44425</v>
       </c>
       <c r="Q21" s="647">
@@ -57556,13 +57582,13 @@
       <c r="U21" s="43"/>
       <c r="V21" s="44"/>
       <c r="W21" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X21" s="361">
         <v>3960</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A22" s="281" t="s">
         <v>48</v>
       </c>
@@ -57570,7 +57596,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="274" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D22" s="93">
         <v>0</v>
@@ -57586,7 +57612,7 @@
         <v>44402</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="I22" s="51">
         <v>5100</v>
@@ -57598,16 +57624,20 @@
       <c r="K22" s="581">
         <v>39</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="L22" s="736" t="s">
+        <v>565</v>
+      </c>
+      <c r="M22" s="736">
+        <v>928.2</v>
+      </c>
       <c r="N22" s="57">
         <f t="shared" si="1"/>
         <v>198900</v>
       </c>
-      <c r="O22" s="729" t="s">
+      <c r="O22" s="728" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="740">
+      <c r="P22" s="735">
         <v>44425</v>
       </c>
       <c r="Q22" s="647">
@@ -57621,13 +57651,13 @@
       <c r="U22" s="43"/>
       <c r="V22" s="44"/>
       <c r="W22" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X22" s="361">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A23" s="417" t="s">
         <v>68</v>
       </c>
@@ -57635,7 +57665,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="274" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D23" s="93">
         <v>59</v>
@@ -57651,7 +57681,7 @@
         <v>44404</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="I23" s="51">
         <v>23235</v>
@@ -57663,14 +57693,22 @@
       <c r="K23" s="581">
         <v>39</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="L23" s="736" t="s">
+        <v>565</v>
+      </c>
+      <c r="M23" s="736">
+        <v>5436.99</v>
+      </c>
       <c r="N23" s="62">
         <f t="shared" si="1"/>
         <v>906165</v>
       </c>
-      <c r="O23" s="359"/>
-      <c r="P23" s="740"/>
+      <c r="O23" s="359" t="s">
+        <v>459</v>
+      </c>
+      <c r="P23" s="735">
+        <v>44427</v>
+      </c>
       <c r="Q23" s="647">
         <v>20740</v>
       </c>
@@ -57682,21 +57720,21 @@
       <c r="U23" s="43"/>
       <c r="V23" s="44"/>
       <c r="W23" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X23" s="361">
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="278" t="s">
-        <v>551</v>
+        <v>24</v>
       </c>
       <c r="B24" s="273" t="s">
         <v>575</v>
       </c>
       <c r="C24" s="274" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D24" s="93">
         <v>52</v>
@@ -57711,7 +57749,9 @@
       <c r="G24" s="276">
         <v>44407</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="50">
+        <v>34124</v>
+      </c>
       <c r="I24" s="51">
         <v>9280</v>
       </c>
@@ -57728,8 +57768,12 @@
         <f t="shared" si="1"/>
         <v>482560</v>
       </c>
-      <c r="O24" s="729"/>
-      <c r="P24" s="740"/>
+      <c r="O24" s="728" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="735">
+        <v>44428</v>
+      </c>
       <c r="Q24" s="647">
         <v>0</v>
       </c>
@@ -57755,7 +57799,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="274" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D25" s="93">
         <v>53</v>
@@ -57771,7 +57815,7 @@
         <v>44407</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I25" s="51">
         <v>22955</v>
@@ -57789,8 +57833,8 @@
         <f t="shared" si="1"/>
         <v>895245</v>
       </c>
-      <c r="O25" s="729"/>
-      <c r="P25" s="740"/>
+      <c r="O25" s="728"/>
+      <c r="P25" s="735"/>
       <c r="Q25" s="647">
         <v>25140</v>
       </c>
@@ -57802,13 +57846,13 @@
       <c r="U25" s="43"/>
       <c r="V25" s="44"/>
       <c r="W25" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X25" s="361">
         <v>3960</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A26" s="281" t="s">
         <v>576</v>
       </c>
@@ -57816,7 +57860,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="274" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" s="93">
         <v>53</v>
@@ -57832,7 +57876,7 @@
         <v>44407</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="I26" s="51">
         <v>5290</v>
@@ -57844,14 +57888,22 @@
       <c r="K26" s="581">
         <v>39</v>
       </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="L26" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="M26" s="52">
+        <v>687.7</v>
+      </c>
       <c r="N26" s="57">
         <f t="shared" si="1"/>
         <v>206310</v>
       </c>
-      <c r="O26" s="729"/>
-      <c r="P26" s="740"/>
+      <c r="O26" s="728" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="735">
+        <v>44426</v>
+      </c>
       <c r="Q26" s="647">
         <v>0</v>
       </c>
@@ -57863,7 +57915,7 @@
       <c r="U26" s="43"/>
       <c r="V26" s="44"/>
       <c r="W26" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X26" s="361">
         <v>0</v>
@@ -58757,16 +58809,16 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="899" t="s">
+      <c r="A53" s="898" t="s">
         <v>440</v>
       </c>
       <c r="B53" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="817" t="s">
+      <c r="C53" s="816" t="s">
         <v>558</v>
       </c>
-      <c r="D53" s="717"/>
+      <c r="D53" s="716"/>
       <c r="E53" s="607"/>
       <c r="F53" s="320">
         <v>1888.8</v>
@@ -58774,7 +58826,7 @@
       <c r="G53" s="321">
         <v>44382</v>
       </c>
-      <c r="H53" s="821">
+      <c r="H53" s="820">
         <v>479</v>
       </c>
       <c r="I53" s="275">
@@ -58793,7 +58845,7 @@
         <f t="shared" si="1"/>
         <v>146382</v>
       </c>
-      <c r="O53" s="837" t="s">
+      <c r="O53" s="836" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -58809,12 +58861,12 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="900"/>
+      <c r="A54" s="899"/>
       <c r="B54" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C54" s="818"/>
-      <c r="D54" s="718"/>
+      <c r="C54" s="817"/>
+      <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
         <v>101.8</v>
@@ -58822,7 +58874,7 @@
       <c r="G54" s="87">
         <v>44382</v>
       </c>
-      <c r="H54" s="822"/>
+      <c r="H54" s="821"/>
       <c r="I54" s="48">
         <v>101.8023</v>
       </c>
@@ -58839,7 +58891,7 @@
         <f t="shared" si="1"/>
         <v>8754.997800000001</v>
       </c>
-      <c r="O54" s="838"/>
+      <c r="O54" s="837"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -58855,8 +58907,8 @@
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="730" t="s">
-        <v>606</v>
+      <c r="C55" s="729" t="s">
+        <v>605</v>
       </c>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
@@ -58866,7 +58918,7 @@
       <c r="G55" s="49">
         <v>44389</v>
       </c>
-      <c r="H55" s="901">
+      <c r="H55" s="743">
         <v>491</v>
       </c>
       <c r="I55" s="51">
@@ -58888,7 +58940,7 @@
       <c r="O55" s="454" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="745">
+      <c r="P55" s="740">
         <v>44381</v>
       </c>
       <c r="Q55" s="508"/>
@@ -58905,8 +58957,8 @@
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="91" t="s">
-        <v>613</v>
+      <c r="C56" s="746" t="s">
+        <v>612</v>
       </c>
       <c r="D56" s="608"/>
       <c r="E56" s="607"/>
@@ -58938,7 +58990,7 @@
       <c r="O56" s="454" t="s">
         <v>35</v>
       </c>
-      <c r="P56" s="745">
+      <c r="P56" s="740">
         <v>44419</v>
       </c>
       <c r="Q56" s="508"/>
@@ -58948,29 +59000,49 @@
       <c r="U56" s="43"/>
       <c r="V56" s="44"/>
     </row>
-    <row r="57" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
-      <c r="B57" s="328"/>
-      <c r="C57" s="91"/>
+    <row r="57" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="B57" s="328" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="746" t="s">
+        <v>623</v>
+      </c>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="51"/>
+      <c r="F57" s="51">
+        <v>1428.4</v>
+      </c>
+      <c r="G57" s="49">
+        <v>44403</v>
+      </c>
+      <c r="H57" s="50">
+        <v>508</v>
+      </c>
+      <c r="I57" s="51">
+        <v>1428.4</v>
+      </c>
       <c r="J57" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K57" s="36"/>
+      <c r="K57" s="36">
+        <v>78</v>
+      </c>
       <c r="L57" s="52"/>
       <c r="M57" s="52"/>
       <c r="N57" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="508"/>
-      <c r="P57" s="702"/>
+        <v>111415.20000000001</v>
+      </c>
+      <c r="O57" s="454" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="740">
+        <v>44428</v>
+      </c>
       <c r="Q57" s="508"/>
       <c r="R57" s="40"/>
       <c r="S57" s="67"/>
@@ -59095,7 +59167,7 @@
       <c r="B61" s="599" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="709" t="s">
+      <c r="C61" s="708" t="s">
         <v>520</v>
       </c>
       <c r="D61" s="610"/>
@@ -59125,10 +59197,10 @@
         <f t="shared" si="1"/>
         <v>19305</v>
       </c>
-      <c r="O61" s="711" t="s">
+      <c r="O61" s="710" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="714">
+      <c r="P61" s="713">
         <v>44392</v>
       </c>
       <c r="Q61" s="508"/>
@@ -59139,24 +59211,24 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="833" t="s">
+      <c r="A62" s="832" t="s">
         <v>551</v>
       </c>
-      <c r="B62" s="744" t="s">
+      <c r="B62" s="739" t="s">
         <v>552</v>
       </c>
-      <c r="C62" s="893" t="s">
+      <c r="C62" s="892" t="s">
         <v>553</v>
       </c>
-      <c r="D62" s="708"/>
+      <c r="D62" s="707"/>
       <c r="E62" s="609"/>
       <c r="F62" s="51">
         <v>9342.59</v>
       </c>
-      <c r="G62" s="895">
+      <c r="G62" s="894">
         <v>44391</v>
       </c>
-      <c r="H62" s="800">
+      <c r="H62" s="799">
         <v>1021</v>
       </c>
       <c r="I62" s="51">
@@ -59175,13 +59247,13 @@
         <f t="shared" si="1"/>
         <v>443773.02500000002</v>
       </c>
-      <c r="O62" s="789" t="s">
+      <c r="O62" s="788" t="s">
         <v>224</v>
       </c>
-      <c r="P62" s="897">
+      <c r="P62" s="896">
         <v>44399</v>
       </c>
-      <c r="Q62" s="713"/>
+      <c r="Q62" s="712"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
       <c r="T62" s="42"/>
@@ -59189,18 +59261,18 @@
       <c r="V62" s="44"/>
     </row>
     <row r="63" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="834"/>
+      <c r="A63" s="833"/>
       <c r="B63" s="599" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="894"/>
-      <c r="D63" s="708"/>
+      <c r="C63" s="893"/>
+      <c r="D63" s="707"/>
       <c r="E63" s="609"/>
       <c r="F63" s="51">
         <v>1320</v>
       </c>
-      <c r="G63" s="896"/>
-      <c r="H63" s="810"/>
+      <c r="G63" s="895"/>
+      <c r="H63" s="809"/>
       <c r="I63" s="51">
         <v>1320</v>
       </c>
@@ -59217,9 +59289,9 @@
         <f t="shared" si="1"/>
         <v>36960</v>
       </c>
-      <c r="O63" s="790"/>
-      <c r="P63" s="898"/>
-      <c r="Q63" s="713"/>
+      <c r="O63" s="789"/>
+      <c r="P63" s="897"/>
+      <c r="Q63" s="712"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
       <c r="T63" s="42"/>
@@ -59233,7 +59305,7 @@
       <c r="B64" s="599" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="710" t="s">
+      <c r="C64" s="709" t="s">
         <v>528</v>
       </c>
       <c r="D64" s="610"/>
@@ -59263,10 +59335,10 @@
         <f t="shared" si="1"/>
         <v>24805</v>
       </c>
-      <c r="O64" s="712" t="s">
+      <c r="O64" s="711" t="s">
         <v>35</v>
       </c>
-      <c r="P64" s="715">
+      <c r="P64" s="714">
         <v>44398</v>
       </c>
       <c r="Q64" s="508"/>
@@ -59378,13 +59450,13 @@
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="287" t="s">
+        <v>607</v>
+      </c>
+      <c r="B67" s="599" t="s">
         <v>608</v>
       </c>
-      <c r="B67" s="599" t="s">
+      <c r="C67" s="619" t="s">
         <v>609</v>
-      </c>
-      <c r="C67" s="619" t="s">
-        <v>610</v>
       </c>
       <c r="D67" s="610"/>
       <c r="E67" s="609"/>
@@ -59395,7 +59467,7 @@
         <v>44405</v>
       </c>
       <c r="H67" s="393" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I67" s="51">
         <v>8452.58</v>
@@ -59416,7 +59488,7 @@
       <c r="O67" s="454" t="s">
         <v>224</v>
       </c>
-      <c r="P67" s="745">
+      <c r="P67" s="740">
         <v>44417</v>
       </c>
       <c r="Q67" s="508"/>
@@ -59434,7 +59506,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="610" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D68" s="610"/>
       <c r="E68" s="609"/>
@@ -59445,7 +59517,7 @@
         <v>44406</v>
       </c>
       <c r="H68" s="393" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I68" s="51">
         <v>300</v>
@@ -59544,7 +59616,7 @@
       <c r="E71" s="613"/>
       <c r="F71" s="320"/>
       <c r="G71" s="276"/>
-      <c r="H71" s="902"/>
+      <c r="H71" s="744"/>
       <c r="I71" s="320"/>
       <c r="J71" s="35">
         <f t="shared" si="0"/>
@@ -59574,7 +59646,7 @@
       <c r="E72" s="613"/>
       <c r="F72" s="320"/>
       <c r="G72" s="276"/>
-      <c r="H72" s="902"/>
+      <c r="H72" s="744"/>
       <c r="I72" s="320"/>
       <c r="J72" s="35">
         <f t="shared" si="0"/>
@@ -59604,7 +59676,7 @@
       <c r="E73" s="613"/>
       <c r="F73" s="320"/>
       <c r="G73" s="276"/>
-      <c r="H73" s="902"/>
+      <c r="H73" s="744"/>
       <c r="I73" s="320"/>
       <c r="J73" s="35">
         <f t="shared" si="0"/>
@@ -59671,8 +59743,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="891"/>
-      <c r="M75" s="892"/>
+      <c r="L75" s="890"/>
+      <c r="M75" s="891"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59701,8 +59773,8 @@
         <v>0</v>
       </c>
       <c r="K76" s="56"/>
-      <c r="L76" s="891"/>
-      <c r="M76" s="892"/>
+      <c r="L76" s="890"/>
+      <c r="M76" s="891"/>
       <c r="N76" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -64280,7 +64352,7 @@
       <c r="E229" s="117"/>
       <c r="F229" s="116"/>
       <c r="G229" s="116"/>
-      <c r="H229" s="739"/>
+      <c r="H229" s="734"/>
       <c r="I229" s="48"/>
       <c r="J229" s="35">
         <f t="shared" si="6"/>
@@ -64310,7 +64382,7 @@
       <c r="E230" s="117"/>
       <c r="F230" s="116"/>
       <c r="G230" s="116"/>
-      <c r="H230" s="739"/>
+      <c r="H230" s="734"/>
       <c r="I230" s="48"/>
       <c r="J230" s="35">
         <f t="shared" si="6"/>
@@ -64340,7 +64412,7 @@
       <c r="E231" s="117"/>
       <c r="F231" s="116"/>
       <c r="G231" s="116"/>
-      <c r="H231" s="739"/>
+      <c r="H231" s="734"/>
       <c r="I231" s="48"/>
       <c r="J231" s="35">
         <f t="shared" si="6"/>
@@ -64370,7 +64442,7 @@
       <c r="E232" s="117"/>
       <c r="F232" s="116"/>
       <c r="G232" s="116"/>
-      <c r="H232" s="739"/>
+      <c r="H232" s="734"/>
       <c r="I232" s="48"/>
       <c r="J232" s="35">
         <f t="shared" si="6"/>
@@ -64400,7 +64472,7 @@
       <c r="E233" s="117"/>
       <c r="F233" s="116"/>
       <c r="G233" s="116"/>
-      <c r="H233" s="739"/>
+      <c r="H233" s="734"/>
       <c r="I233" s="48"/>
       <c r="J233" s="35">
         <f t="shared" si="6"/>
@@ -64784,14 +64856,14 @@
     <row r="246" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A246" s="206"/>
       <c r="B246" s="207"/>
-      <c r="F246" s="795" t="s">
+      <c r="F246" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G246" s="795"/>
-      <c r="H246" s="796"/>
+      <c r="G246" s="794"/>
+      <c r="H246" s="795"/>
       <c r="I246" s="216">
         <f>SUM(I4:I245)</f>
-        <v>415115.22230000002</v>
+        <v>416543.62230000005</v>
       </c>
       <c r="J246" s="217"/>
       <c r="K246" s="213"/>
@@ -64878,7 +64950,7 @@
       <c r="M250" s="232"/>
       <c r="N250" s="233">
         <f>SUM(N4:N249)</f>
-        <v>16968686.922800004</v>
+        <v>17080102.1228</v>
       </c>
       <c r="O250" s="306"/>
       <c r="Q250" s="234">
@@ -64938,7 +65010,7 @@
       <c r="M253" s="248"/>
       <c r="N253" s="249">
         <f>V250+S250+Q250+N250+L250</f>
-        <v>17321026.922800004</v>
+        <v>17432442.1228</v>
       </c>
       <c r="O253" s="307"/>
       <c r="R253" s="222"/>
@@ -65096,7 +65168,7 @@
       <c r="E267" s="260"/>
       <c r="F267" s="261"/>
       <c r="G267"/>
-      <c r="H267" s="903"/>
+      <c r="H267" s="745"/>
       <c r="I267" s="263"/>
       <c r="J267"/>
       <c r="K267"/>
@@ -65116,7 +65188,7 @@
       <c r="E268" s="260"/>
       <c r="F268" s="261"/>
       <c r="G268"/>
-      <c r="H268" s="903"/>
+      <c r="H268" s="745"/>
       <c r="I268" s="263"/>
       <c r="J268"/>
       <c r="K268"/>
@@ -65136,7 +65208,7 @@
       <c r="E269" s="260"/>
       <c r="F269" s="261"/>
       <c r="G269"/>
-      <c r="H269" s="903"/>
+      <c r="H269" s="745"/>
       <c r="I269" s="263"/>
       <c r="J269"/>
       <c r="K269"/>
@@ -65156,7 +65228,7 @@
       <c r="E270" s="260"/>
       <c r="F270" s="261"/>
       <c r="G270"/>
-      <c r="H270" s="903"/>
+      <c r="H270" s="745"/>
       <c r="I270" s="263"/>
       <c r="J270"/>
       <c r="K270"/>
@@ -65176,7 +65248,7 @@
       <c r="E271" s="260"/>
       <c r="F271" s="261"/>
       <c r="G271"/>
-      <c r="H271" s="903"/>
+      <c r="H271" s="745"/>
       <c r="I271" s="263"/>
       <c r="J271"/>
       <c r="K271"/>
@@ -65196,7 +65268,7 @@
       <c r="E272" s="260"/>
       <c r="F272" s="261"/>
       <c r="G272"/>
-      <c r="H272" s="903"/>
+      <c r="H272" s="745"/>
       <c r="I272" s="263"/>
       <c r="J272"/>
       <c r="K272"/>
@@ -65216,7 +65288,7 @@
       <c r="E273" s="260"/>
       <c r="F273" s="261"/>
       <c r="G273"/>
-      <c r="H273" s="903"/>
+      <c r="H273" s="745"/>
       <c r="I273" s="263"/>
       <c r="J273"/>
       <c r="K273"/>
@@ -65236,7 +65308,7 @@
       <c r="E274" s="260"/>
       <c r="F274" s="261"/>
       <c r="G274"/>
-      <c r="H274" s="903"/>
+      <c r="H274" s="745"/>
       <c r="I274" s="263"/>
       <c r="J274"/>
       <c r="K274"/>
@@ -65256,7 +65328,7 @@
       <c r="E275" s="260"/>
       <c r="F275" s="261"/>
       <c r="G275"/>
-      <c r="H275" s="903"/>
+      <c r="H275" s="745"/>
       <c r="I275" s="263"/>
       <c r="J275"/>
       <c r="K275"/>
@@ -65276,7 +65348,7 @@
       <c r="E276" s="260"/>
       <c r="F276" s="261"/>
       <c r="G276"/>
-      <c r="H276" s="903"/>
+      <c r="H276" s="745"/>
       <c r="I276" s="263"/>
       <c r="J276"/>
       <c r="K276"/>
@@ -65296,7 +65368,7 @@
       <c r="E277" s="260"/>
       <c r="F277" s="261"/>
       <c r="G277"/>
-      <c r="H277" s="903"/>
+      <c r="H277" s="745"/>
       <c r="I277" s="263"/>
       <c r="J277"/>
       <c r="K277"/>
@@ -65316,7 +65388,7 @@
       <c r="E278" s="260"/>
       <c r="F278" s="261"/>
       <c r="G278"/>
-      <c r="H278" s="903"/>
+      <c r="H278" s="745"/>
       <c r="I278" s="263"/>
       <c r="J278"/>
       <c r="K278"/>
@@ -65336,7 +65408,7 @@
       <c r="E279" s="260"/>
       <c r="F279" s="261"/>
       <c r="G279"/>
-      <c r="H279" s="903"/>
+      <c r="H279" s="745"/>
       <c r="I279" s="263"/>
       <c r="J279"/>
       <c r="K279"/>
@@ -65378,17 +65450,17 @@
   <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="208" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="208" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="208" customWidth="1"/>
     <col min="4" max="4" width="11" style="208" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="209" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="210" customWidth="1"/>
@@ -65410,18 +65482,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="A1" s="773" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="773"/>
+      <c r="C1" s="773"/>
+      <c r="D1" s="773"/>
+      <c r="E1" s="773"/>
+      <c r="F1" s="773"/>
+      <c r="G1" s="773"/>
+      <c r="H1" s="773"/>
+      <c r="I1" s="773"/>
+      <c r="J1" s="773"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -65437,22 +65509,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="771" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="772"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="773"/>
+      <c r="B2" s="773"/>
+      <c r="C2" s="773"/>
+      <c r="D2" s="773"/>
+      <c r="E2" s="773"/>
+      <c r="F2" s="773"/>
+      <c r="G2" s="773"/>
+      <c r="H2" s="773"/>
+      <c r="I2" s="773"/>
+      <c r="J2" s="773"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -65529,7 +65601,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="721" t="s">
+      <c r="A4" s="720" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="267" t="s">
@@ -65544,7 +65616,7 @@
       <c r="G4" s="271">
         <v>44409</v>
       </c>
-      <c r="H4" s="726"/>
+      <c r="H4" s="725"/>
       <c r="I4" s="34">
         <v>20335</v>
       </c>
@@ -65555,8 +65627,8 @@
       <c r="K4" s="322">
         <v>38.5</v>
       </c>
-      <c r="L4" s="737"/>
-      <c r="M4" s="737"/>
+      <c r="L4" s="732"/>
+      <c r="M4" s="732"/>
       <c r="N4" s="38">
         <f t="shared" ref="N4:N140" si="1">K4*I4</f>
         <v>782897.5</v>
@@ -65609,8 +65681,8 @@
         <f t="shared" si="1"/>
         <v>813505</v>
       </c>
-      <c r="O5" s="723"/>
-      <c r="P5" s="724"/>
+      <c r="O5" s="722"/>
+      <c r="P5" s="723"/>
       <c r="Q5" s="645">
         <v>20440</v>
       </c>
@@ -65657,8 +65729,8 @@
         <f t="shared" si="1"/>
         <v>832562.5</v>
       </c>
-      <c r="O6" s="723"/>
-      <c r="P6" s="724"/>
+      <c r="O6" s="722"/>
+      <c r="P6" s="723"/>
       <c r="Q6" s="645">
         <v>25140</v>
       </c>
@@ -65705,8 +65777,8 @@
         <f t="shared" si="1"/>
         <v>195195</v>
       </c>
-      <c r="O7" s="723"/>
-      <c r="P7" s="724"/>
+      <c r="O7" s="722"/>
+      <c r="P7" s="723"/>
       <c r="Q7" s="645">
         <v>0</v>
       </c>
@@ -65821,7 +65893,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="273" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C10" s="274"/>
       <c r="D10" s="173"/>
@@ -65869,7 +65941,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="273" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C11" s="274"/>
       <c r="D11" s="93"/>
@@ -66005,25 +66077,37 @@
       <c r="X13" s="361"/>
     </row>
     <row r="14" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="277"/>
-      <c r="B14" s="273"/>
+      <c r="A14" s="277" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="273" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="274"/>
       <c r="D14" s="93"/>
       <c r="E14" s="93"/>
-      <c r="F14" s="275"/>
-      <c r="G14" s="276"/>
+      <c r="F14" s="275">
+        <v>18060</v>
+      </c>
+      <c r="G14" s="276">
+        <v>44426</v>
+      </c>
       <c r="H14" s="55"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51">
+        <v>23380</v>
+      </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="322"/>
+        <v>5320</v>
+      </c>
+      <c r="K14" s="322">
+        <v>37.5</v>
+      </c>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
       <c r="N14" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>876750</v>
       </c>
       <c r="O14" s="510"/>
       <c r="P14" s="699"/>
@@ -66037,25 +66121,37 @@
       <c r="X14" s="361"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="277"/>
-      <c r="B15" s="273"/>
+      <c r="A15" s="277" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="273" t="s">
+        <v>298</v>
+      </c>
       <c r="C15" s="679"/>
       <c r="D15" s="93"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="276"/>
+      <c r="F15" s="275">
+        <v>17830</v>
+      </c>
+      <c r="G15" s="276">
+        <v>44428</v>
+      </c>
       <c r="H15" s="677"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="51">
+        <v>22875</v>
+      </c>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="322"/>
+        <v>5045</v>
+      </c>
+      <c r="K15" s="322">
+        <v>37</v>
+      </c>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
       <c r="N15" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>846375</v>
       </c>
       <c r="O15" s="510"/>
       <c r="P15" s="699"/>
@@ -66165,7 +66261,7 @@
       <c r="X18" s="361"/>
     </row>
     <row r="19" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="716"/>
+      <c r="A19" s="715"/>
       <c r="B19" s="273"/>
       <c r="C19" s="274"/>
       <c r="D19" s="93"/>
@@ -67267,12 +67363,12 @@
       <c r="V51" s="44"/>
     </row>
     <row r="52" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="70"/>
+      <c r="A52" s="903"/>
       <c r="B52" s="71"/>
       <c r="C52" s="319"/>
       <c r="D52" s="319"/>
       <c r="E52" s="614"/>
-      <c r="F52" s="615"/>
+      <c r="F52" s="900"/>
       <c r="G52" s="616"/>
       <c r="H52" s="76"/>
       <c r="I52" s="615"/>
@@ -67296,29 +67392,49 @@
       <c r="U52" s="84"/>
       <c r="V52" s="85"/>
     </row>
-    <row r="53" spans="1:24" s="327" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="506"/>
-      <c r="B53" s="328"/>
-      <c r="C53" s="733"/>
-      <c r="D53" s="717"/>
+    <row r="53" spans="1:24" s="327" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="904" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="292" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="901" t="s">
+        <v>622</v>
+      </c>
+      <c r="D53" s="716"/>
       <c r="E53" s="607"/>
-      <c r="F53" s="320"/>
-      <c r="G53" s="321"/>
-      <c r="H53" s="735"/>
-      <c r="I53" s="275"/>
+      <c r="F53" s="327">
+        <v>1300.4050999999999</v>
+      </c>
+      <c r="G53" s="321">
+        <v>44410</v>
+      </c>
+      <c r="H53" s="884">
+        <v>520</v>
+      </c>
+      <c r="I53" s="275">
+        <v>1300.4050999999999</v>
+      </c>
       <c r="J53" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="322"/>
+      <c r="K53" s="322">
+        <v>78</v>
+      </c>
       <c r="L53" s="323"/>
       <c r="M53" s="323"/>
       <c r="N53" s="331">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="837"/>
-      <c r="P53" s="702"/>
+        <v>101431.59779999999</v>
+      </c>
+      <c r="O53" s="836" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="702">
+        <v>44428</v>
+      </c>
       <c r="Q53" s="508"/>
       <c r="R53" s="324"/>
       <c r="S53" s="67"/>
@@ -67329,27 +67445,37 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="507"/>
-      <c r="B54" s="328"/>
-      <c r="C54" s="734"/>
-      <c r="D54" s="718"/>
+      <c r="A54" s="905"/>
+      <c r="B54" s="292" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="902"/>
+      <c r="D54" s="717"/>
       <c r="E54" s="607"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="736"/>
-      <c r="I54" s="48"/>
+      <c r="F54" s="51">
+        <v>99.4</v>
+      </c>
+      <c r="G54" s="87">
+        <v>44410</v>
+      </c>
+      <c r="H54" s="885"/>
+      <c r="I54" s="48">
+        <v>99.4</v>
+      </c>
       <c r="J54" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="36"/>
+      <c r="K54" s="36">
+        <v>86</v>
+      </c>
       <c r="L54" s="52"/>
       <c r="M54" s="52"/>
       <c r="N54" s="331">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="838"/>
+        <v>8548.4</v>
+      </c>
+      <c r="O54" s="837"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -67359,14 +67485,14 @@
       <c r="V54" s="44"/>
     </row>
     <row r="55" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="725"/>
+      <c r="A55" s="724"/>
       <c r="B55" s="328"/>
-      <c r="C55" s="719"/>
+      <c r="C55" s="718"/>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
       <c r="F55" s="51"/>
       <c r="G55" s="49"/>
-      <c r="H55" s="720"/>
+      <c r="H55" s="719"/>
       <c r="I55" s="51"/>
       <c r="J55" s="35">
         <f t="shared" si="0"/>
@@ -67419,7 +67545,7 @@
       <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="727"/>
+      <c r="A57" s="726"/>
       <c r="B57" s="328"/>
       <c r="C57" s="610"/>
       <c r="D57" s="608"/>
@@ -67545,7 +67671,7 @@
       <c r="B61" s="599" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="709"/>
+      <c r="C61" s="708"/>
       <c r="D61" s="610"/>
       <c r="E61" s="609"/>
       <c r="F61" s="51">
@@ -67555,7 +67681,7 @@
         <v>44419</v>
       </c>
       <c r="H61" s="622" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I61" s="51">
         <v>500</v>
@@ -67573,10 +67699,10 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="O61" s="711" t="s">
+      <c r="O61" s="710" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="714">
+      <c r="P61" s="713">
         <v>44420</v>
       </c>
       <c r="Q61" s="508"/>
@@ -67587,29 +67713,49 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="470"/>
-      <c r="B62" s="707"/>
-      <c r="C62" s="731"/>
-      <c r="D62" s="708"/>
+      <c r="A62" s="470" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="599" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="730" t="s">
+        <v>624</v>
+      </c>
+      <c r="D62" s="707"/>
       <c r="E62" s="609"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="621"/>
-      <c r="I62" s="51"/>
+      <c r="F62" s="51">
+        <v>300</v>
+      </c>
+      <c r="G62" s="49">
+        <v>44426</v>
+      </c>
+      <c r="H62" s="622" t="s">
+        <v>625</v>
+      </c>
+      <c r="I62" s="51">
+        <v>300</v>
+      </c>
       <c r="J62" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="36"/>
+      <c r="K62" s="36">
+        <v>60</v>
+      </c>
       <c r="L62" s="52"/>
       <c r="M62" s="52"/>
       <c r="N62" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="789"/>
-      <c r="P62" s="746"/>
-      <c r="Q62" s="713"/>
+        <v>18000</v>
+      </c>
+      <c r="O62" s="906" t="s">
+        <v>35</v>
+      </c>
+      <c r="P62" s="741">
+        <v>44428</v>
+      </c>
+      <c r="Q62" s="712"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
       <c r="T62" s="42"/>
@@ -67619,8 +67765,8 @@
     <row r="63" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="102"/>
       <c r="B63" s="599"/>
-      <c r="C63" s="732"/>
-      <c r="D63" s="708"/>
+      <c r="C63" s="731"/>
+      <c r="D63" s="707"/>
       <c r="E63" s="609"/>
       <c r="F63" s="51"/>
       <c r="G63" s="49"/>
@@ -67637,9 +67783,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="790"/>
-      <c r="P63" s="747"/>
-      <c r="Q63" s="713"/>
+      <c r="O63" s="592"/>
+      <c r="P63" s="742"/>
+      <c r="Q63" s="712"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
       <c r="T63" s="42"/>
@@ -67649,7 +67795,7 @@
     <row r="64" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="53"/>
       <c r="B64" s="599"/>
-      <c r="C64" s="710"/>
+      <c r="C64" s="709"/>
       <c r="D64" s="610"/>
       <c r="E64" s="609"/>
       <c r="F64" s="51"/>
@@ -67667,8 +67813,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="712"/>
-      <c r="P64" s="715"/>
+      <c r="O64" s="711"/>
+      <c r="P64" s="714"/>
       <c r="Q64" s="508"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -67961,8 +68107,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="891"/>
-      <c r="M74" s="892"/>
+      <c r="L74" s="890"/>
+      <c r="M74" s="891"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -67991,8 +68137,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="891"/>
-      <c r="M75" s="892"/>
+      <c r="L75" s="890"/>
+      <c r="M75" s="891"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -68009,7 +68155,7 @@
     <row r="76" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="683"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="728"/>
+      <c r="C76" s="727"/>
       <c r="D76" s="612"/>
       <c r="E76" s="613"/>
       <c r="F76" s="51"/>
@@ -68039,7 +68185,7 @@
     <row r="77" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="683"/>
       <c r="B77" s="61"/>
-      <c r="C77" s="728"/>
+      <c r="C77" s="727"/>
       <c r="D77" s="612"/>
       <c r="E77" s="613"/>
       <c r="F77" s="51"/>
@@ -68939,8 +69085,8 @@
     <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="108"/>
       <c r="B107" s="61"/>
-      <c r="C107" s="728"/>
-      <c r="D107" s="728"/>
+      <c r="C107" s="727"/>
+      <c r="D107" s="727"/>
       <c r="E107" s="109"/>
       <c r="F107" s="51"/>
       <c r="G107" s="49"/>
@@ -68999,8 +69145,8 @@
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="107"/>
       <c r="B109" s="61"/>
-      <c r="C109" s="728"/>
-      <c r="D109" s="728"/>
+      <c r="C109" s="727"/>
+      <c r="D109" s="727"/>
       <c r="E109" s="109"/>
       <c r="F109" s="51"/>
       <c r="G109" s="49"/>
@@ -72570,7 +72716,7 @@
       <c r="E228" s="117"/>
       <c r="F228" s="116"/>
       <c r="G228" s="116"/>
-      <c r="H228" s="728"/>
+      <c r="H228" s="727"/>
       <c r="I228" s="48"/>
       <c r="J228" s="35">
         <f t="shared" si="6"/>
@@ -72600,7 +72746,7 @@
       <c r="E229" s="117"/>
       <c r="F229" s="116"/>
       <c r="G229" s="116"/>
-      <c r="H229" s="728"/>
+      <c r="H229" s="727"/>
       <c r="I229" s="48"/>
       <c r="J229" s="35">
         <f t="shared" si="6"/>
@@ -72630,7 +72776,7 @@
       <c r="E230" s="117"/>
       <c r="F230" s="116"/>
       <c r="G230" s="116"/>
-      <c r="H230" s="728"/>
+      <c r="H230" s="727"/>
       <c r="I230" s="48"/>
       <c r="J230" s="35">
         <f t="shared" si="6"/>
@@ -72660,7 +72806,7 @@
       <c r="E231" s="117"/>
       <c r="F231" s="116"/>
       <c r="G231" s="116"/>
-      <c r="H231" s="728"/>
+      <c r="H231" s="727"/>
       <c r="I231" s="48"/>
       <c r="J231" s="35">
         <f t="shared" si="6"/>
@@ -72690,7 +72836,7 @@
       <c r="E232" s="117"/>
       <c r="F232" s="116"/>
       <c r="G232" s="116"/>
-      <c r="H232" s="728"/>
+      <c r="H232" s="727"/>
       <c r="I232" s="48"/>
       <c r="J232" s="35">
         <f t="shared" si="6"/>
@@ -73074,14 +73220,14 @@
     <row r="245" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A245" s="206"/>
       <c r="B245" s="207"/>
-      <c r="F245" s="795" t="s">
+      <c r="F245" s="794" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="795"/>
-      <c r="H245" s="796"/>
+      <c r="G245" s="794"/>
+      <c r="H245" s="795"/>
       <c r="I245" s="216">
         <f>SUM(I4:I244)</f>
-        <v>205740</v>
+        <v>253694.8051</v>
       </c>
       <c r="J245" s="217"/>
       <c r="K245" s="213"/>
@@ -73168,7 +73314,7 @@
       <c r="M249" s="232"/>
       <c r="N249" s="233">
         <f>SUM(N4:N248)</f>
-        <v>7874762.5</v>
+        <v>9725867.4978</v>
       </c>
       <c r="O249" s="306"/>
       <c r="Q249" s="234">
@@ -73228,7 +73374,7 @@
       <c r="M252" s="248"/>
       <c r="N252" s="249">
         <f>V249+S249+Q249+N249+L249</f>
-        <v>8039782.5</v>
+        <v>9890887.4978</v>
       </c>
       <c r="O252" s="307"/>
       <c r="R252" s="222"/>
@@ -73639,15 +73785,18 @@
       <c r="V278"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="F245:H245"/>
-    <mergeCell ref="O62:O63"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="L74:M75"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="H53:H54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="635">
   <si>
     <t>MATANZA</t>
   </si>
@@ -1810,9 +1810,6 @@
     <t>18762--9709--9803</t>
   </si>
   <si>
-    <t>18893--</t>
-  </si>
-  <si>
     <t>D-2820</t>
   </si>
   <si>
@@ -1958,6 +1955,27 @@
   </si>
   <si>
     <t>18893--2949--2972</t>
+  </si>
+  <si>
+    <t>9815--NC-470</t>
+  </si>
+  <si>
+    <t>9812--9905</t>
+  </si>
+  <si>
+    <t>18984--</t>
+  </si>
+  <si>
+    <t>19008--</t>
+  </si>
+  <si>
+    <t>19021--</t>
+  </si>
+  <si>
+    <t>2957--NC-99</t>
+  </si>
+  <si>
+    <t>18893--9796--9900</t>
   </si>
 </sst>
 </file>
@@ -5554,12 +5572,145 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5602,9 +5753,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5620,127 +5768,28 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5779,30 +5828,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5842,12 +5867,57 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5875,49 +5945,22 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5932,12 +5975,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5971,18 +6008,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6013,24 +6038,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="51" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9468,7 +9486,7 @@
         <f t="shared" si="4"/>
         <v>15624</v>
       </c>
-      <c r="O60" s="796" t="s">
+      <c r="O60" s="762" t="s">
         <v>35</v>
       </c>
       <c r="P60" s="784">
@@ -9512,7 +9530,7 @@
         <f t="shared" si="4"/>
         <v>25680.149999999998</v>
       </c>
-      <c r="O61" s="797"/>
+      <c r="O61" s="763"/>
       <c r="P61" s="785"/>
       <c r="Q61" s="94"/>
       <c r="R61" s="40"/>
@@ -9578,7 +9596,7 @@
       <c r="B63" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="763" t="s">
+      <c r="C63" s="764" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="91"/>
@@ -9589,7 +9607,7 @@
       <c r="G63" s="49">
         <v>44211</v>
       </c>
-      <c r="H63" s="799">
+      <c r="H63" s="766">
         <v>219</v>
       </c>
       <c r="I63" s="51">
@@ -9608,7 +9626,7 @@
         <f t="shared" si="4"/>
         <v>33096</v>
       </c>
-      <c r="O63" s="801" t="s">
+      <c r="O63" s="767" t="s">
         <v>35</v>
       </c>
       <c r="P63" s="769">
@@ -9626,7 +9644,7 @@
       <c r="B64" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="798"/>
+      <c r="C64" s="765"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51">
@@ -9635,7 +9653,7 @@
       <c r="G64" s="419">
         <v>44211</v>
       </c>
-      <c r="H64" s="800"/>
+      <c r="H64" s="754"/>
       <c r="I64" s="51">
         <v>542.70000000000005</v>
       </c>
@@ -9652,7 +9670,7 @@
         <f t="shared" si="4"/>
         <v>40431.15</v>
       </c>
-      <c r="O64" s="802"/>
+      <c r="O64" s="768"/>
       <c r="P64" s="770"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
@@ -9662,13 +9680,13 @@
       <c r="V64" s="44"/>
     </row>
     <row r="65" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="805" t="s">
+      <c r="A65" s="750" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="807" t="s">
+      <c r="C65" s="752" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="91"/>
@@ -9679,7 +9697,7 @@
       <c r="G65" s="420">
         <v>44214</v>
       </c>
-      <c r="H65" s="800">
+      <c r="H65" s="754">
         <v>224</v>
       </c>
       <c r="I65" s="51">
@@ -9698,10 +9716,10 @@
         <f t="shared" si="4"/>
         <v>65128.645000000004</v>
       </c>
-      <c r="O65" s="803" t="s">
+      <c r="O65" s="756" t="s">
         <v>35</v>
       </c>
-      <c r="P65" s="747">
+      <c r="P65" s="758">
         <v>44242</v>
       </c>
       <c r="Q65" s="94"/>
@@ -9712,11 +9730,11 @@
       <c r="V65" s="44"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="806"/>
+      <c r="A66" s="751"/>
       <c r="B66" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="808"/>
+      <c r="C66" s="753"/>
       <c r="D66" s="96"/>
       <c r="E66" s="97"/>
       <c r="F66" s="51">
@@ -9725,7 +9743,7 @@
       <c r="G66" s="419">
         <v>44214</v>
       </c>
-      <c r="H66" s="809"/>
+      <c r="H66" s="755"/>
       <c r="I66" s="51">
         <v>265.60000000000002</v>
       </c>
@@ -9742,8 +9760,8 @@
         <f t="shared" si="4"/>
         <v>19256</v>
       </c>
-      <c r="O66" s="804"/>
-      <c r="P66" s="748"/>
+      <c r="O66" s="757"/>
+      <c r="P66" s="759"/>
       <c r="Q66" s="94"/>
       <c r="R66" s="40"/>
       <c r="S66" s="41"/>
@@ -9752,13 +9770,13 @@
       <c r="V66" s="44"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="761" t="s">
+      <c r="A67" s="806" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="763" t="s">
+      <c r="C67" s="764" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="96"/>
@@ -9766,10 +9784,10 @@
       <c r="F67" s="418">
         <v>327.7</v>
       </c>
-      <c r="G67" s="765">
+      <c r="G67" s="809">
         <v>44216</v>
       </c>
-      <c r="H67" s="767">
+      <c r="H67" s="811">
         <v>228</v>
       </c>
       <c r="I67" s="51">
@@ -9788,10 +9806,10 @@
         <f t="shared" si="4"/>
         <v>24413.649999999998</v>
       </c>
-      <c r="O67" s="803" t="s">
+      <c r="O67" s="756" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="747">
+      <c r="P67" s="758">
         <v>5</v>
       </c>
       <c r="Q67" s="94"/>
@@ -9802,18 +9820,18 @@
       <c r="V67" s="44"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="762"/>
+      <c r="A68" s="807"/>
       <c r="B68" s="396" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="764"/>
+      <c r="C68" s="808"/>
       <c r="D68" s="96"/>
       <c r="E68" s="97"/>
       <c r="F68" s="418">
         <v>308.2</v>
       </c>
-      <c r="G68" s="766"/>
-      <c r="H68" s="768"/>
+      <c r="G68" s="810"/>
+      <c r="H68" s="812"/>
       <c r="I68" s="51">
         <v>308.2</v>
       </c>
@@ -9830,8 +9848,8 @@
         <f t="shared" si="4"/>
         <v>24656</v>
       </c>
-      <c r="O68" s="804"/>
-      <c r="P68" s="748"/>
+      <c r="O68" s="757"/>
+      <c r="P68" s="759"/>
       <c r="Q68" s="94"/>
       <c r="R68" s="40"/>
       <c r="S68" s="41"/>
@@ -10260,13 +10278,13 @@
       <c r="V77" s="44"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="759" t="s">
+      <c r="A78" s="804" t="s">
         <v>171</v>
       </c>
       <c r="B78" s="441" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="753" t="s">
+      <c r="C78" s="798" t="s">
         <v>180</v>
       </c>
       <c r="D78" s="438"/>
@@ -10277,7 +10295,7 @@
       <c r="G78" s="49">
         <v>44221</v>
       </c>
-      <c r="H78" s="755">
+      <c r="H78" s="800">
         <v>31601</v>
       </c>
       <c r="I78" s="51">
@@ -10296,10 +10314,10 @@
         <f t="shared" si="4"/>
         <v>8804.4000000000015</v>
       </c>
-      <c r="O78" s="803" t="s">
+      <c r="O78" s="756" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="749">
+      <c r="P78" s="794">
         <v>44260</v>
       </c>
       <c r="Q78" s="39"/>
@@ -10310,11 +10328,11 @@
       <c r="V78" s="44"/>
     </row>
     <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="760"/>
+      <c r="A79" s="805"/>
       <c r="B79" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="754"/>
+      <c r="C79" s="799"/>
       <c r="D79" s="438"/>
       <c r="E79" s="97"/>
       <c r="F79" s="51">
@@ -10323,7 +10341,7 @@
       <c r="G79" s="49">
         <v>44221</v>
       </c>
-      <c r="H79" s="756"/>
+      <c r="H79" s="801"/>
       <c r="I79" s="51">
         <v>441</v>
       </c>
@@ -10340,8 +10358,8 @@
         <f t="shared" si="4"/>
         <v>21609</v>
       </c>
-      <c r="O79" s="804"/>
-      <c r="P79" s="750"/>
+      <c r="O79" s="757"/>
+      <c r="P79" s="795"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="40"/>
       <c r="S79" s="41"/>
@@ -10350,13 +10368,13 @@
       <c r="V79" s="44"/>
     </row>
     <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="751" t="s">
+      <c r="A80" s="796" t="s">
         <v>171</v>
       </c>
       <c r="B80" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="753" t="s">
+      <c r="C80" s="798" t="s">
         <v>182</v>
       </c>
       <c r="D80" s="438"/>
@@ -10367,7 +10385,7 @@
       <c r="G80" s="49">
         <v>44226</v>
       </c>
-      <c r="H80" s="755">
+      <c r="H80" s="800">
         <v>31677</v>
       </c>
       <c r="I80" s="51">
@@ -10386,10 +10404,10 @@
         <f t="shared" si="4"/>
         <v>5047</v>
       </c>
-      <c r="O80" s="757" t="s">
+      <c r="O80" s="802" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="747">
+      <c r="P80" s="758">
         <v>44260</v>
       </c>
       <c r="Q80" s="39"/>
@@ -10400,11 +10418,11 @@
       <c r="V80" s="44"/>
     </row>
     <row r="81" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="752"/>
+      <c r="A81" s="797"/>
       <c r="B81" s="442" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="754"/>
+      <c r="C81" s="799"/>
       <c r="D81" s="438"/>
       <c r="E81" s="97"/>
       <c r="F81" s="51">
@@ -10414,7 +10432,7 @@
       <c r="G81" s="49">
         <v>44226</v>
       </c>
-      <c r="H81" s="756"/>
+      <c r="H81" s="801"/>
       <c r="I81" s="51">
         <f>23.2+20+94.2</f>
         <v>137.4</v>
@@ -10432,8 +10450,8 @@
         <f t="shared" si="4"/>
         <v>7969.2000000000007</v>
       </c>
-      <c r="O81" s="758"/>
-      <c r="P81" s="748"/>
+      <c r="O81" s="803"/>
+      <c r="P81" s="759"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="40"/>
       <c r="S81" s="41"/>
@@ -15058,11 +15076,11 @@
     <row r="236" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A236" s="206"/>
       <c r="B236" s="207"/>
-      <c r="F236" s="794" t="s">
+      <c r="F236" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="794"/>
-      <c r="H236" s="795"/>
+      <c r="G236" s="760"/>
+      <c r="H236" s="761"/>
       <c r="I236" s="216">
         <f>SUM(I6:I235)</f>
         <v>434282.17000000004</v>
@@ -15624,31 +15642,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="F236:H236"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="A63:A64"/>
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="A80:A81"/>
@@ -15663,6 +15656,31 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="H67:H68"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F236:H236"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17857,13 +17875,13 @@
       <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:24" s="327" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="818" t="s">
+      <c r="A38" s="829" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="816" t="s">
+      <c r="C38" s="827" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="329"/>
@@ -17874,7 +17892,7 @@
       <c r="G38" s="321">
         <v>44228</v>
       </c>
-      <c r="H38" s="820">
+      <c r="H38" s="831">
         <v>245</v>
       </c>
       <c r="I38" s="275">
@@ -17909,11 +17927,11 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="819"/>
+      <c r="A39" s="830"/>
       <c r="B39" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="817"/>
+      <c r="C39" s="828"/>
       <c r="D39" s="330"/>
       <c r="E39" s="47"/>
       <c r="F39" s="51">
@@ -17922,7 +17940,7 @@
       <c r="G39" s="87">
         <v>44228</v>
       </c>
-      <c r="H39" s="821"/>
+      <c r="H39" s="832"/>
       <c r="I39" s="48">
         <v>69.599999999999994</v>
       </c>
@@ -18145,13 +18163,13 @@
       <c r="V43" s="44"/>
     </row>
     <row r="44" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="810" t="s">
+      <c r="A44" s="821" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="826" t="s">
+      <c r="C44" s="817" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="69"/>
@@ -18159,10 +18177,10 @@
       <c r="F44" s="51">
         <v>961.2</v>
       </c>
-      <c r="G44" s="812">
+      <c r="G44" s="823">
         <v>44242</v>
       </c>
-      <c r="H44" s="828">
+      <c r="H44" s="819">
         <v>291</v>
       </c>
       <c r="I44" s="48">
@@ -18181,10 +18199,10 @@
         <f t="shared" si="1"/>
         <v>71609.400000000009</v>
       </c>
-      <c r="O44" s="814" t="s">
+      <c r="O44" s="825" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="824">
+      <c r="P44" s="815">
         <v>44277</v>
       </c>
       <c r="Q44" s="94"/>
@@ -18195,18 +18213,18 @@
       <c r="V44" s="44"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="811"/>
+      <c r="A45" s="822"/>
       <c r="B45" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="827"/>
+      <c r="C45" s="818"/>
       <c r="D45" s="293"/>
       <c r="E45" s="93"/>
       <c r="F45" s="51">
         <v>199.4</v>
       </c>
-      <c r="G45" s="813"/>
-      <c r="H45" s="829"/>
+      <c r="G45" s="824"/>
+      <c r="H45" s="820"/>
       <c r="I45" s="48">
         <v>199.4</v>
       </c>
@@ -18223,8 +18241,8 @@
         <f t="shared" si="1"/>
         <v>15952</v>
       </c>
-      <c r="O45" s="815"/>
-      <c r="P45" s="825"/>
+      <c r="O45" s="826"/>
+      <c r="P45" s="816"/>
       <c r="Q45" s="94"/>
       <c r="R45" s="40"/>
       <c r="S45" s="41"/>
@@ -18435,7 +18453,7 @@
     <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="389"/>
       <c r="B50" s="86"/>
-      <c r="C50" s="763"/>
+      <c r="C50" s="764"/>
       <c r="D50" s="91"/>
       <c r="E50" s="93"/>
       <c r="F50" s="51"/>
@@ -18453,7 +18471,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="801"/>
+      <c r="O50" s="767"/>
       <c r="P50" s="769"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="40"/>
@@ -18465,7 +18483,7 @@
     <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="390"/>
       <c r="B51" s="86"/>
-      <c r="C51" s="764"/>
+      <c r="C51" s="808"/>
       <c r="D51" s="91"/>
       <c r="E51" s="93"/>
       <c r="F51" s="51"/>
@@ -18483,8 +18501,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="822"/>
-      <c r="P51" s="823"/>
+      <c r="O51" s="813"/>
+      <c r="P51" s="814"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="40"/>
       <c r="S51" s="41"/>
@@ -19066,11 +19084,11 @@
     <row r="67" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="206"/>
       <c r="B67" s="207"/>
-      <c r="F67" s="794" t="s">
+      <c r="F67" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="794"/>
-      <c r="H67" s="795"/>
+      <c r="G67" s="760"/>
+      <c r="H67" s="761"/>
       <c r="I67" s="216">
         <f>SUM(I4:I66)</f>
         <v>496746.44999999995</v>
@@ -19649,13 +19667,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="H44:H45"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="O44:O45"/>
@@ -19666,6 +19677,13 @@
     <mergeCell ref="P38:P39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="H44:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22912,7 +22930,7 @@
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="816" t="s">
+      <c r="C55" s="827" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="330"/>
@@ -22943,10 +22961,10 @@
         <f t="shared" si="1"/>
         <v>37058.699999999997</v>
       </c>
-      <c r="O55" s="836" t="s">
+      <c r="O55" s="839" t="s">
         <v>224</v>
       </c>
-      <c r="P55" s="838">
+      <c r="P55" s="841">
         <v>44300</v>
       </c>
       <c r="Q55" s="94"/>
@@ -22961,7 +22979,7 @@
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="817"/>
+      <c r="C56" s="828"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="519">
@@ -22987,8 +23005,8 @@
         <f t="shared" si="1"/>
         <v>70698.2</v>
       </c>
-      <c r="O56" s="837"/>
-      <c r="P56" s="839"/>
+      <c r="O56" s="840"/>
+      <c r="P56" s="842"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -23097,7 +23115,7 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="832" t="s">
+      <c r="A59" s="835" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -23114,7 +23132,7 @@
       <c r="G59" s="49">
         <v>44257</v>
       </c>
-      <c r="H59" s="834">
+      <c r="H59" s="837">
         <v>48</v>
       </c>
       <c r="I59" s="519">
@@ -23133,7 +23151,7 @@
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="O59" s="801" t="s">
+      <c r="O59" s="767" t="s">
         <v>206</v>
       </c>
       <c r="P59" s="769">
@@ -23147,7 +23165,7 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="833"/>
+      <c r="A60" s="836"/>
       <c r="B60" s="61" t="s">
         <v>205</v>
       </c>
@@ -23162,7 +23180,7 @@
       <c r="G60" s="49">
         <v>44261</v>
       </c>
-      <c r="H60" s="835"/>
+      <c r="H60" s="838"/>
       <c r="I60" s="519">
         <v>8994</v>
       </c>
@@ -23179,8 +23197,8 @@
         <f t="shared" si="1"/>
         <v>364257</v>
       </c>
-      <c r="O60" s="822"/>
-      <c r="P60" s="823"/>
+      <c r="O60" s="813"/>
+      <c r="P60" s="814"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -28055,11 +28073,11 @@
     <row r="222" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A222" s="206"/>
       <c r="B222" s="207"/>
-      <c r="F222" s="830" t="s">
+      <c r="F222" s="833" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="830"/>
-      <c r="H222" s="831"/>
+      <c r="G222" s="833"/>
+      <c r="H222" s="834"/>
       <c r="I222" s="536">
         <f>SUM(I4:I221)</f>
         <v>579418.55000000005</v>
@@ -29455,10 +29473,10 @@
       <c r="K13" s="477">
         <v>50</v>
       </c>
-      <c r="L13" s="840" t="s">
+      <c r="L13" s="843" t="s">
         <v>347</v>
       </c>
-      <c r="M13" s="841"/>
+      <c r="M13" s="844"/>
       <c r="N13" s="38">
         <f t="shared" si="1"/>
         <v>1187490</v>
@@ -36621,11 +36639,11 @@
     <row r="226" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A226" s="206"/>
       <c r="B226" s="207"/>
-      <c r="F226" s="794" t="s">
+      <c r="F226" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G226" s="794"/>
-      <c r="H226" s="795"/>
+      <c r="G226" s="760"/>
+      <c r="H226" s="761"/>
       <c r="I226" s="216">
         <f>SUM(I4:I225)</f>
         <v>405885.8</v>
@@ -40118,10 +40136,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="842" t="s">
+      <c r="O59" s="845" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="854">
+      <c r="P59" s="847">
         <v>44361</v>
       </c>
       <c r="Q59" s="94"/>
@@ -40168,8 +40186,8 @@
         <f t="shared" si="1"/>
         <v>132498</v>
       </c>
-      <c r="O60" s="844"/>
-      <c r="P60" s="855"/>
+      <c r="O60" s="846"/>
+      <c r="P60" s="848"/>
       <c r="Q60" s="94"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -40178,7 +40196,7 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="865" t="s">
+      <c r="A61" s="858" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="328" t="s">
@@ -40195,7 +40213,7 @@
       <c r="G61" s="49">
         <v>44347</v>
       </c>
-      <c r="H61" s="866">
+      <c r="H61" s="859">
         <v>426</v>
       </c>
       <c r="I61" s="51">
@@ -40214,10 +40232,10 @@
         <f t="shared" si="1"/>
         <v>78121.8</v>
       </c>
-      <c r="O61" s="867" t="s">
+      <c r="O61" s="860" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="868">
+      <c r="P61" s="861">
         <v>44365</v>
       </c>
       <c r="Q61" s="94"/>
@@ -40228,7 +40246,7 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="833"/>
+      <c r="A62" s="836"/>
       <c r="B62" s="328" t="s">
         <v>397</v>
       </c>
@@ -40241,7 +40259,7 @@
       <c r="G62" s="49">
         <v>44347</v>
       </c>
-      <c r="H62" s="809"/>
+      <c r="H62" s="755"/>
       <c r="I62" s="51">
         <v>97.9</v>
       </c>
@@ -40258,8 +40276,8 @@
         <f t="shared" si="1"/>
         <v>8419.4</v>
       </c>
-      <c r="O62" s="804"/>
-      <c r="P62" s="748"/>
+      <c r="O62" s="757"/>
+      <c r="P62" s="759"/>
       <c r="Q62" s="94"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
@@ -40270,7 +40288,7 @@
     <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="389"/>
       <c r="B63" s="86"/>
-      <c r="C63" s="798"/>
+      <c r="C63" s="765"/>
       <c r="D63" s="91"/>
       <c r="E63" s="93"/>
       <c r="F63" s="51"/>
@@ -40288,7 +40306,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="801"/>
+      <c r="O63" s="767"/>
       <c r="P63" s="769"/>
       <c r="Q63" s="94"/>
       <c r="R63" s="40"/>
@@ -40300,7 +40318,7 @@
     <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="390"/>
       <c r="B64" s="86"/>
-      <c r="C64" s="764"/>
+      <c r="C64" s="808"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51"/>
@@ -40318,8 +40336,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="822"/>
-      <c r="P64" s="823"/>
+      <c r="O64" s="813"/>
+      <c r="P64" s="814"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -40418,13 +40436,13 @@
       <c r="V67" s="326"/>
     </row>
     <row r="68" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="856" t="s">
+      <c r="A68" s="849" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="599" t="s">
         <v>401</v>
       </c>
-      <c r="C68" s="859" t="s">
+      <c r="C68" s="852" t="s">
         <v>402</v>
       </c>
       <c r="D68" s="600"/>
@@ -40469,11 +40487,11 @@
       <c r="V68" s="326"/>
     </row>
     <row r="69" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="857"/>
+      <c r="A69" s="850"/>
       <c r="B69" s="599" t="s">
         <v>399</v>
       </c>
-      <c r="C69" s="860"/>
+      <c r="C69" s="853"/>
       <c r="D69" s="600"/>
       <c r="E69" s="97"/>
       <c r="F69" s="320">
@@ -40483,7 +40501,7 @@
       <c r="G69" s="321">
         <v>44319</v>
       </c>
-      <c r="H69" s="862"/>
+      <c r="H69" s="855"/>
       <c r="I69" s="275">
         <v>210.3</v>
       </c>
@@ -40500,8 +40518,8 @@
         <f t="shared" si="1"/>
         <v>7360.5</v>
       </c>
-      <c r="O69" s="863"/>
-      <c r="P69" s="864"/>
+      <c r="O69" s="856"/>
+      <c r="P69" s="857"/>
       <c r="Q69" s="94"/>
       <c r="R69" s="324"/>
       <c r="S69" s="41"/>
@@ -40510,11 +40528,11 @@
       <c r="V69" s="326"/>
     </row>
     <row r="70" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="858"/>
+      <c r="A70" s="851"/>
       <c r="B70" s="599" t="s">
         <v>403</v>
       </c>
-      <c r="C70" s="861"/>
+      <c r="C70" s="854"/>
       <c r="D70" s="600"/>
       <c r="E70" s="97"/>
       <c r="F70" s="320">
@@ -41101,13 +41119,13 @@
       <c r="V81" s="44"/>
     </row>
     <row r="82" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="848" t="s">
+      <c r="A82" s="866" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="659" t="s">
         <v>478</v>
       </c>
-      <c r="C82" s="753" t="s">
+      <c r="C82" s="798" t="s">
         <v>479</v>
       </c>
       <c r="D82" s="438"/>
@@ -41115,10 +41133,10 @@
       <c r="F82" s="418">
         <v>2525.1999999999998</v>
       </c>
-      <c r="G82" s="765">
+      <c r="G82" s="809">
         <v>44341</v>
       </c>
-      <c r="H82" s="828" t="s">
+      <c r="H82" s="819" t="s">
         <v>480</v>
       </c>
       <c r="I82" s="48">
@@ -41137,10 +41155,10 @@
         <f t="shared" si="1"/>
         <v>202016</v>
       </c>
-      <c r="O82" s="842" t="s">
+      <c r="O82" s="845" t="s">
         <v>206</v>
       </c>
-      <c r="P82" s="845">
+      <c r="P82" s="863">
         <v>44375</v>
       </c>
       <c r="Q82" s="94"/>
@@ -41151,18 +41169,18 @@
       <c r="V82" s="44"/>
     </row>
     <row r="83" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="849"/>
+      <c r="A83" s="867"/>
       <c r="B83" s="659" t="s">
         <v>438</v>
       </c>
-      <c r="C83" s="851"/>
+      <c r="C83" s="869"/>
       <c r="D83" s="438"/>
       <c r="E83" s="97"/>
       <c r="F83" s="418">
         <v>4048</v>
       </c>
-      <c r="G83" s="853"/>
-      <c r="H83" s="852"/>
+      <c r="G83" s="871"/>
+      <c r="H83" s="870"/>
       <c r="I83" s="48">
         <v>4048</v>
       </c>
@@ -41179,8 +41197,8 @@
         <f t="shared" si="1"/>
         <v>242880</v>
       </c>
-      <c r="O83" s="843"/>
-      <c r="P83" s="846"/>
+      <c r="O83" s="862"/>
+      <c r="P83" s="864"/>
       <c r="Q83" s="94"/>
       <c r="R83" s="40"/>
       <c r="S83" s="41"/>
@@ -41189,18 +41207,18 @@
       <c r="V83" s="44"/>
     </row>
     <row r="84" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="849"/>
+      <c r="A84" s="867"/>
       <c r="B84" s="659" t="s">
         <v>481</v>
       </c>
-      <c r="C84" s="851"/>
+      <c r="C84" s="869"/>
       <c r="D84" s="438"/>
       <c r="E84" s="97"/>
       <c r="F84" s="418">
         <v>2185.8000000000002</v>
       </c>
-      <c r="G84" s="853"/>
-      <c r="H84" s="852"/>
+      <c r="G84" s="871"/>
+      <c r="H84" s="870"/>
       <c r="I84" s="48">
         <v>2185.8000000000002</v>
       </c>
@@ -41217,8 +41235,8 @@
         <f t="shared" si="1"/>
         <v>198907.80000000002</v>
       </c>
-      <c r="O84" s="843"/>
-      <c r="P84" s="846"/>
+      <c r="O84" s="862"/>
+      <c r="P84" s="864"/>
       <c r="Q84" s="94"/>
       <c r="R84" s="40"/>
       <c r="S84" s="41"/>
@@ -41227,18 +41245,18 @@
       <c r="V84" s="44"/>
     </row>
     <row r="85" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="849"/>
+      <c r="A85" s="867"/>
       <c r="B85" s="659" t="s">
         <v>482</v>
       </c>
-      <c r="C85" s="851"/>
+      <c r="C85" s="869"/>
       <c r="D85" s="438"/>
       <c r="E85" s="97"/>
       <c r="F85" s="418">
         <v>413</v>
       </c>
-      <c r="G85" s="853"/>
-      <c r="H85" s="852"/>
+      <c r="G85" s="871"/>
+      <c r="H85" s="870"/>
       <c r="I85" s="48">
         <v>413</v>
       </c>
@@ -41255,8 +41273,8 @@
         <f t="shared" si="1"/>
         <v>25193</v>
       </c>
-      <c r="O85" s="843"/>
-      <c r="P85" s="846"/>
+      <c r="O85" s="862"/>
+      <c r="P85" s="864"/>
       <c r="Q85" s="94"/>
       <c r="R85" s="40"/>
       <c r="S85" s="41"/>
@@ -41265,18 +41283,18 @@
       <c r="V85" s="44"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="849"/>
+      <c r="A86" s="867"/>
       <c r="B86" s="659" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="851"/>
+      <c r="C86" s="869"/>
       <c r="D86" s="438"/>
       <c r="E86" s="97"/>
       <c r="F86" s="418">
         <v>518</v>
       </c>
-      <c r="G86" s="853"/>
-      <c r="H86" s="852"/>
+      <c r="G86" s="871"/>
+      <c r="H86" s="870"/>
       <c r="I86" s="48">
         <v>518</v>
       </c>
@@ -41293,8 +41311,8 @@
         <f t="shared" si="1"/>
         <v>18648</v>
       </c>
-      <c r="O86" s="843"/>
-      <c r="P86" s="846"/>
+      <c r="O86" s="862"/>
+      <c r="P86" s="864"/>
       <c r="Q86" s="94"/>
       <c r="R86" s="40"/>
       <c r="S86" s="41"/>
@@ -41303,18 +41321,18 @@
       <c r="V86" s="44"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="849"/>
+      <c r="A87" s="867"/>
       <c r="B87" s="659" t="s">
         <v>483</v>
       </c>
-      <c r="C87" s="851"/>
+      <c r="C87" s="869"/>
       <c r="D87" s="438"/>
       <c r="E87" s="97"/>
       <c r="F87" s="418">
         <v>1848.4</v>
       </c>
-      <c r="G87" s="853"/>
-      <c r="H87" s="852"/>
+      <c r="G87" s="871"/>
+      <c r="H87" s="870"/>
       <c r="I87" s="48">
         <v>1848.4</v>
       </c>
@@ -41331,8 +41349,8 @@
         <f t="shared" si="1"/>
         <v>53603.600000000006</v>
       </c>
-      <c r="O87" s="843"/>
-      <c r="P87" s="846"/>
+      <c r="O87" s="862"/>
+      <c r="P87" s="864"/>
       <c r="Q87" s="94"/>
       <c r="R87" s="40"/>
       <c r="S87" s="41"/>
@@ -41341,18 +41359,18 @@
       <c r="V87" s="44"/>
     </row>
     <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="849"/>
+      <c r="A88" s="867"/>
       <c r="B88" s="659" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="851"/>
+      <c r="C88" s="869"/>
       <c r="D88" s="438"/>
       <c r="E88" s="97"/>
       <c r="F88" s="418">
         <v>744</v>
       </c>
-      <c r="G88" s="853"/>
-      <c r="H88" s="852"/>
+      <c r="G88" s="871"/>
+      <c r="H88" s="870"/>
       <c r="I88" s="48">
         <v>744</v>
       </c>
@@ -41369,8 +41387,8 @@
         <f t="shared" si="1"/>
         <v>28272</v>
       </c>
-      <c r="O88" s="843"/>
-      <c r="P88" s="846"/>
+      <c r="O88" s="862"/>
+      <c r="P88" s="864"/>
       <c r="Q88" s="94"/>
       <c r="R88" s="40"/>
       <c r="S88" s="41"/>
@@ -41379,18 +41397,18 @@
       <c r="V88" s="44"/>
     </row>
     <row r="89" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="850"/>
+      <c r="A89" s="868"/>
       <c r="B89" s="659" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="754"/>
+      <c r="C89" s="799"/>
       <c r="D89" s="438"/>
       <c r="E89" s="97"/>
       <c r="F89" s="418">
         <v>1469</v>
       </c>
-      <c r="G89" s="766"/>
-      <c r="H89" s="829"/>
+      <c r="G89" s="810"/>
+      <c r="H89" s="820"/>
       <c r="I89" s="48">
         <v>1469</v>
       </c>
@@ -41407,8 +41425,8 @@
         <f t="shared" si="1"/>
         <v>117520</v>
       </c>
-      <c r="O89" s="844"/>
-      <c r="P89" s="847"/>
+      <c r="O89" s="846"/>
+      <c r="P89" s="865"/>
       <c r="Q89" s="94"/>
       <c r="R89" s="40"/>
       <c r="S89" s="41"/>
@@ -46348,11 +46366,11 @@
     <row r="253" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A253" s="206"/>
       <c r="B253" s="207"/>
-      <c r="F253" s="794" t="s">
+      <c r="F253" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G253" s="794"/>
-      <c r="H253" s="795"/>
+      <c r="G253" s="760"/>
+      <c r="H253" s="761"/>
       <c r="I253" s="216">
         <f>SUM(I4:I252)</f>
         <v>442400.9</v>
@@ -46917,6 +46935,14 @@
     <sortCondition ref="G53:G56"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="O82:O89"/>
+    <mergeCell ref="P82:P89"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="H82:H89"/>
+    <mergeCell ref="G82:G89"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="P59:P60"/>
@@ -46933,14 +46959,6 @@
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="P61:P62"/>
-    <mergeCell ref="O82:O89"/>
-    <mergeCell ref="P82:P89"/>
-    <mergeCell ref="F253:H253"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="H82:H89"/>
-    <mergeCell ref="G82:G89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48061,7 +48079,7 @@
         <v>44365</v>
       </c>
       <c r="S17" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T17" s="44">
         <v>6032</v>
@@ -48134,7 +48152,7 @@
         <v>44365</v>
       </c>
       <c r="S18" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T18" s="44">
         <v>0</v>
@@ -48272,7 +48290,7 @@
         <v>44375</v>
       </c>
       <c r="S20" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T20" s="44">
         <v>6032</v>
@@ -48345,7 +48363,7 @@
         <v>44375</v>
       </c>
       <c r="S21" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T21" s="44">
         <v>6032</v>
@@ -48418,7 +48436,7 @@
         <v>44375</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T22" s="44">
         <v>6032</v>
@@ -48556,7 +48574,7 @@
         <v>44379</v>
       </c>
       <c r="S24" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T24" s="44">
         <v>6032</v>
@@ -48629,7 +48647,7 @@
         <v>44379</v>
       </c>
       <c r="S25" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T25" s="44">
         <v>0</v>
@@ -48702,7 +48720,7 @@
         <v>44379</v>
       </c>
       <c r="S26" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T26" s="44">
         <v>6032</v>
@@ -49659,7 +49677,7 @@
       <c r="B54" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="879" t="s">
+      <c r="C54" s="886" t="s">
         <v>521</v>
       </c>
       <c r="D54" s="608"/>
@@ -49670,7 +49688,7 @@
       <c r="G54" s="87">
         <v>44361</v>
       </c>
-      <c r="H54" s="884">
+      <c r="H54" s="891">
         <v>439</v>
       </c>
       <c r="I54" s="48">
@@ -49689,10 +49707,10 @@
         <f t="shared" si="1"/>
         <v>116188</v>
       </c>
-      <c r="O54" s="877" t="s">
+      <c r="O54" s="884" t="s">
         <v>224</v>
       </c>
-      <c r="P54" s="878">
+      <c r="P54" s="885">
         <v>44382</v>
       </c>
       <c r="Q54" s="508"/>
@@ -49707,7 +49725,7 @@
       <c r="B55" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C55" s="880"/>
+      <c r="C55" s="887"/>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
       <c r="F55" s="51">
@@ -49716,7 +49734,7 @@
       <c r="G55" s="87">
         <v>44361</v>
       </c>
-      <c r="H55" s="885"/>
+      <c r="H55" s="892"/>
       <c r="I55" s="48">
         <v>90</v>
       </c>
@@ -49733,8 +49751,8 @@
         <f t="shared" si="1"/>
         <v>7740</v>
       </c>
-      <c r="O55" s="877"/>
-      <c r="P55" s="878"/>
+      <c r="O55" s="884"/>
+      <c r="P55" s="885"/>
       <c r="Q55" s="508"/>
       <c r="R55" s="40"/>
       <c r="S55" s="67"/>
@@ -49743,13 +49761,13 @@
       <c r="V55" s="326"/>
     </row>
     <row r="56" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="881" t="s">
+      <c r="A56" s="888" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="883" t="s">
+      <c r="C56" s="890" t="s">
         <v>524</v>
       </c>
       <c r="D56" s="608"/>
@@ -49760,7 +49778,7 @@
       <c r="G56" s="87">
         <v>44368</v>
       </c>
-      <c r="H56" s="828">
+      <c r="H56" s="819">
         <v>457</v>
       </c>
       <c r="I56" s="48">
@@ -49779,10 +49797,10 @@
         <f t="shared" si="1"/>
         <v>102145</v>
       </c>
-      <c r="O56" s="803" t="s">
+      <c r="O56" s="756" t="s">
         <v>224</v>
       </c>
-      <c r="P56" s="886">
+      <c r="P56" s="872">
         <v>44393</v>
       </c>
       <c r="Q56" s="508"/>
@@ -49793,11 +49811,11 @@
       <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="882"/>
+      <c r="A57" s="889"/>
       <c r="B57" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="883"/>
+      <c r="C57" s="890"/>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
       <c r="F57" s="51">
@@ -49806,7 +49824,7 @@
       <c r="G57" s="87">
         <v>44368</v>
       </c>
-      <c r="H57" s="829"/>
+      <c r="H57" s="820"/>
       <c r="I57" s="48">
         <v>112.8023</v>
       </c>
@@ -49823,8 +49841,8 @@
         <f t="shared" si="1"/>
         <v>9700.997800000001</v>
       </c>
-      <c r="O57" s="804"/>
-      <c r="P57" s="887"/>
+      <c r="O57" s="757"/>
+      <c r="P57" s="873"/>
       <c r="Q57" s="508"/>
       <c r="R57" s="40"/>
       <c r="S57" s="67"/>
@@ -49833,13 +49851,13 @@
       <c r="V57" s="44"/>
     </row>
     <row r="58" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="810" t="s">
+      <c r="A58" s="821" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="807" t="s">
+      <c r="C58" s="752" t="s">
         <v>525</v>
       </c>
       <c r="D58" s="608"/>
@@ -49847,10 +49865,10 @@
       <c r="F58" s="51">
         <v>1272.8</v>
       </c>
-      <c r="G58" s="888">
+      <c r="G58" s="876">
         <v>44375</v>
       </c>
-      <c r="H58" s="873">
+      <c r="H58" s="874">
         <v>469</v>
       </c>
       <c r="I58" s="48">
@@ -49869,10 +49887,10 @@
         <f t="shared" si="1"/>
         <v>98642</v>
       </c>
-      <c r="O58" s="803" t="s">
+      <c r="O58" s="756" t="s">
         <v>224</v>
       </c>
-      <c r="P58" s="886">
+      <c r="P58" s="872">
         <v>44393</v>
       </c>
       <c r="Q58" s="508"/>
@@ -49883,18 +49901,18 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="811"/>
+      <c r="A59" s="822"/>
       <c r="B59" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="C59" s="808"/>
+      <c r="C59" s="753"/>
       <c r="D59" s="610"/>
       <c r="E59" s="609"/>
       <c r="F59" s="51">
         <v>91.4</v>
       </c>
-      <c r="G59" s="889"/>
-      <c r="H59" s="874"/>
+      <c r="G59" s="877"/>
+      <c r="H59" s="875"/>
       <c r="I59" s="48">
         <v>91.4</v>
       </c>
@@ -49911,8 +49929,8 @@
         <f t="shared" si="1"/>
         <v>7860.4000000000005</v>
       </c>
-      <c r="O59" s="804"/>
-      <c r="P59" s="887"/>
+      <c r="O59" s="757"/>
+      <c r="P59" s="873"/>
       <c r="Q59" s="508"/>
       <c r="R59" s="40"/>
       <c r="S59" s="41"/>
@@ -50327,13 +50345,13 @@
       <c r="V71" s="326"/>
     </row>
     <row r="72" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="871" t="s">
+      <c r="A72" s="880" t="s">
         <v>451</v>
       </c>
       <c r="B72" s="659" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="869" t="s">
+      <c r="C72" s="878" t="s">
         <v>453</v>
       </c>
       <c r="D72" s="660"/>
@@ -50344,7 +50362,7 @@
       <c r="G72" s="87">
         <v>44361</v>
       </c>
-      <c r="H72" s="873" t="s">
+      <c r="H72" s="874" t="s">
         <v>455</v>
       </c>
       <c r="I72" s="48">
@@ -50357,10 +50375,10 @@
       <c r="K72" s="56">
         <v>55</v>
       </c>
-      <c r="L72" s="875" t="s">
+      <c r="L72" s="882" t="s">
         <v>460</v>
       </c>
-      <c r="M72" s="876"/>
+      <c r="M72" s="883"/>
       <c r="N72" s="57">
         <f t="shared" si="1"/>
         <v>11111.1</v>
@@ -50379,11 +50397,11 @@
       <c r="V72" s="326"/>
     </row>
     <row r="73" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="872"/>
+      <c r="A73" s="881"/>
       <c r="B73" s="659" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="870"/>
+      <c r="C73" s="879"/>
       <c r="D73" s="660"/>
       <c r="E73" s="613"/>
       <c r="F73" s="51">
@@ -50392,7 +50410,7 @@
       <c r="G73" s="87">
         <v>44361</v>
       </c>
-      <c r="H73" s="874"/>
+      <c r="H73" s="875"/>
       <c r="I73" s="48">
         <v>72.849999999999994</v>
       </c>
@@ -50403,8 +50421,8 @@
       <c r="K73" s="56">
         <v>100</v>
       </c>
-      <c r="L73" s="875"/>
-      <c r="M73" s="876"/>
+      <c r="L73" s="882"/>
+      <c r="M73" s="883"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>7284.9999999999991</v>
@@ -55544,11 +55562,11 @@
     <row r="243" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A243" s="206"/>
       <c r="B243" s="207"/>
-      <c r="F243" s="794" t="s">
+      <c r="F243" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="794"/>
-      <c r="H243" s="795"/>
+      <c r="G243" s="760"/>
+      <c r="H243" s="761"/>
       <c r="I243" s="216">
         <f>SUM(I4:I242)</f>
         <v>406525.67229999998</v>
@@ -56116,13 +56134,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
@@ -56139,6 +56150,13 @@
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56155,7 +56173,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56366,13 +56384,13 @@
       <c r="S4" s="483"/>
       <c r="T4" s="42"/>
       <c r="U4" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V4" s="44">
         <v>6032</v>
       </c>
       <c r="W4" s="737" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X4" s="738">
         <v>3960</v>
@@ -56439,13 +56457,13 @@
       <c r="S5" s="483"/>
       <c r="T5" s="42"/>
       <c r="U5" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V5" s="44">
         <v>6032</v>
       </c>
       <c r="W5" s="411" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X5" s="412">
         <v>3960</v>
@@ -56512,13 +56530,13 @@
       <c r="S6" s="483"/>
       <c r="T6" s="42"/>
       <c r="U6" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V6" s="44">
         <v>0</v>
       </c>
       <c r="W6" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X6" s="361">
         <v>0</v>
@@ -56532,7 +56550,7 @@
         <v>467</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D7" s="93">
         <v>59</v>
@@ -56585,13 +56603,13 @@
       <c r="S7" s="483"/>
       <c r="T7" s="42"/>
       <c r="U7" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V7" s="44">
         <v>6032</v>
       </c>
       <c r="W7" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X7" s="361">
         <v>3960</v>
@@ -56605,7 +56623,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="274" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D8" s="93">
         <v>59</v>
@@ -56621,7 +56639,7 @@
         <v>44383</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I8" s="51">
         <v>22960</v>
@@ -56658,13 +56676,13 @@
       <c r="S8" s="483"/>
       <c r="T8" s="42"/>
       <c r="U8" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V8" s="44">
         <v>6032</v>
       </c>
       <c r="W8" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X8" s="361">
         <v>3960</v>
@@ -56678,7 +56696,7 @@
         <v>508</v>
       </c>
       <c r="C9" s="274" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D9" s="93">
         <v>59</v>
@@ -56731,13 +56749,13 @@
       <c r="S9" s="483"/>
       <c r="T9" s="42"/>
       <c r="U9" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V9" s="44">
         <v>6032</v>
       </c>
       <c r="W9" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X9" s="361">
         <v>3960</v>
@@ -56751,7 +56769,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="274" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D10" s="173">
         <v>59</v>
@@ -56767,7 +56785,7 @@
         <v>44386</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I10" s="51">
         <v>21425</v>
@@ -56804,13 +56822,13 @@
       <c r="S10" s="483"/>
       <c r="T10" s="42"/>
       <c r="U10" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V10" s="44">
         <v>6032</v>
       </c>
       <c r="W10" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X10" s="361">
         <v>3960</v>
@@ -56824,7 +56842,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="274" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D11" s="93">
         <v>0</v>
@@ -56873,13 +56891,13 @@
       <c r="S11" s="483"/>
       <c r="T11" s="42"/>
       <c r="U11" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V11" s="44">
         <v>0</v>
       </c>
       <c r="W11" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X11" s="361">
         <v>0</v>
@@ -56893,7 +56911,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="274" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12" s="93">
         <v>59</v>
@@ -56909,7 +56927,7 @@
         <v>44388</v>
       </c>
       <c r="H12" s="677" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I12" s="51">
         <v>21910</v>
@@ -56946,13 +56964,13 @@
       <c r="S12" s="483"/>
       <c r="T12" s="42"/>
       <c r="U12" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V12" s="44">
         <v>6032</v>
       </c>
       <c r="W12" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X12" s="361">
         <v>3960</v>
@@ -56966,7 +56984,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="274" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D13" s="93">
         <v>0</v>
@@ -56982,7 +57000,7 @@
         <v>44388</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I13" s="51">
         <v>5360</v>
@@ -57019,13 +57037,13 @@
       <c r="S13" s="483"/>
       <c r="T13" s="42"/>
       <c r="U13" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V13" s="44">
         <v>0</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X13" s="361">
         <v>0</v>
@@ -57039,7 +57057,7 @@
         <v>283</v>
       </c>
       <c r="C14" s="274" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="93">
         <v>59</v>
@@ -57055,7 +57073,7 @@
         <v>44391</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I14" s="51">
         <v>21140</v>
@@ -57092,13 +57110,13 @@
       <c r="S14" s="483"/>
       <c r="T14" s="42"/>
       <c r="U14" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V14" s="44">
         <v>6032</v>
       </c>
       <c r="W14" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X14" s="361">
         <v>3960</v>
@@ -57112,7 +57130,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="679" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D15" s="93">
         <v>59</v>
@@ -57128,7 +57146,7 @@
         <v>44393</v>
       </c>
       <c r="H15" s="677" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I15" s="51">
         <v>20885</v>
@@ -57167,7 +57185,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="44"/>
       <c r="W15" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X15" s="361">
         <v>3960</v>
@@ -57181,7 +57199,7 @@
         <v>513</v>
       </c>
       <c r="C16" s="274" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D16" s="93">
         <v>0</v>
@@ -57197,7 +57215,7 @@
         <v>44393</v>
       </c>
       <c r="H16" s="677" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I16" s="51">
         <v>5740</v>
@@ -57236,7 +57254,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="44"/>
       <c r="W16" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X16" s="361">
         <v>0</v>
@@ -57250,7 +57268,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="274" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D17" s="93">
         <v>59</v>
@@ -57266,7 +57284,7 @@
         <v>44395</v>
       </c>
       <c r="H17" s="677" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I17" s="51">
         <v>22060</v>
@@ -57305,7 +57323,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="44"/>
       <c r="W17" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X17" s="361">
         <v>3960</v>
@@ -57319,7 +57337,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="274" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D18" s="93">
         <v>59</v>
@@ -57335,7 +57353,7 @@
         <v>44397</v>
       </c>
       <c r="H18" s="677" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I18" s="51">
         <v>21640</v>
@@ -57374,7 +57392,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="44"/>
       <c r="W18" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X18" s="361">
         <v>3960</v>
@@ -57388,7 +57406,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="274" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D19" s="93">
         <v>59</v>
@@ -57404,7 +57422,7 @@
         <v>44399</v>
       </c>
       <c r="H19" s="677" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I19" s="51">
         <v>20640</v>
@@ -57443,7 +57461,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="44"/>
       <c r="W19" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X19" s="361">
         <v>3960</v>
@@ -57457,7 +57475,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="274" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D20" s="93">
         <v>59</v>
@@ -57473,7 +57491,7 @@
         <v>44400</v>
       </c>
       <c r="H20" s="677" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I20" s="51">
         <f>21100-105.5</f>
@@ -57513,7 +57531,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="44"/>
       <c r="W20" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X20" s="361">
         <v>3960</v>
@@ -57527,7 +57545,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="274" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D21" s="93">
         <v>59</v>
@@ -57543,7 +57561,7 @@
         <v>44402</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I21" s="51">
         <v>20510</v>
@@ -57582,7 +57600,7 @@
       <c r="U21" s="43"/>
       <c r="V21" s="44"/>
       <c r="W21" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X21" s="361">
         <v>3960</v>
@@ -57596,7 +57614,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="274" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D22" s="93">
         <v>0</v>
@@ -57612,7 +57630,7 @@
         <v>44402</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I22" s="51">
         <v>5100</v>
@@ -57651,7 +57669,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="44"/>
       <c r="W22" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X22" s="361">
         <v>0</v>
@@ -57665,7 +57683,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="274" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D23" s="93">
         <v>59</v>
@@ -57681,7 +57699,7 @@
         <v>44404</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I23" s="51">
         <v>23235</v>
@@ -57720,7 +57738,7 @@
       <c r="U23" s="43"/>
       <c r="V23" s="44"/>
       <c r="W23" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X23" s="361">
         <v>3960</v>
@@ -57734,7 +57752,7 @@
         <v>575</v>
       </c>
       <c r="C24" s="274" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D24" s="93">
         <v>52</v>
@@ -57791,7 +57809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A25" s="281" t="s">
         <v>231</v>
       </c>
@@ -57799,7 +57817,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="274" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D25" s="93">
         <v>53</v>
@@ -57815,7 +57833,7 @@
         <v>44407</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="I25" s="51">
         <v>22955</v>
@@ -57827,14 +57845,22 @@
       <c r="K25" s="581">
         <v>39</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
+      <c r="L25" s="736" t="s">
+        <v>565</v>
+      </c>
+      <c r="M25" s="736">
+        <v>5968.3</v>
+      </c>
       <c r="N25" s="57">
         <f t="shared" si="1"/>
         <v>895245</v>
       </c>
-      <c r="O25" s="728"/>
-      <c r="P25" s="735"/>
+      <c r="O25" s="728" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="735">
+        <v>44431</v>
+      </c>
       <c r="Q25" s="647">
         <v>25140</v>
       </c>
@@ -57846,7 +57872,7 @@
       <c r="U25" s="43"/>
       <c r="V25" s="44"/>
       <c r="W25" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X25" s="361">
         <v>3960</v>
@@ -57860,7 +57886,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="274" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D26" s="93">
         <v>53</v>
@@ -57876,7 +57902,7 @@
         <v>44407</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I26" s="51">
         <v>5290</v>
@@ -57888,10 +57914,10 @@
       <c r="K26" s="581">
         <v>39</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="736" t="s">
         <v>565</v>
       </c>
-      <c r="M26" s="52">
+      <c r="M26" s="736">
         <v>687.7</v>
       </c>
       <c r="N26" s="57">
@@ -57915,7 +57941,7 @@
       <c r="U26" s="43"/>
       <c r="V26" s="44"/>
       <c r="W26" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X26" s="361">
         <v>0</v>
@@ -58809,13 +58835,13 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="898" t="s">
+      <c r="A53" s="901" t="s">
         <v>440</v>
       </c>
       <c r="B53" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="816" t="s">
+      <c r="C53" s="827" t="s">
         <v>558</v>
       </c>
       <c r="D53" s="716"/>
@@ -58826,7 +58852,7 @@
       <c r="G53" s="321">
         <v>44382</v>
       </c>
-      <c r="H53" s="820">
+      <c r="H53" s="831">
         <v>479</v>
       </c>
       <c r="I53" s="275">
@@ -58845,7 +58871,7 @@
         <f t="shared" si="1"/>
         <v>146382</v>
       </c>
-      <c r="O53" s="836" t="s">
+      <c r="O53" s="839" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -58861,11 +58887,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="899"/>
+      <c r="A54" s="902"/>
       <c r="B54" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C54" s="817"/>
+      <c r="C54" s="828"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -58874,7 +58900,7 @@
       <c r="G54" s="87">
         <v>44382</v>
       </c>
-      <c r="H54" s="821"/>
+      <c r="H54" s="832"/>
       <c r="I54" s="48">
         <v>101.8023</v>
       </c>
@@ -58891,7 +58917,7 @@
         <f t="shared" si="1"/>
         <v>8754.997800000001</v>
       </c>
-      <c r="O54" s="837"/>
+      <c r="O54" s="840"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -58908,7 +58934,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="729" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
@@ -58958,7 +58984,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="746" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D56" s="608"/>
       <c r="E56" s="607"/>
@@ -59008,7 +59034,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="746" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
@@ -59211,13 +59237,13 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="832" t="s">
+      <c r="A62" s="835" t="s">
         <v>551</v>
       </c>
       <c r="B62" s="739" t="s">
         <v>552</v>
       </c>
-      <c r="C62" s="892" t="s">
+      <c r="C62" s="895" t="s">
         <v>553</v>
       </c>
       <c r="D62" s="707"/>
@@ -59225,10 +59251,10 @@
       <c r="F62" s="51">
         <v>9342.59</v>
       </c>
-      <c r="G62" s="894">
+      <c r="G62" s="897">
         <v>44391</v>
       </c>
-      <c r="H62" s="799">
+      <c r="H62" s="766">
         <v>1021</v>
       </c>
       <c r="I62" s="51">
@@ -59250,7 +59276,7 @@
       <c r="O62" s="788" t="s">
         <v>224</v>
       </c>
-      <c r="P62" s="896">
+      <c r="P62" s="899">
         <v>44399</v>
       </c>
       <c r="Q62" s="712"/>
@@ -59261,18 +59287,18 @@
       <c r="V62" s="44"/>
     </row>
     <row r="63" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="833"/>
+      <c r="A63" s="836"/>
       <c r="B63" s="599" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="893"/>
+      <c r="C63" s="896"/>
       <c r="D63" s="707"/>
       <c r="E63" s="609"/>
       <c r="F63" s="51">
         <v>1320</v>
       </c>
-      <c r="G63" s="895"/>
-      <c r="H63" s="809"/>
+      <c r="G63" s="898"/>
+      <c r="H63" s="755"/>
       <c r="I63" s="51">
         <v>1320</v>
       </c>
@@ -59290,7 +59316,7 @@
         <v>36960</v>
       </c>
       <c r="O63" s="789"/>
-      <c r="P63" s="897"/>
+      <c r="P63" s="900"/>
       <c r="Q63" s="712"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
@@ -59450,13 +59476,13 @@
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="287" t="s">
+        <v>606</v>
+      </c>
+      <c r="B67" s="599" t="s">
         <v>607</v>
       </c>
-      <c r="B67" s="599" t="s">
+      <c r="C67" s="619" t="s">
         <v>608</v>
-      </c>
-      <c r="C67" s="619" t="s">
-        <v>609</v>
       </c>
       <c r="D67" s="610"/>
       <c r="E67" s="609"/>
@@ -59467,7 +59493,7 @@
         <v>44405</v>
       </c>
       <c r="H67" s="393" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I67" s="51">
         <v>8452.58</v>
@@ -59506,7 +59532,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="610" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D68" s="610"/>
       <c r="E68" s="609"/>
@@ -59517,7 +59543,7 @@
         <v>44406</v>
       </c>
       <c r="H68" s="393" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I68" s="51">
         <v>300</v>
@@ -59743,8 +59769,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="890"/>
-      <c r="M75" s="891"/>
+      <c r="L75" s="893"/>
+      <c r="M75" s="894"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59773,8 +59799,8 @@
         <v>0</v>
       </c>
       <c r="K76" s="56"/>
-      <c r="L76" s="890"/>
-      <c r="M76" s="891"/>
+      <c r="L76" s="893"/>
+      <c r="M76" s="894"/>
       <c r="N76" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -64856,11 +64882,11 @@
     <row r="246" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A246" s="206"/>
       <c r="B246" s="207"/>
-      <c r="F246" s="794" t="s">
+      <c r="F246" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G246" s="794"/>
-      <c r="H246" s="795"/>
+      <c r="G246" s="760"/>
+      <c r="H246" s="761"/>
       <c r="I246" s="216">
         <f>SUM(I4:I245)</f>
         <v>416543.62230000005</v>
@@ -65450,10 +65476,10 @@
   <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -65483,7 +65509,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A1" s="773" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1" s="773"/>
       <c r="C1" s="773"/>
@@ -65616,7 +65642,9 @@
       <c r="G4" s="271">
         <v>44409</v>
       </c>
-      <c r="H4" s="725"/>
+      <c r="H4" s="725" t="s">
+        <v>629</v>
+      </c>
       <c r="I4" s="34">
         <v>20335</v>
       </c>
@@ -65627,14 +65655,22 @@
       <c r="K4" s="322">
         <v>38.5</v>
       </c>
-      <c r="L4" s="732"/>
-      <c r="M4" s="732"/>
+      <c r="L4" s="732" t="s">
+        <v>565</v>
+      </c>
+      <c r="M4" s="732">
+        <v>4175.45</v>
+      </c>
       <c r="N4" s="38">
         <f t="shared" ref="N4:N140" si="1">K4*I4</f>
         <v>782897.5</v>
       </c>
-      <c r="O4" s="510"/>
-      <c r="P4" s="699"/>
+      <c r="O4" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="699">
+        <v>44431</v>
+      </c>
       <c r="Q4" s="643">
         <v>20140</v>
       </c>
@@ -65664,13 +65700,16 @@
       <c r="G5" s="276">
         <v>44411</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>628</v>
+      </c>
       <c r="I5" s="51">
-        <v>21130</v>
+        <f>21130-105.65</f>
+        <v>21024.35</v>
       </c>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>4860</v>
+        <v>4754.3499999999985</v>
       </c>
       <c r="K5" s="322">
         <v>38.5</v>
@@ -65679,10 +65718,14 @@
       <c r="M5" s="323"/>
       <c r="N5" s="38">
         <f t="shared" si="1"/>
-        <v>813505</v>
-      </c>
-      <c r="O5" s="722"/>
-      <c r="P5" s="723"/>
+        <v>809437.47499999998</v>
+      </c>
+      <c r="O5" s="722" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="723">
+        <v>44432</v>
+      </c>
       <c r="Q5" s="645">
         <v>20440</v>
       </c>
@@ -65760,13 +65803,16 @@
       <c r="G7" s="276">
         <v>44413</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>633</v>
+      </c>
       <c r="I7" s="51">
-        <v>5070</v>
+        <f>5070-101.4</f>
+        <v>4968.6000000000004</v>
       </c>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>5070</v>
+        <v>4968.6000000000004</v>
       </c>
       <c r="K7" s="322">
         <v>38.5</v>
@@ -65775,10 +65821,14 @@
       <c r="M7" s="323"/>
       <c r="N7" s="38">
         <f t="shared" si="1"/>
-        <v>195195</v>
-      </c>
-      <c r="O7" s="722"/>
-      <c r="P7" s="723"/>
+        <v>191291.1</v>
+      </c>
+      <c r="O7" s="722" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="723">
+        <v>44433</v>
+      </c>
       <c r="Q7" s="645">
         <v>0</v>
       </c>
@@ -65893,7 +65943,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="273" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C10" s="274"/>
       <c r="D10" s="173"/>
@@ -65941,7 +65991,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="273" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C11" s="274"/>
       <c r="D11" s="93"/>
@@ -66048,7 +66098,9 @@
       <c r="G13" s="276">
         <v>44423</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="55" t="s">
+        <v>630</v>
+      </c>
       <c r="I13" s="51">
         <v>23730</v>
       </c>
@@ -66067,8 +66119,12 @@
       </c>
       <c r="O13" s="510"/>
       <c r="P13" s="699"/>
-      <c r="Q13" s="645"/>
-      <c r="R13" s="646"/>
+      <c r="Q13" s="645">
+        <v>20040</v>
+      </c>
+      <c r="R13" s="646">
+        <v>44431</v>
+      </c>
       <c r="S13" s="483"/>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
@@ -66092,7 +66148,9 @@
       <c r="G14" s="276">
         <v>44426</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="55" t="s">
+        <v>631</v>
+      </c>
       <c r="I14" s="51">
         <v>23380</v>
       </c>
@@ -66111,8 +66169,12 @@
       </c>
       <c r="O14" s="510"/>
       <c r="P14" s="699"/>
-      <c r="Q14" s="645"/>
-      <c r="R14" s="646"/>
+      <c r="Q14" s="645">
+        <v>20040</v>
+      </c>
+      <c r="R14" s="646">
+        <v>44431</v>
+      </c>
       <c r="S14" s="483"/>
       <c r="T14" s="42"/>
       <c r="U14" s="43"/>
@@ -66136,7 +66198,9 @@
       <c r="G15" s="276">
         <v>44428</v>
       </c>
-      <c r="H15" s="677"/>
+      <c r="H15" s="677" t="s">
+        <v>632</v>
+      </c>
       <c r="I15" s="51">
         <v>22875</v>
       </c>
@@ -66155,8 +66219,12 @@
       </c>
       <c r="O15" s="510"/>
       <c r="P15" s="699"/>
-      <c r="Q15" s="645"/>
-      <c r="R15" s="646"/>
+      <c r="Q15" s="645">
+        <v>20240</v>
+      </c>
+      <c r="R15" s="646">
+        <v>44431</v>
+      </c>
       <c r="S15" s="483"/>
       <c r="T15" s="42"/>
       <c r="U15" s="43"/>
@@ -66165,25 +66233,37 @@
       <c r="X15" s="361"/>
     </row>
     <row r="16" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="285"/>
-      <c r="B16" s="273"/>
+      <c r="A16" s="285" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="273" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="274"/>
       <c r="D16" s="93"/>
       <c r="E16" s="93"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="276"/>
+      <c r="F16" s="275">
+        <v>20960</v>
+      </c>
+      <c r="G16" s="276">
+        <v>44430</v>
+      </c>
       <c r="H16" s="677"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="51">
+        <v>21800</v>
+      </c>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="581"/>
+        <v>840</v>
+      </c>
+      <c r="K16" s="581">
+        <v>37</v>
+      </c>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
       <c r="N16" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>806600</v>
       </c>
       <c r="O16" s="510"/>
       <c r="P16" s="699"/>
@@ -66197,25 +66277,37 @@
       <c r="X16" s="361"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="279"/>
-      <c r="B17" s="273"/>
+      <c r="A17" s="279" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="273" t="s">
+        <v>124</v>
+      </c>
       <c r="C17" s="274"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
-      <c r="F17" s="275"/>
-      <c r="G17" s="276"/>
+      <c r="F17" s="275">
+        <v>0</v>
+      </c>
+      <c r="G17" s="276">
+        <v>44430</v>
+      </c>
       <c r="H17" s="677"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="51">
+        <v>5005</v>
+      </c>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="581"/>
+        <v>5005</v>
+      </c>
+      <c r="K17" s="581">
+        <v>37</v>
+      </c>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
       <c r="N17" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>185185</v>
       </c>
       <c r="O17" s="510"/>
       <c r="P17" s="699"/>
@@ -67363,12 +67455,12 @@
       <c r="V51" s="44"/>
     </row>
     <row r="52" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="903"/>
+      <c r="A52" s="748"/>
       <c r="B52" s="71"/>
       <c r="C52" s="319"/>
       <c r="D52" s="319"/>
       <c r="E52" s="614"/>
-      <c r="F52" s="900"/>
+      <c r="F52" s="747"/>
       <c r="G52" s="616"/>
       <c r="H52" s="76"/>
       <c r="I52" s="615"/>
@@ -67393,14 +67485,14 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="904" t="s">
+      <c r="A53" s="903" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="901" t="s">
-        <v>622</v>
+      <c r="C53" s="905" t="s">
+        <v>621</v>
       </c>
       <c r="D53" s="716"/>
       <c r="E53" s="607"/>
@@ -67410,7 +67502,7 @@
       <c r="G53" s="321">
         <v>44410</v>
       </c>
-      <c r="H53" s="884">
+      <c r="H53" s="891">
         <v>520</v>
       </c>
       <c r="I53" s="275">
@@ -67429,7 +67521,7 @@
         <f t="shared" si="1"/>
         <v>101431.59779999999</v>
       </c>
-      <c r="O53" s="836" t="s">
+      <c r="O53" s="839" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -67445,11 +67537,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="905"/>
+      <c r="A54" s="904"/>
       <c r="B54" s="292" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="902"/>
+      <c r="C54" s="906"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -67458,7 +67550,7 @@
       <c r="G54" s="87">
         <v>44410</v>
       </c>
-      <c r="H54" s="885"/>
+      <c r="H54" s="892"/>
       <c r="I54" s="48">
         <v>99.4</v>
       </c>
@@ -67475,7 +67567,7 @@
         <f t="shared" si="1"/>
         <v>8548.4</v>
       </c>
-      <c r="O54" s="837"/>
+      <c r="O54" s="840"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -67681,7 +67773,7 @@
         <v>44419</v>
       </c>
       <c r="H61" s="622" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I61" s="51">
         <v>500</v>
@@ -67720,7 +67812,7 @@
         <v>33</v>
       </c>
       <c r="C62" s="730" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D62" s="707"/>
       <c r="E62" s="609"/>
@@ -67731,7 +67823,7 @@
         <v>44426</v>
       </c>
       <c r="H62" s="622" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I62" s="51">
         <v>300</v>
@@ -67749,7 +67841,7 @@
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="O62" s="906" t="s">
+      <c r="O62" s="749" t="s">
         <v>35</v>
       </c>
       <c r="P62" s="741">
@@ -68107,8 +68199,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="890"/>
-      <c r="M74" s="891"/>
+      <c r="L74" s="893"/>
+      <c r="M74" s="894"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -68137,8 +68229,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="890"/>
-      <c r="M75" s="891"/>
+      <c r="L75" s="893"/>
+      <c r="M75" s="894"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -73220,14 +73312,14 @@
     <row r="245" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A245" s="206"/>
       <c r="B245" s="207"/>
-      <c r="F245" s="794" t="s">
+      <c r="F245" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="794"/>
-      <c r="H245" s="795"/>
+      <c r="G245" s="760"/>
+      <c r="H245" s="761"/>
       <c r="I245" s="216">
         <f>SUM(I4:I244)</f>
-        <v>253694.8051</v>
+        <v>280292.75510000001</v>
       </c>
       <c r="J245" s="217"/>
       <c r="K245" s="213"/>
@@ -73314,12 +73406,12 @@
       <c r="M249" s="232"/>
       <c r="N249" s="233">
         <f>SUM(N4:N248)</f>
-        <v>9725867.4978</v>
+        <v>10709681.072799999</v>
       </c>
       <c r="O249" s="306"/>
       <c r="Q249" s="234">
         <f>SUM(Q4:Q248)</f>
-        <v>165020</v>
+        <v>225340</v>
       </c>
       <c r="R249" s="9"/>
       <c r="S249" s="235">
@@ -73374,7 +73466,7 @@
       <c r="M252" s="248"/>
       <c r="N252" s="249">
         <f>V249+S249+Q249+N249+L249</f>
-        <v>9890887.4978</v>
+        <v>10935021.072799999</v>
       </c>
       <c r="O252" s="307"/>
       <c r="R252" s="222"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO   2021" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="664">
   <si>
     <t>MATANZA</t>
   </si>
@@ -1963,16 +1963,10 @@
     <t>9812--9905</t>
   </si>
   <si>
-    <t>18984--</t>
-  </si>
-  <si>
     <t>19008--</t>
   </si>
   <si>
     <t>19021--</t>
-  </si>
-  <si>
-    <t>2957--NC-99</t>
   </si>
   <si>
     <t>18893--9796--9900</t>
@@ -2027,6 +2021,48 @@
   </si>
   <si>
     <t>0850 X</t>
+  </si>
+  <si>
+    <t>0860 X</t>
+  </si>
+  <si>
+    <t>0872 X</t>
+  </si>
+  <si>
+    <t>0887 X</t>
+  </si>
+  <si>
+    <t>0893 X</t>
+  </si>
+  <si>
+    <t>18984--6463-NC-228</t>
+  </si>
+  <si>
+    <t>9848--NC-472--9942</t>
+  </si>
+  <si>
+    <t>9844--9941</t>
+  </si>
+  <si>
+    <t>9826--NC-469---9939</t>
+  </si>
+  <si>
+    <t>9835--NC-471----9940</t>
+  </si>
+  <si>
+    <t>9824--9922</t>
+  </si>
+  <si>
+    <t>D-2941</t>
+  </si>
+  <si>
+    <t>6459--6480</t>
+  </si>
+  <si>
+    <t>2957--NC-99----2984</t>
+  </si>
+  <si>
+    <t>CARGA CANCELADA</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2563,6 +2599,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3567,7 +3615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="908">
+  <cellXfs count="914">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5633,6 +5681,184 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5645,181 +5871,43 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5846,42 +5934,6 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5921,9 +5973,39 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5969,34 +6051,55 @@
     <xf numFmtId="164" fontId="30" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6005,63 +6108,12 @@
     <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6104,6 +6156,16 @@
     <xf numFmtId="4" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6114,6 +6176,7 @@
   <colors>
     <mruColors>
       <color rgb="FF9999FF"/>
+      <color rgb="FF33CCFF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
@@ -6469,18 +6532,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6502,22 +6565,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -9262,13 +9325,13 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" s="327" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="787" t="s">
+      <c r="A55" s="792" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="775" t="s">
+      <c r="C55" s="780" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="329"/>
@@ -9279,7 +9342,7 @@
       <c r="G55" s="321">
         <v>44200</v>
       </c>
-      <c r="H55" s="777">
+      <c r="H55" s="782">
         <v>195</v>
       </c>
       <c r="I55" s="275">
@@ -9298,10 +9361,10 @@
         <f t="shared" si="4"/>
         <v>23802.75</v>
       </c>
-      <c r="O55" s="789" t="s">
+      <c r="O55" s="794" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="791">
+      <c r="P55" s="796">
         <v>44222</v>
       </c>
       <c r="Q55" s="94"/>
@@ -9314,11 +9377,11 @@
       <c r="X55"/>
     </row>
     <row r="56" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="788"/>
+      <c r="A56" s="793"/>
       <c r="B56" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="776"/>
+      <c r="C56" s="781"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="51">
@@ -9327,7 +9390,7 @@
       <c r="G56" s="87">
         <v>44200</v>
       </c>
-      <c r="H56" s="778"/>
+      <c r="H56" s="783"/>
       <c r="I56" s="48">
         <v>184.1</v>
       </c>
@@ -9344,8 +9407,8 @@
         <f t="shared" si="4"/>
         <v>14728</v>
       </c>
-      <c r="O56" s="790"/>
-      <c r="P56" s="792"/>
+      <c r="O56" s="795"/>
+      <c r="P56" s="797"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -9504,13 +9567,13 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="779" t="s">
+      <c r="A60" s="784" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="781" t="s">
+      <c r="C60" s="786" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="293"/>
@@ -9521,7 +9584,7 @@
       <c r="G60" s="87">
         <v>44207</v>
       </c>
-      <c r="H60" s="783">
+      <c r="H60" s="788">
         <v>210</v>
       </c>
       <c r="I60" s="48">
@@ -9540,10 +9603,10 @@
         <f t="shared" si="4"/>
         <v>15624</v>
       </c>
-      <c r="O60" s="763" t="s">
+      <c r="O60" s="802" t="s">
         <v>35</v>
       </c>
-      <c r="P60" s="785">
+      <c r="P60" s="790">
         <v>44222</v>
       </c>
       <c r="Q60" s="94"/>
@@ -9554,11 +9617,11 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="780"/>
+      <c r="A61" s="785"/>
       <c r="B61" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="782"/>
+      <c r="C61" s="787"/>
       <c r="D61" s="293"/>
       <c r="E61" s="93"/>
       <c r="F61" s="51">
@@ -9567,7 +9630,7 @@
       <c r="G61" s="87">
         <v>44207</v>
       </c>
-      <c r="H61" s="784"/>
+      <c r="H61" s="789"/>
       <c r="I61" s="48">
         <v>344.7</v>
       </c>
@@ -9584,8 +9647,8 @@
         <f t="shared" si="4"/>
         <v>25680.149999999998</v>
       </c>
-      <c r="O61" s="764"/>
-      <c r="P61" s="786"/>
+      <c r="O61" s="803"/>
+      <c r="P61" s="791"/>
       <c r="Q61" s="94"/>
       <c r="R61" s="40"/>
       <c r="S61" s="41"/>
@@ -9644,13 +9707,13 @@
       <c r="V62" s="44"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="793" t="s">
+      <c r="A63" s="798" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="765" t="s">
+      <c r="C63" s="769" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="91"/>
@@ -9661,7 +9724,7 @@
       <c r="G63" s="49">
         <v>44211</v>
       </c>
-      <c r="H63" s="767">
+      <c r="H63" s="805">
         <v>219</v>
       </c>
       <c r="I63" s="51">
@@ -9680,10 +9743,10 @@
         <f t="shared" si="4"/>
         <v>33096</v>
       </c>
-      <c r="O63" s="768" t="s">
+      <c r="O63" s="807" t="s">
         <v>35</v>
       </c>
-      <c r="P63" s="770">
+      <c r="P63" s="775">
         <v>44235</v>
       </c>
       <c r="Q63" s="94"/>
@@ -9694,11 +9757,11 @@
       <c r="V63" s="44"/>
     </row>
     <row r="64" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="794"/>
+      <c r="A64" s="799"/>
       <c r="B64" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="766"/>
+      <c r="C64" s="804"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51">
@@ -9707,7 +9770,7 @@
       <c r="G64" s="419">
         <v>44211</v>
       </c>
-      <c r="H64" s="755"/>
+      <c r="H64" s="806"/>
       <c r="I64" s="51">
         <v>542.70000000000005</v>
       </c>
@@ -9724,8 +9787,8 @@
         <f t="shared" si="4"/>
         <v>40431.15</v>
       </c>
-      <c r="O64" s="769"/>
-      <c r="P64" s="771"/>
+      <c r="O64" s="808"/>
+      <c r="P64" s="776"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -9734,13 +9797,13 @@
       <c r="V64" s="44"/>
     </row>
     <row r="65" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="751" t="s">
+      <c r="A65" s="811" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="753" t="s">
+      <c r="C65" s="813" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="91"/>
@@ -9751,7 +9814,7 @@
       <c r="G65" s="420">
         <v>44214</v>
       </c>
-      <c r="H65" s="755">
+      <c r="H65" s="806">
         <v>224</v>
       </c>
       <c r="I65" s="51">
@@ -9770,10 +9833,10 @@
         <f t="shared" si="4"/>
         <v>65128.645000000004</v>
       </c>
-      <c r="O65" s="757" t="s">
+      <c r="O65" s="809" t="s">
         <v>35</v>
       </c>
-      <c r="P65" s="759">
+      <c r="P65" s="753">
         <v>44242</v>
       </c>
       <c r="Q65" s="94"/>
@@ -9784,11 +9847,11 @@
       <c r="V65" s="44"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="752"/>
+      <c r="A66" s="812"/>
       <c r="B66" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="754"/>
+      <c r="C66" s="814"/>
       <c r="D66" s="96"/>
       <c r="E66" s="97"/>
       <c r="F66" s="51">
@@ -9797,7 +9860,7 @@
       <c r="G66" s="419">
         <v>44214</v>
       </c>
-      <c r="H66" s="756"/>
+      <c r="H66" s="815"/>
       <c r="I66" s="51">
         <v>265.60000000000002</v>
       </c>
@@ -9814,8 +9877,8 @@
         <f t="shared" si="4"/>
         <v>19256</v>
       </c>
-      <c r="O66" s="758"/>
-      <c r="P66" s="760"/>
+      <c r="O66" s="810"/>
+      <c r="P66" s="754"/>
       <c r="Q66" s="94"/>
       <c r="R66" s="40"/>
       <c r="S66" s="41"/>
@@ -9824,13 +9887,13 @@
       <c r="V66" s="44"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="807" t="s">
+      <c r="A67" s="767" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="765" t="s">
+      <c r="C67" s="769" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="96"/>
@@ -9838,10 +9901,10 @@
       <c r="F67" s="418">
         <v>327.7</v>
       </c>
-      <c r="G67" s="810">
+      <c r="G67" s="771">
         <v>44216</v>
       </c>
-      <c r="H67" s="812">
+      <c r="H67" s="773">
         <v>228</v>
       </c>
       <c r="I67" s="51">
@@ -9860,10 +9923,10 @@
         <f t="shared" si="4"/>
         <v>24413.649999999998</v>
       </c>
-      <c r="O67" s="757" t="s">
+      <c r="O67" s="809" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="759">
+      <c r="P67" s="753">
         <v>5</v>
       </c>
       <c r="Q67" s="94"/>
@@ -9874,18 +9937,18 @@
       <c r="V67" s="44"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="808"/>
+      <c r="A68" s="768"/>
       <c r="B68" s="396" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="809"/>
+      <c r="C68" s="770"/>
       <c r="D68" s="96"/>
       <c r="E68" s="97"/>
       <c r="F68" s="418">
         <v>308.2</v>
       </c>
-      <c r="G68" s="811"/>
-      <c r="H68" s="813"/>
+      <c r="G68" s="772"/>
+      <c r="H68" s="774"/>
       <c r="I68" s="51">
         <v>308.2</v>
       </c>
@@ -9902,8 +9965,8 @@
         <f t="shared" si="4"/>
         <v>24656</v>
       </c>
-      <c r="O68" s="758"/>
-      <c r="P68" s="760"/>
+      <c r="O68" s="810"/>
+      <c r="P68" s="754"/>
       <c r="Q68" s="94"/>
       <c r="R68" s="40"/>
       <c r="S68" s="41"/>
@@ -10332,13 +10395,13 @@
       <c r="V77" s="44"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="805" t="s">
+      <c r="A78" s="765" t="s">
         <v>171</v>
       </c>
       <c r="B78" s="441" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="799" t="s">
+      <c r="C78" s="759" t="s">
         <v>180</v>
       </c>
       <c r="D78" s="438"/>
@@ -10349,7 +10412,7 @@
       <c r="G78" s="49">
         <v>44221</v>
       </c>
-      <c r="H78" s="801">
+      <c r="H78" s="761">
         <v>31601</v>
       </c>
       <c r="I78" s="51">
@@ -10368,10 +10431,10 @@
         <f t="shared" si="4"/>
         <v>8804.4000000000015</v>
       </c>
-      <c r="O78" s="757" t="s">
+      <c r="O78" s="809" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="795">
+      <c r="P78" s="755">
         <v>44260</v>
       </c>
       <c r="Q78" s="39"/>
@@ -10382,11 +10445,11 @@
       <c r="V78" s="44"/>
     </row>
     <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="806"/>
+      <c r="A79" s="766"/>
       <c r="B79" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="800"/>
+      <c r="C79" s="760"/>
       <c r="D79" s="438"/>
       <c r="E79" s="97"/>
       <c r="F79" s="51">
@@ -10395,7 +10458,7 @@
       <c r="G79" s="49">
         <v>44221</v>
       </c>
-      <c r="H79" s="802"/>
+      <c r="H79" s="762"/>
       <c r="I79" s="51">
         <v>441</v>
       </c>
@@ -10412,8 +10475,8 @@
         <f t="shared" si="4"/>
         <v>21609</v>
       </c>
-      <c r="O79" s="758"/>
-      <c r="P79" s="796"/>
+      <c r="O79" s="810"/>
+      <c r="P79" s="756"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="40"/>
       <c r="S79" s="41"/>
@@ -10422,13 +10485,13 @@
       <c r="V79" s="44"/>
     </row>
     <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="797" t="s">
+      <c r="A80" s="757" t="s">
         <v>171</v>
       </c>
       <c r="B80" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="799" t="s">
+      <c r="C80" s="759" t="s">
         <v>182</v>
       </c>
       <c r="D80" s="438"/>
@@ -10439,7 +10502,7 @@
       <c r="G80" s="49">
         <v>44226</v>
       </c>
-      <c r="H80" s="801">
+      <c r="H80" s="761">
         <v>31677</v>
       </c>
       <c r="I80" s="51">
@@ -10458,10 +10521,10 @@
         <f t="shared" si="4"/>
         <v>5047</v>
       </c>
-      <c r="O80" s="803" t="s">
+      <c r="O80" s="763" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="759">
+      <c r="P80" s="753">
         <v>44260</v>
       </c>
       <c r="Q80" s="39"/>
@@ -10472,11 +10535,11 @@
       <c r="V80" s="44"/>
     </row>
     <row r="81" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="798"/>
+      <c r="A81" s="758"/>
       <c r="B81" s="442" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="800"/>
+      <c r="C81" s="760"/>
       <c r="D81" s="438"/>
       <c r="E81" s="97"/>
       <c r="F81" s="51">
@@ -10486,7 +10549,7 @@
       <c r="G81" s="49">
         <v>44226</v>
       </c>
-      <c r="H81" s="802"/>
+      <c r="H81" s="762"/>
       <c r="I81" s="51">
         <f>23.2+20+94.2</f>
         <v>137.4</v>
@@ -10504,8 +10567,8 @@
         <f t="shared" si="4"/>
         <v>7969.2000000000007</v>
       </c>
-      <c r="O81" s="804"/>
-      <c r="P81" s="760"/>
+      <c r="O81" s="764"/>
+      <c r="P81" s="754"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="40"/>
       <c r="S81" s="41"/>
@@ -15130,11 +15193,11 @@
     <row r="236" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A236" s="206"/>
       <c r="B236" s="207"/>
-      <c r="F236" s="761" t="s">
+      <c r="F236" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="761"/>
-      <c r="H236" s="762"/>
+      <c r="G236" s="800"/>
+      <c r="H236" s="801"/>
       <c r="I236" s="216">
         <f>SUM(I6:I235)</f>
         <v>434282.17000000004</v>
@@ -15696,6 +15759,31 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="F236:H236"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="A63:A64"/>
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="A80:A81"/>
@@ -15710,31 +15798,6 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="H67:H68"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="F236:H236"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15782,18 +15845,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -15815,22 +15878,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -17929,13 +17992,13 @@
       <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:24" s="327" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="830" t="s">
+      <c r="A38" s="824" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="828" t="s">
+      <c r="C38" s="822" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="329"/>
@@ -17946,7 +18009,7 @@
       <c r="G38" s="321">
         <v>44228</v>
       </c>
-      <c r="H38" s="832">
+      <c r="H38" s="826">
         <v>245</v>
       </c>
       <c r="I38" s="275">
@@ -17965,10 +18028,10 @@
         <f t="shared" si="1"/>
         <v>98459.199999999997</v>
       </c>
-      <c r="O38" s="789" t="s">
+      <c r="O38" s="794" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="791">
+      <c r="P38" s="796">
         <v>44251</v>
       </c>
       <c r="Q38" s="94"/>
@@ -17981,11 +18044,11 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="831"/>
+      <c r="A39" s="825"/>
       <c r="B39" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="829"/>
+      <c r="C39" s="823"/>
       <c r="D39" s="330"/>
       <c r="E39" s="47"/>
       <c r="F39" s="51">
@@ -17994,7 +18057,7 @@
       <c r="G39" s="87">
         <v>44228</v>
       </c>
-      <c r="H39" s="833"/>
+      <c r="H39" s="827"/>
       <c r="I39" s="48">
         <v>69.599999999999994</v>
       </c>
@@ -18011,8 +18074,8 @@
         <f t="shared" si="1"/>
         <v>4941.5999999999995</v>
       </c>
-      <c r="O39" s="790"/>
-      <c r="P39" s="792"/>
+      <c r="O39" s="795"/>
+      <c r="P39" s="797"/>
       <c r="Q39" s="94"/>
       <c r="R39" s="40"/>
       <c r="S39" s="67"/>
@@ -18217,13 +18280,13 @@
       <c r="V43" s="44"/>
     </row>
     <row r="44" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="822" t="s">
+      <c r="A44" s="816" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="818" t="s">
+      <c r="C44" s="832" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="69"/>
@@ -18231,10 +18294,10 @@
       <c r="F44" s="51">
         <v>961.2</v>
       </c>
-      <c r="G44" s="824">
+      <c r="G44" s="818">
         <v>44242</v>
       </c>
-      <c r="H44" s="820">
+      <c r="H44" s="834">
         <v>291</v>
       </c>
       <c r="I44" s="48">
@@ -18253,10 +18316,10 @@
         <f t="shared" si="1"/>
         <v>71609.400000000009</v>
       </c>
-      <c r="O44" s="826" t="s">
+      <c r="O44" s="820" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="816">
+      <c r="P44" s="830">
         <v>44277</v>
       </c>
       <c r="Q44" s="94"/>
@@ -18267,18 +18330,18 @@
       <c r="V44" s="44"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="823"/>
+      <c r="A45" s="817"/>
       <c r="B45" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="819"/>
+      <c r="C45" s="833"/>
       <c r="D45" s="293"/>
       <c r="E45" s="93"/>
       <c r="F45" s="51">
         <v>199.4</v>
       </c>
-      <c r="G45" s="825"/>
-      <c r="H45" s="821"/>
+      <c r="G45" s="819"/>
+      <c r="H45" s="835"/>
       <c r="I45" s="48">
         <v>199.4</v>
       </c>
@@ -18295,8 +18358,8 @@
         <f t="shared" si="1"/>
         <v>15952</v>
       </c>
-      <c r="O45" s="827"/>
-      <c r="P45" s="817"/>
+      <c r="O45" s="821"/>
+      <c r="P45" s="831"/>
       <c r="Q45" s="94"/>
       <c r="R45" s="40"/>
       <c r="S45" s="41"/>
@@ -18507,7 +18570,7 @@
     <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="389"/>
       <c r="B50" s="86"/>
-      <c r="C50" s="765"/>
+      <c r="C50" s="769"/>
       <c r="D50" s="91"/>
       <c r="E50" s="93"/>
       <c r="F50" s="51"/>
@@ -18525,8 +18588,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="768"/>
-      <c r="P50" s="770"/>
+      <c r="O50" s="807"/>
+      <c r="P50" s="775"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="40"/>
       <c r="S50" s="41"/>
@@ -18537,7 +18600,7 @@
     <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="390"/>
       <c r="B51" s="86"/>
-      <c r="C51" s="809"/>
+      <c r="C51" s="770"/>
       <c r="D51" s="91"/>
       <c r="E51" s="93"/>
       <c r="F51" s="51"/>
@@ -18555,8 +18618,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="814"/>
-      <c r="P51" s="815"/>
+      <c r="O51" s="828"/>
+      <c r="P51" s="829"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="40"/>
       <c r="S51" s="41"/>
@@ -19138,11 +19201,11 @@
     <row r="67" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="206"/>
       <c r="B67" s="207"/>
-      <c r="F67" s="761" t="s">
+      <c r="F67" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="761"/>
-      <c r="H67" s="762"/>
+      <c r="G67" s="800"/>
+      <c r="H67" s="801"/>
       <c r="I67" s="216">
         <f>SUM(I4:I66)</f>
         <v>496746.44999999995</v>
@@ -19721,6 +19784,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="H44:H45"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="O44:O45"/>
@@ -19731,13 +19801,6 @@
     <mergeCell ref="P38:P39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="H38:H39"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="H44:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19783,18 +19846,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -19816,22 +19879,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -22978,13 +23041,13 @@
       <c r="V54" s="44"/>
     </row>
     <row r="55" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="787" t="s">
+      <c r="A55" s="792" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="828" t="s">
+      <c r="C55" s="822" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="330"/>
@@ -22996,7 +23059,7 @@
       <c r="G55" s="87">
         <v>44270</v>
       </c>
-      <c r="H55" s="777">
+      <c r="H55" s="782">
         <v>324</v>
       </c>
       <c r="I55" s="524">
@@ -23015,10 +23078,10 @@
         <f t="shared" si="1"/>
         <v>37058.699999999997</v>
       </c>
-      <c r="O55" s="840" t="s">
+      <c r="O55" s="842" t="s">
         <v>224</v>
       </c>
-      <c r="P55" s="842">
+      <c r="P55" s="844">
         <v>44300</v>
       </c>
       <c r="Q55" s="94"/>
@@ -23029,11 +23092,11 @@
       <c r="V55" s="44"/>
     </row>
     <row r="56" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="788"/>
+      <c r="A56" s="793"/>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="829"/>
+      <c r="C56" s="823"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="519">
@@ -23042,7 +23105,7 @@
       <c r="G56" s="87">
         <v>44270</v>
       </c>
-      <c r="H56" s="778"/>
+      <c r="H56" s="783"/>
       <c r="I56" s="524">
         <v>936.4</v>
       </c>
@@ -23059,8 +23122,8 @@
         <f t="shared" si="1"/>
         <v>70698.2</v>
       </c>
-      <c r="O56" s="841"/>
-      <c r="P56" s="843"/>
+      <c r="O56" s="843"/>
+      <c r="P56" s="845"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -23169,7 +23232,7 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="836" t="s">
+      <c r="A59" s="838" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -23186,7 +23249,7 @@
       <c r="G59" s="49">
         <v>44257</v>
       </c>
-      <c r="H59" s="838">
+      <c r="H59" s="840">
         <v>48</v>
       </c>
       <c r="I59" s="519">
@@ -23205,10 +23268,10 @@
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="O59" s="768" t="s">
+      <c r="O59" s="807" t="s">
         <v>206</v>
       </c>
-      <c r="P59" s="770">
+      <c r="P59" s="775">
         <v>44272</v>
       </c>
       <c r="Q59" s="94"/>
@@ -23219,7 +23282,7 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="837"/>
+      <c r="A60" s="839"/>
       <c r="B60" s="61" t="s">
         <v>205</v>
       </c>
@@ -23234,7 +23297,7 @@
       <c r="G60" s="49">
         <v>44261</v>
       </c>
-      <c r="H60" s="839"/>
+      <c r="H60" s="841"/>
       <c r="I60" s="519">
         <v>8994</v>
       </c>
@@ -23251,8 +23314,8 @@
         <f t="shared" si="1"/>
         <v>364257</v>
       </c>
-      <c r="O60" s="814"/>
-      <c r="P60" s="815"/>
+      <c r="O60" s="828"/>
+      <c r="P60" s="829"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -28127,11 +28190,11 @@
     <row r="222" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A222" s="206"/>
       <c r="B222" s="207"/>
-      <c r="F222" s="834" t="s">
+      <c r="F222" s="836" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="834"/>
-      <c r="H222" s="835"/>
+      <c r="G222" s="836"/>
+      <c r="H222" s="837"/>
       <c r="I222" s="536">
         <f>SUM(I4:I221)</f>
         <v>579418.55000000005</v>
@@ -28750,18 +28813,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -28777,22 +28840,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -29527,10 +29590,10 @@
       <c r="K13" s="477">
         <v>50</v>
       </c>
-      <c r="L13" s="844" t="s">
+      <c r="L13" s="846" t="s">
         <v>347</v>
       </c>
-      <c r="M13" s="845"/>
+      <c r="M13" s="847"/>
       <c r="N13" s="38">
         <f t="shared" si="1"/>
         <v>1187490</v>
@@ -36693,11 +36756,11 @@
     <row r="226" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A226" s="206"/>
       <c r="B226" s="207"/>
-      <c r="F226" s="761" t="s">
+      <c r="F226" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G226" s="761"/>
-      <c r="H226" s="762"/>
+      <c r="G226" s="800"/>
+      <c r="H226" s="801"/>
       <c r="I226" s="216">
         <f>SUM(I4:I225)</f>
         <v>405885.8</v>
@@ -37308,18 +37371,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -37335,22 +37398,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -40190,10 +40253,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="846" t="s">
+      <c r="O59" s="848" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="848">
+      <c r="P59" s="860">
         <v>44361</v>
       </c>
       <c r="Q59" s="94"/>
@@ -40240,8 +40303,8 @@
         <f t="shared" si="1"/>
         <v>132498</v>
       </c>
-      <c r="O60" s="847"/>
-      <c r="P60" s="849"/>
+      <c r="O60" s="850"/>
+      <c r="P60" s="861"/>
       <c r="Q60" s="94"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -40250,13 +40313,13 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="859" t="s">
+      <c r="A61" s="871" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="781" t="s">
+      <c r="C61" s="786" t="s">
         <v>456</v>
       </c>
       <c r="D61" s="293"/>
@@ -40267,7 +40330,7 @@
       <c r="G61" s="49">
         <v>44347</v>
       </c>
-      <c r="H61" s="860">
+      <c r="H61" s="872">
         <v>426</v>
       </c>
       <c r="I61" s="51">
@@ -40286,10 +40349,10 @@
         <f t="shared" si="1"/>
         <v>78121.8</v>
       </c>
-      <c r="O61" s="861" t="s">
+      <c r="O61" s="873" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="862">
+      <c r="P61" s="874">
         <v>44365</v>
       </c>
       <c r="Q61" s="94"/>
@@ -40300,11 +40363,11 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="837"/>
+      <c r="A62" s="839"/>
       <c r="B62" s="328" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="782"/>
+      <c r="C62" s="787"/>
       <c r="D62" s="293"/>
       <c r="E62" s="93"/>
       <c r="F62" s="51">
@@ -40313,7 +40376,7 @@
       <c r="G62" s="49">
         <v>44347</v>
       </c>
-      <c r="H62" s="756"/>
+      <c r="H62" s="815"/>
       <c r="I62" s="51">
         <v>97.9</v>
       </c>
@@ -40330,8 +40393,8 @@
         <f t="shared" si="1"/>
         <v>8419.4</v>
       </c>
-      <c r="O62" s="758"/>
-      <c r="P62" s="760"/>
+      <c r="O62" s="810"/>
+      <c r="P62" s="754"/>
       <c r="Q62" s="94"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
@@ -40342,7 +40405,7 @@
     <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="389"/>
       <c r="B63" s="86"/>
-      <c r="C63" s="766"/>
+      <c r="C63" s="804"/>
       <c r="D63" s="91"/>
       <c r="E63" s="93"/>
       <c r="F63" s="51"/>
@@ -40360,8 +40423,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="768"/>
-      <c r="P63" s="770"/>
+      <c r="O63" s="807"/>
+      <c r="P63" s="775"/>
       <c r="Q63" s="94"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
@@ -40372,7 +40435,7 @@
     <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="390"/>
       <c r="B64" s="86"/>
-      <c r="C64" s="809"/>
+      <c r="C64" s="770"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51"/>
@@ -40390,8 +40453,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="814"/>
-      <c r="P64" s="815"/>
+      <c r="O64" s="828"/>
+      <c r="P64" s="829"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -40490,13 +40553,13 @@
       <c r="V67" s="326"/>
     </row>
     <row r="68" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="850" t="s">
+      <c r="A68" s="862" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="599" t="s">
         <v>401</v>
       </c>
-      <c r="C68" s="853" t="s">
+      <c r="C68" s="865" t="s">
         <v>402</v>
       </c>
       <c r="D68" s="600"/>
@@ -40508,7 +40571,7 @@
       <c r="G68" s="321">
         <v>44319</v>
       </c>
-      <c r="H68" s="777">
+      <c r="H68" s="782">
         <v>32862</v>
       </c>
       <c r="I68" s="275">
@@ -40527,10 +40590,10 @@
         <f t="shared" si="1"/>
         <v>24507</v>
       </c>
-      <c r="O68" s="789" t="s">
+      <c r="O68" s="794" t="s">
         <v>224</v>
       </c>
-      <c r="P68" s="791">
+      <c r="P68" s="796">
         <v>44347</v>
       </c>
       <c r="Q68" s="94"/>
@@ -40541,11 +40604,11 @@
       <c r="V68" s="326"/>
     </row>
     <row r="69" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="851"/>
+      <c r="A69" s="863"/>
       <c r="B69" s="599" t="s">
         <v>399</v>
       </c>
-      <c r="C69" s="854"/>
+      <c r="C69" s="866"/>
       <c r="D69" s="600"/>
       <c r="E69" s="97"/>
       <c r="F69" s="320">
@@ -40555,7 +40618,7 @@
       <c r="G69" s="321">
         <v>44319</v>
       </c>
-      <c r="H69" s="856"/>
+      <c r="H69" s="868"/>
       <c r="I69" s="275">
         <v>210.3</v>
       </c>
@@ -40572,8 +40635,8 @@
         <f t="shared" si="1"/>
         <v>7360.5</v>
       </c>
-      <c r="O69" s="857"/>
-      <c r="P69" s="858"/>
+      <c r="O69" s="869"/>
+      <c r="P69" s="870"/>
       <c r="Q69" s="94"/>
       <c r="R69" s="324"/>
       <c r="S69" s="41"/>
@@ -40582,11 +40645,11 @@
       <c r="V69" s="326"/>
     </row>
     <row r="70" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="852"/>
+      <c r="A70" s="864"/>
       <c r="B70" s="599" t="s">
         <v>403</v>
       </c>
-      <c r="C70" s="855"/>
+      <c r="C70" s="867"/>
       <c r="D70" s="600"/>
       <c r="E70" s="97"/>
       <c r="F70" s="320">
@@ -40595,7 +40658,7 @@
       <c r="G70" s="321">
         <v>44319</v>
       </c>
-      <c r="H70" s="778"/>
+      <c r="H70" s="783"/>
       <c r="I70" s="275">
         <v>23.4</v>
       </c>
@@ -40612,8 +40675,8 @@
         <f t="shared" si="1"/>
         <v>912.59999999999991</v>
       </c>
-      <c r="O70" s="790"/>
-      <c r="P70" s="792"/>
+      <c r="O70" s="795"/>
+      <c r="P70" s="797"/>
       <c r="Q70" s="94"/>
       <c r="R70" s="324"/>
       <c r="S70" s="41"/>
@@ -41173,13 +41236,13 @@
       <c r="V81" s="44"/>
     </row>
     <row r="82" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="867" t="s">
+      <c r="A82" s="854" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="659" t="s">
         <v>478</v>
       </c>
-      <c r="C82" s="799" t="s">
+      <c r="C82" s="759" t="s">
         <v>479</v>
       </c>
       <c r="D82" s="438"/>
@@ -41187,10 +41250,10 @@
       <c r="F82" s="418">
         <v>2525.1999999999998</v>
       </c>
-      <c r="G82" s="810">
+      <c r="G82" s="771">
         <v>44341</v>
       </c>
-      <c r="H82" s="820" t="s">
+      <c r="H82" s="834" t="s">
         <v>480</v>
       </c>
       <c r="I82" s="48">
@@ -41209,10 +41272,10 @@
         <f t="shared" si="1"/>
         <v>202016</v>
       </c>
-      <c r="O82" s="846" t="s">
+      <c r="O82" s="848" t="s">
         <v>206</v>
       </c>
-      <c r="P82" s="864">
+      <c r="P82" s="851">
         <v>44375</v>
       </c>
       <c r="Q82" s="94"/>
@@ -41223,18 +41286,18 @@
       <c r="V82" s="44"/>
     </row>
     <row r="83" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="868"/>
+      <c r="A83" s="855"/>
       <c r="B83" s="659" t="s">
         <v>438</v>
       </c>
-      <c r="C83" s="870"/>
+      <c r="C83" s="857"/>
       <c r="D83" s="438"/>
       <c r="E83" s="97"/>
       <c r="F83" s="418">
         <v>4048</v>
       </c>
-      <c r="G83" s="872"/>
-      <c r="H83" s="871"/>
+      <c r="G83" s="859"/>
+      <c r="H83" s="858"/>
       <c r="I83" s="48">
         <v>4048</v>
       </c>
@@ -41251,8 +41314,8 @@
         <f t="shared" si="1"/>
         <v>242880</v>
       </c>
-      <c r="O83" s="863"/>
-      <c r="P83" s="865"/>
+      <c r="O83" s="849"/>
+      <c r="P83" s="852"/>
       <c r="Q83" s="94"/>
       <c r="R83" s="40"/>
       <c r="S83" s="41"/>
@@ -41261,18 +41324,18 @@
       <c r="V83" s="44"/>
     </row>
     <row r="84" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="868"/>
+      <c r="A84" s="855"/>
       <c r="B84" s="659" t="s">
         <v>481</v>
       </c>
-      <c r="C84" s="870"/>
+      <c r="C84" s="857"/>
       <c r="D84" s="438"/>
       <c r="E84" s="97"/>
       <c r="F84" s="418">
         <v>2185.8000000000002</v>
       </c>
-      <c r="G84" s="872"/>
-      <c r="H84" s="871"/>
+      <c r="G84" s="859"/>
+      <c r="H84" s="858"/>
       <c r="I84" s="48">
         <v>2185.8000000000002</v>
       </c>
@@ -41289,8 +41352,8 @@
         <f t="shared" si="1"/>
         <v>198907.80000000002</v>
       </c>
-      <c r="O84" s="863"/>
-      <c r="P84" s="865"/>
+      <c r="O84" s="849"/>
+      <c r="P84" s="852"/>
       <c r="Q84" s="94"/>
       <c r="R84" s="40"/>
       <c r="S84" s="41"/>
@@ -41299,18 +41362,18 @@
       <c r="V84" s="44"/>
     </row>
     <row r="85" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="868"/>
+      <c r="A85" s="855"/>
       <c r="B85" s="659" t="s">
         <v>482</v>
       </c>
-      <c r="C85" s="870"/>
+      <c r="C85" s="857"/>
       <c r="D85" s="438"/>
       <c r="E85" s="97"/>
       <c r="F85" s="418">
         <v>413</v>
       </c>
-      <c r="G85" s="872"/>
-      <c r="H85" s="871"/>
+      <c r="G85" s="859"/>
+      <c r="H85" s="858"/>
       <c r="I85" s="48">
         <v>413</v>
       </c>
@@ -41327,8 +41390,8 @@
         <f t="shared" si="1"/>
         <v>25193</v>
       </c>
-      <c r="O85" s="863"/>
-      <c r="P85" s="865"/>
+      <c r="O85" s="849"/>
+      <c r="P85" s="852"/>
       <c r="Q85" s="94"/>
       <c r="R85" s="40"/>
       <c r="S85" s="41"/>
@@ -41337,18 +41400,18 @@
       <c r="V85" s="44"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="868"/>
+      <c r="A86" s="855"/>
       <c r="B86" s="659" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="870"/>
+      <c r="C86" s="857"/>
       <c r="D86" s="438"/>
       <c r="E86" s="97"/>
       <c r="F86" s="418">
         <v>518</v>
       </c>
-      <c r="G86" s="872"/>
-      <c r="H86" s="871"/>
+      <c r="G86" s="859"/>
+      <c r="H86" s="858"/>
       <c r="I86" s="48">
         <v>518</v>
       </c>
@@ -41365,8 +41428,8 @@
         <f t="shared" si="1"/>
         <v>18648</v>
       </c>
-      <c r="O86" s="863"/>
-      <c r="P86" s="865"/>
+      <c r="O86" s="849"/>
+      <c r="P86" s="852"/>
       <c r="Q86" s="94"/>
       <c r="R86" s="40"/>
       <c r="S86" s="41"/>
@@ -41375,18 +41438,18 @@
       <c r="V86" s="44"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="868"/>
+      <c r="A87" s="855"/>
       <c r="B87" s="659" t="s">
         <v>483</v>
       </c>
-      <c r="C87" s="870"/>
+      <c r="C87" s="857"/>
       <c r="D87" s="438"/>
       <c r="E87" s="97"/>
       <c r="F87" s="418">
         <v>1848.4</v>
       </c>
-      <c r="G87" s="872"/>
-      <c r="H87" s="871"/>
+      <c r="G87" s="859"/>
+      <c r="H87" s="858"/>
       <c r="I87" s="48">
         <v>1848.4</v>
       </c>
@@ -41403,8 +41466,8 @@
         <f t="shared" si="1"/>
         <v>53603.600000000006</v>
       </c>
-      <c r="O87" s="863"/>
-      <c r="P87" s="865"/>
+      <c r="O87" s="849"/>
+      <c r="P87" s="852"/>
       <c r="Q87" s="94"/>
       <c r="R87" s="40"/>
       <c r="S87" s="41"/>
@@ -41413,18 +41476,18 @@
       <c r="V87" s="44"/>
     </row>
     <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="868"/>
+      <c r="A88" s="855"/>
       <c r="B88" s="659" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="870"/>
+      <c r="C88" s="857"/>
       <c r="D88" s="438"/>
       <c r="E88" s="97"/>
       <c r="F88" s="418">
         <v>744</v>
       </c>
-      <c r="G88" s="872"/>
-      <c r="H88" s="871"/>
+      <c r="G88" s="859"/>
+      <c r="H88" s="858"/>
       <c r="I88" s="48">
         <v>744</v>
       </c>
@@ -41441,8 +41504,8 @@
         <f t="shared" si="1"/>
         <v>28272</v>
       </c>
-      <c r="O88" s="863"/>
-      <c r="P88" s="865"/>
+      <c r="O88" s="849"/>
+      <c r="P88" s="852"/>
       <c r="Q88" s="94"/>
       <c r="R88" s="40"/>
       <c r="S88" s="41"/>
@@ -41451,18 +41514,18 @@
       <c r="V88" s="44"/>
     </row>
     <row r="89" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="869"/>
+      <c r="A89" s="856"/>
       <c r="B89" s="659" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="800"/>
+      <c r="C89" s="760"/>
       <c r="D89" s="438"/>
       <c r="E89" s="97"/>
       <c r="F89" s="418">
         <v>1469</v>
       </c>
-      <c r="G89" s="811"/>
-      <c r="H89" s="821"/>
+      <c r="G89" s="772"/>
+      <c r="H89" s="835"/>
       <c r="I89" s="48">
         <v>1469</v>
       </c>
@@ -41479,8 +41542,8 @@
         <f t="shared" si="1"/>
         <v>117520</v>
       </c>
-      <c r="O89" s="847"/>
-      <c r="P89" s="866"/>
+      <c r="O89" s="850"/>
+      <c r="P89" s="853"/>
       <c r="Q89" s="94"/>
       <c r="R89" s="40"/>
       <c r="S89" s="41"/>
@@ -46420,11 +46483,11 @@
     <row r="253" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A253" s="206"/>
       <c r="B253" s="207"/>
-      <c r="F253" s="761" t="s">
+      <c r="F253" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G253" s="761"/>
-      <c r="H253" s="762"/>
+      <c r="G253" s="800"/>
+      <c r="H253" s="801"/>
       <c r="I253" s="216">
         <f>SUM(I4:I252)</f>
         <v>442400.9</v>
@@ -46989,14 +47052,6 @@
     <sortCondition ref="G53:G56"/>
   </sortState>
   <mergeCells count="24">
-    <mergeCell ref="O82:O89"/>
-    <mergeCell ref="P82:P89"/>
-    <mergeCell ref="F253:H253"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="H82:H89"/>
-    <mergeCell ref="G82:G89"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="P59:P60"/>
@@ -47013,6 +47068,14 @@
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="P61:P62"/>
+    <mergeCell ref="O82:O89"/>
+    <mergeCell ref="P82:P89"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="H82:H89"/>
+    <mergeCell ref="G82:G89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47027,10 +47090,10 @@
   <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -47060,18 +47123,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -47087,22 +47150,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -49725,13 +49788,13 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="787" t="s">
+      <c r="A54" s="792" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="887" t="s">
+      <c r="C54" s="885" t="s">
         <v>521</v>
       </c>
       <c r="D54" s="608"/>
@@ -49742,7 +49805,7 @@
       <c r="G54" s="87">
         <v>44361</v>
       </c>
-      <c r="H54" s="892">
+      <c r="H54" s="890">
         <v>439</v>
       </c>
       <c r="I54" s="48">
@@ -49761,10 +49824,10 @@
         <f t="shared" si="1"/>
         <v>116188</v>
       </c>
-      <c r="O54" s="885" t="s">
+      <c r="O54" s="883" t="s">
         <v>224</v>
       </c>
-      <c r="P54" s="886">
+      <c r="P54" s="884">
         <v>44382</v>
       </c>
       <c r="Q54" s="508"/>
@@ -49775,11 +49838,11 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="788"/>
+      <c r="A55" s="793"/>
       <c r="B55" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C55" s="888"/>
+      <c r="C55" s="886"/>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
       <c r="F55" s="51">
@@ -49788,7 +49851,7 @@
       <c r="G55" s="87">
         <v>44361</v>
       </c>
-      <c r="H55" s="893"/>
+      <c r="H55" s="891"/>
       <c r="I55" s="48">
         <v>90</v>
       </c>
@@ -49805,8 +49868,8 @@
         <f t="shared" si="1"/>
         <v>7740</v>
       </c>
-      <c r="O55" s="885"/>
-      <c r="P55" s="886"/>
+      <c r="O55" s="883"/>
+      <c r="P55" s="884"/>
       <c r="Q55" s="508"/>
       <c r="R55" s="40"/>
       <c r="S55" s="67"/>
@@ -49815,13 +49878,13 @@
       <c r="V55" s="326"/>
     </row>
     <row r="56" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="889" t="s">
+      <c r="A56" s="887" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="891" t="s">
+      <c r="C56" s="889" t="s">
         <v>524</v>
       </c>
       <c r="D56" s="608"/>
@@ -49832,7 +49895,7 @@
       <c r="G56" s="87">
         <v>44368</v>
       </c>
-      <c r="H56" s="820">
+      <c r="H56" s="834">
         <v>457</v>
       </c>
       <c r="I56" s="48">
@@ -49851,10 +49914,10 @@
         <f t="shared" si="1"/>
         <v>102145</v>
       </c>
-      <c r="O56" s="757" t="s">
+      <c r="O56" s="809" t="s">
         <v>224</v>
       </c>
-      <c r="P56" s="873">
+      <c r="P56" s="892">
         <v>44393</v>
       </c>
       <c r="Q56" s="508"/>
@@ -49865,11 +49928,11 @@
       <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="890"/>
+      <c r="A57" s="888"/>
       <c r="B57" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="891"/>
+      <c r="C57" s="889"/>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
       <c r="F57" s="51">
@@ -49878,7 +49941,7 @@
       <c r="G57" s="87">
         <v>44368</v>
       </c>
-      <c r="H57" s="821"/>
+      <c r="H57" s="835"/>
       <c r="I57" s="48">
         <v>112.8023</v>
       </c>
@@ -49895,8 +49958,8 @@
         <f t="shared" si="1"/>
         <v>9700.997800000001</v>
       </c>
-      <c r="O57" s="758"/>
-      <c r="P57" s="874"/>
+      <c r="O57" s="810"/>
+      <c r="P57" s="893"/>
       <c r="Q57" s="508"/>
       <c r="R57" s="40"/>
       <c r="S57" s="67"/>
@@ -49905,13 +49968,13 @@
       <c r="V57" s="44"/>
     </row>
     <row r="58" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="822" t="s">
+      <c r="A58" s="816" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="753" t="s">
+      <c r="C58" s="813" t="s">
         <v>525</v>
       </c>
       <c r="D58" s="608"/>
@@ -49919,10 +49982,10 @@
       <c r="F58" s="51">
         <v>1272.8</v>
       </c>
-      <c r="G58" s="877">
+      <c r="G58" s="894">
         <v>44375</v>
       </c>
-      <c r="H58" s="875">
+      <c r="H58" s="879">
         <v>469</v>
       </c>
       <c r="I58" s="48">
@@ -49941,10 +50004,10 @@
         <f t="shared" si="1"/>
         <v>98642</v>
       </c>
-      <c r="O58" s="757" t="s">
+      <c r="O58" s="809" t="s">
         <v>224</v>
       </c>
-      <c r="P58" s="873">
+      <c r="P58" s="892">
         <v>44393</v>
       </c>
       <c r="Q58" s="508"/>
@@ -49955,18 +50018,18 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="823"/>
+      <c r="A59" s="817"/>
       <c r="B59" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="C59" s="754"/>
+      <c r="C59" s="814"/>
       <c r="D59" s="610"/>
       <c r="E59" s="609"/>
       <c r="F59" s="51">
         <v>91.4</v>
       </c>
-      <c r="G59" s="878"/>
-      <c r="H59" s="876"/>
+      <c r="G59" s="895"/>
+      <c r="H59" s="880"/>
       <c r="I59" s="48">
         <v>91.4</v>
       </c>
@@ -49983,8 +50046,8 @@
         <f t="shared" si="1"/>
         <v>7860.4000000000005</v>
       </c>
-      <c r="O59" s="758"/>
-      <c r="P59" s="874"/>
+      <c r="O59" s="810"/>
+      <c r="P59" s="893"/>
       <c r="Q59" s="508"/>
       <c r="R59" s="40"/>
       <c r="S59" s="41"/>
@@ -50399,13 +50462,13 @@
       <c r="V71" s="326"/>
     </row>
     <row r="72" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="881" t="s">
+      <c r="A72" s="877" t="s">
         <v>451</v>
       </c>
       <c r="B72" s="659" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="879" t="s">
+      <c r="C72" s="875" t="s">
         <v>453</v>
       </c>
       <c r="D72" s="660"/>
@@ -50416,7 +50479,7 @@
       <c r="G72" s="87">
         <v>44361</v>
       </c>
-      <c r="H72" s="875" t="s">
+      <c r="H72" s="879" t="s">
         <v>455</v>
       </c>
       <c r="I72" s="48">
@@ -50429,10 +50492,10 @@
       <c r="K72" s="56">
         <v>55</v>
       </c>
-      <c r="L72" s="883" t="s">
+      <c r="L72" s="881" t="s">
         <v>460</v>
       </c>
-      <c r="M72" s="884"/>
+      <c r="M72" s="882"/>
       <c r="N72" s="57">
         <f t="shared" si="1"/>
         <v>11111.1</v>
@@ -50451,11 +50514,11 @@
       <c r="V72" s="326"/>
     </row>
     <row r="73" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="882"/>
+      <c r="A73" s="878"/>
       <c r="B73" s="659" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="880"/>
+      <c r="C73" s="876"/>
       <c r="D73" s="660"/>
       <c r="E73" s="613"/>
       <c r="F73" s="51">
@@ -50464,7 +50527,7 @@
       <c r="G73" s="87">
         <v>44361</v>
       </c>
-      <c r="H73" s="876"/>
+      <c r="H73" s="880"/>
       <c r="I73" s="48">
         <v>72.849999999999994</v>
       </c>
@@ -50475,8 +50538,8 @@
       <c r="K73" s="56">
         <v>100</v>
       </c>
-      <c r="L73" s="883"/>
-      <c r="M73" s="884"/>
+      <c r="L73" s="881"/>
+      <c r="M73" s="882"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>7284.9999999999991</v>
@@ -55616,11 +55679,11 @@
     <row r="243" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A243" s="206"/>
       <c r="B243" s="207"/>
-      <c r="F243" s="761" t="s">
+      <c r="F243" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="761"/>
-      <c r="H243" s="762"/>
+      <c r="G243" s="800"/>
+      <c r="H243" s="801"/>
       <c r="I243" s="216">
         <f>SUM(I4:I242)</f>
         <v>406525.67229999998</v>
@@ -56188,6 +56251,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
@@ -56204,13 +56274,6 @@
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56223,11 +56286,11 @@
   </sheetPr>
   <dimension ref="A1:X277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="S19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56256,18 +56319,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -56283,22 +56346,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -57236,8 +57299,12 @@
       </c>
       <c r="S15" s="483"/>
       <c r="T15" s="42"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
+      <c r="U15" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V15" s="752">
+        <v>6032</v>
+      </c>
       <c r="W15" s="43" t="s">
         <v>603</v>
       </c>
@@ -57305,8 +57372,12 @@
       </c>
       <c r="S16" s="483"/>
       <c r="T16" s="42"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="44"/>
+      <c r="U16" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V16" s="752">
+        <v>0</v>
+      </c>
       <c r="W16" s="43" t="s">
         <v>603</v>
       </c>
@@ -57374,8 +57445,12 @@
       </c>
       <c r="S17" s="483"/>
       <c r="T17" s="42"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
+      <c r="U17" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V17" s="752">
+        <v>6032</v>
+      </c>
       <c r="W17" s="43" t="s">
         <v>603</v>
       </c>
@@ -57443,8 +57518,12 @@
       </c>
       <c r="S18" s="483"/>
       <c r="T18" s="42"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
+      <c r="U18" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V18" s="752">
+        <v>6032</v>
+      </c>
       <c r="W18" s="43" t="s">
         <v>603</v>
       </c>
@@ -57512,8 +57591,12 @@
       </c>
       <c r="S19" s="483"/>
       <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="44"/>
+      <c r="U19" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V19" s="752">
+        <v>6032</v>
+      </c>
       <c r="W19" s="43" t="s">
         <v>603</v>
       </c>
@@ -57582,8 +57665,12 @@
       </c>
       <c r="S20" s="483"/>
       <c r="T20" s="42"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="44"/>
+      <c r="U20" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V20" s="752">
+        <v>6032</v>
+      </c>
       <c r="W20" s="43" t="s">
         <v>603</v>
       </c>
@@ -57651,8 +57738,12 @@
       </c>
       <c r="S21" s="483"/>
       <c r="T21" s="42"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
+      <c r="U21" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V21" s="752">
+        <v>6032</v>
+      </c>
       <c r="W21" s="43" t="s">
         <v>603</v>
       </c>
@@ -57720,8 +57811,12 @@
       </c>
       <c r="S22" s="483"/>
       <c r="T22" s="42"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="44"/>
+      <c r="U22" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V22" s="752">
+        <v>0</v>
+      </c>
       <c r="W22" s="43" t="s">
         <v>603</v>
       </c>
@@ -57789,8 +57884,12 @@
       </c>
       <c r="S23" s="484"/>
       <c r="T23" s="65"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="44"/>
+      <c r="U23" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V23" s="752">
+        <v>6032</v>
+      </c>
       <c r="W23" s="43" t="s">
         <v>603</v>
       </c>
@@ -57854,8 +57953,12 @@
       </c>
       <c r="S24" s="483"/>
       <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="44"/>
+      <c r="U24" s="751" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="752">
+        <v>0</v>
+      </c>
       <c r="W24" s="43" t="s">
         <v>59</v>
       </c>
@@ -57887,7 +57990,7 @@
         <v>44407</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I25" s="51">
         <v>22955</v>
@@ -57923,8 +58026,12 @@
       </c>
       <c r="S25" s="483"/>
       <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="44"/>
+      <c r="U25" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V25" s="752">
+        <v>6032</v>
+      </c>
       <c r="W25" s="43" t="s">
         <v>603</v>
       </c>
@@ -57992,8 +58099,12 @@
       </c>
       <c r="S26" s="485"/>
       <c r="T26" s="67"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="44"/>
+      <c r="U26" s="751" t="s">
+        <v>660</v>
+      </c>
+      <c r="V26" s="752">
+        <v>0</v>
+      </c>
       <c r="W26" s="43" t="s">
         <v>603</v>
       </c>
@@ -58001,7 +58112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="281"/>
       <c r="B27" s="273"/>
       <c r="C27" s="274"/>
@@ -58010,9 +58121,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="275"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="50"/>
+      <c r="F27" s="910"/>
+      <c r="G27" s="911">
+        <v>29.7</v>
+      </c>
+      <c r="H27" s="912" t="s">
+        <v>663</v>
+      </c>
       <c r="I27" s="51"/>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
@@ -58031,8 +58146,12 @@
       <c r="R27" s="646"/>
       <c r="S27" s="485"/>
       <c r="T27" s="67"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="44"/>
+      <c r="U27" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="V27" s="913">
+        <v>6032</v>
+      </c>
       <c r="W27" s="43"/>
       <c r="X27" s="361">
         <v>0</v>
@@ -58889,13 +59008,13 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="902" t="s">
+      <c r="A53" s="904" t="s">
         <v>440</v>
       </c>
       <c r="B53" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="828" t="s">
+      <c r="C53" s="822" t="s">
         <v>558</v>
       </c>
       <c r="D53" s="716"/>
@@ -58906,7 +59025,7 @@
       <c r="G53" s="321">
         <v>44382</v>
       </c>
-      <c r="H53" s="832">
+      <c r="H53" s="826">
         <v>479</v>
       </c>
       <c r="I53" s="275">
@@ -58925,7 +59044,7 @@
         <f t="shared" si="1"/>
         <v>146382</v>
       </c>
-      <c r="O53" s="840" t="s">
+      <c r="O53" s="842" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -58941,11 +59060,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="903"/>
+      <c r="A54" s="905"/>
       <c r="B54" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C54" s="829"/>
+      <c r="C54" s="823"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -58954,7 +59073,7 @@
       <c r="G54" s="87">
         <v>44382</v>
       </c>
-      <c r="H54" s="833"/>
+      <c r="H54" s="827"/>
       <c r="I54" s="48">
         <v>101.8023</v>
       </c>
@@ -58971,7 +59090,7 @@
         <f t="shared" si="1"/>
         <v>8754.997800000001</v>
       </c>
-      <c r="O54" s="841"/>
+      <c r="O54" s="843"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -59231,13 +59350,13 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="836" t="s">
+      <c r="A60" s="838" t="s">
         <v>551</v>
       </c>
       <c r="B60" s="738" t="s">
         <v>552</v>
       </c>
-      <c r="C60" s="896" t="s">
+      <c r="C60" s="898" t="s">
         <v>553</v>
       </c>
       <c r="D60" s="707"/>
@@ -59245,10 +59364,10 @@
       <c r="F60" s="51">
         <v>9342.59</v>
       </c>
-      <c r="G60" s="898">
+      <c r="G60" s="900">
         <v>44391</v>
       </c>
-      <c r="H60" s="767">
+      <c r="H60" s="805">
         <v>1021</v>
       </c>
       <c r="I60" s="51">
@@ -59267,10 +59386,10 @@
         <f t="shared" si="1"/>
         <v>443773.02500000002</v>
       </c>
-      <c r="O60" s="789" t="s">
+      <c r="O60" s="794" t="s">
         <v>224</v>
       </c>
-      <c r="P60" s="900">
+      <c r="P60" s="902">
         <v>44399</v>
       </c>
       <c r="Q60" s="712"/>
@@ -59281,18 +59400,18 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="837"/>
+      <c r="A61" s="839"/>
       <c r="B61" s="599" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="897"/>
+      <c r="C61" s="899"/>
       <c r="D61" s="707"/>
       <c r="E61" s="609"/>
       <c r="F61" s="51">
         <v>1320</v>
       </c>
-      <c r="G61" s="899"/>
-      <c r="H61" s="756"/>
+      <c r="G61" s="901"/>
+      <c r="H61" s="815"/>
       <c r="I61" s="51">
         <v>1320</v>
       </c>
@@ -59309,8 +59428,8 @@
         <f t="shared" si="1"/>
         <v>36960</v>
       </c>
-      <c r="O61" s="790"/>
-      <c r="P61" s="901"/>
+      <c r="O61" s="795"/>
+      <c r="P61" s="903"/>
       <c r="Q61" s="712"/>
       <c r="R61" s="40"/>
       <c r="S61" s="41"/>
@@ -59526,7 +59645,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="181" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D66" s="612"/>
       <c r="E66" s="613"/>
@@ -59623,10 +59742,10 @@
         <v>606</v>
       </c>
       <c r="B68" s="686" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C68" s="595" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D68" s="624"/>
       <c r="E68" s="625"/>
@@ -59637,7 +59756,7 @@
         <v>44407</v>
       </c>
       <c r="H68" s="597" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I68" s="626">
         <v>2724</v>
@@ -59803,8 +59922,8 @@
         <v>0</v>
       </c>
       <c r="K73" s="56"/>
-      <c r="L73" s="894"/>
-      <c r="M73" s="895"/>
+      <c r="L73" s="896"/>
+      <c r="M73" s="897"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59833,8 +59952,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="894"/>
-      <c r="M74" s="895"/>
+      <c r="L74" s="896"/>
+      <c r="M74" s="897"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -64916,11 +65035,11 @@
     <row r="244" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A244" s="206"/>
       <c r="B244" s="207"/>
-      <c r="F244" s="761" t="s">
+      <c r="F244" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G244" s="761"/>
-      <c r="H244" s="762"/>
+      <c r="G244" s="800"/>
+      <c r="H244" s="801"/>
       <c r="I244" s="216">
         <f>SUM(I4:I243)</f>
         <v>420227.62230000005</v>
@@ -65512,20 +65631,20 @@
   </sheetPr>
   <dimension ref="A1:X278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="208" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="208" customWidth="1"/>
-    <col min="4" max="4" width="11" style="208" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="209" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="208" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="208" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="209" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="210" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="211" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="214" customWidth="1"/>
@@ -65545,18 +65664,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="774" t="s">
+      <c r="A1" s="779" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="774"/>
-      <c r="C1" s="774"/>
-      <c r="D1" s="774"/>
-      <c r="E1" s="774"/>
-      <c r="F1" s="774"/>
-      <c r="G1" s="774"/>
-      <c r="H1" s="774"/>
-      <c r="I1" s="774"/>
-      <c r="J1" s="774"/>
+      <c r="B1" s="779"/>
+      <c r="C1" s="779"/>
+      <c r="D1" s="779"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="779"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -65572,22 +65691,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="772" t="s">
+      <c r="W1" s="777" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="773"/>
+      <c r="X1" s="778"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="774"/>
-      <c r="B2" s="774"/>
-      <c r="C2" s="774"/>
-      <c r="D2" s="774"/>
-      <c r="E2" s="774"/>
-      <c r="F2" s="774"/>
-      <c r="G2" s="774"/>
-      <c r="H2" s="774"/>
-      <c r="I2" s="774"/>
-      <c r="J2" s="774"/>
+      <c r="A2" s="779"/>
+      <c r="B2" s="779"/>
+      <c r="C2" s="779"/>
+      <c r="D2" s="779"/>
+      <c r="E2" s="779"/>
+      <c r="F2" s="779"/>
+      <c r="G2" s="779"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="779"/>
+      <c r="J2" s="779"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -65671,7 +65790,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="268" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D4" s="558">
         <v>53</v>
@@ -65736,7 +65855,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="274" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D5" s="93">
         <v>53</v>
@@ -65802,7 +65921,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="274" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D6" s="93">
         <v>53</v>
@@ -65817,8 +65936,8 @@
       <c r="G6" s="276">
         <v>44413</v>
       </c>
-      <c r="H6" s="50">
-        <v>9824</v>
+      <c r="H6" s="50" t="s">
+        <v>659</v>
       </c>
       <c r="I6" s="51">
         <v>21625</v>
@@ -65830,8 +65949,12 @@
       <c r="K6" s="322">
         <v>38.5</v>
       </c>
-      <c r="L6" s="323"/>
-      <c r="M6" s="323"/>
+      <c r="L6" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M6" s="735">
+        <v>4440.33</v>
+      </c>
       <c r="N6" s="38">
         <f t="shared" si="1"/>
         <v>832562.5</v>
@@ -65855,7 +65978,7 @@
       <c r="W6" s="43"/>
       <c r="X6" s="361"/>
     </row>
-    <row r="7" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="272" t="s">
         <v>362</v>
       </c>
@@ -65863,7 +65986,7 @@
         <v>449</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D7" s="93">
         <v>0</v>
@@ -65879,7 +66002,7 @@
         <v>44413</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="I7" s="51">
         <f>5070-101.4</f>
@@ -65892,8 +66015,12 @@
       <c r="K7" s="322">
         <v>38.5</v>
       </c>
-      <c r="L7" s="323"/>
-      <c r="M7" s="323"/>
+      <c r="L7" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M7" s="735">
+        <v>765.16</v>
+      </c>
       <c r="N7" s="38">
         <f t="shared" si="1"/>
         <v>191291.1</v>
@@ -65917,7 +66044,7 @@
       <c r="W7" s="43"/>
       <c r="X7" s="361"/>
     </row>
-    <row r="8" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="272" t="s">
         <v>282</v>
       </c>
@@ -65925,7 +66052,7 @@
         <v>503</v>
       </c>
       <c r="C8" s="274" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D8" s="93">
         <v>53</v>
@@ -65938,27 +66065,38 @@
         <v>17520</v>
       </c>
       <c r="G8" s="276">
-        <v>44414</v>
-      </c>
-      <c r="H8" s="50"/>
+        <v>44415</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>657</v>
+      </c>
       <c r="I8" s="51">
-        <v>22615</v>
+        <f>22615-226.16</f>
+        <v>22388.84</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>5095</v>
+        <v>4868.84</v>
       </c>
       <c r="K8" s="322">
         <v>38.5</v>
       </c>
-      <c r="L8" s="323"/>
-      <c r="M8" s="323"/>
+      <c r="L8" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M8" s="735">
+        <v>5171.82</v>
+      </c>
       <c r="N8" s="38">
         <f t="shared" si="1"/>
-        <v>870677.5</v>
-      </c>
-      <c r="O8" s="510"/>
-      <c r="P8" s="699"/>
+        <v>861970.34</v>
+      </c>
+      <c r="O8" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q8" s="645">
         <v>20140</v>
       </c>
@@ -65980,7 +66118,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="274" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D9" s="93">
         <v>53</v>
@@ -65995,7 +66133,9 @@
       <c r="G9" s="276">
         <v>44416</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>661</v>
+      </c>
       <c r="I9" s="51">
         <v>24240</v>
       </c>
@@ -66006,14 +66146,22 @@
       <c r="K9" s="322">
         <v>38.5</v>
       </c>
-      <c r="L9" s="323"/>
-      <c r="M9" s="323"/>
+      <c r="L9" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M9" s="735">
+        <v>4977.26</v>
+      </c>
       <c r="N9" s="38">
         <f t="shared" si="1"/>
         <v>933240</v>
       </c>
-      <c r="O9" s="510"/>
-      <c r="P9" s="699"/>
+      <c r="O9" s="510" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q9" s="645">
         <v>20140</v>
       </c>
@@ -66027,7 +66175,7 @@
       <c r="W9" s="43"/>
       <c r="X9" s="361"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="277" t="s">
         <v>37</v>
       </c>
@@ -66035,7 +66183,7 @@
         <v>599</v>
       </c>
       <c r="C10" s="274" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D10" s="173">
         <v>53</v>
@@ -66050,25 +66198,36 @@
       <c r="G10" s="276">
         <v>44418</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>658</v>
+      </c>
       <c r="I10" s="51">
-        <v>22835</v>
+        <f>22835-342.54</f>
+        <v>22492.46</v>
       </c>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>5355</v>
+        <v>5012.4599999999991</v>
       </c>
       <c r="K10" s="322">
         <v>38</v>
       </c>
-      <c r="L10" s="323"/>
-      <c r="M10" s="323"/>
+      <c r="L10" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M10" s="735">
+        <v>3418.85</v>
+      </c>
       <c r="N10" s="38">
         <f t="shared" si="1"/>
-        <v>867730</v>
-      </c>
-      <c r="O10" s="510"/>
-      <c r="P10" s="699"/>
+        <v>854713.48</v>
+      </c>
+      <c r="O10" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q10" s="645">
         <v>20040</v>
       </c>
@@ -66090,7 +66249,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="274" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D11" s="93">
         <v>53</v>
@@ -66105,7 +66264,9 @@
       <c r="G11" s="276">
         <v>44420</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="50" t="s">
+        <v>656</v>
+      </c>
       <c r="I11" s="51">
         <v>20985</v>
       </c>
@@ -66116,14 +66277,22 @@
       <c r="K11" s="322">
         <v>38</v>
       </c>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
+      <c r="L11" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M11" s="735">
+        <v>1594.86</v>
+      </c>
       <c r="N11" s="38">
         <f t="shared" si="1"/>
         <v>797430</v>
       </c>
-      <c r="O11" s="510"/>
-      <c r="P11" s="699"/>
+      <c r="O11" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q11" s="645">
         <v>20140</v>
       </c>
@@ -66137,7 +66306,7 @@
       <c r="W11" s="43"/>
       <c r="X11" s="361"/>
     </row>
-    <row r="12" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="277" t="s">
         <v>95</v>
       </c>
@@ -66145,7 +66314,7 @@
         <v>503</v>
       </c>
       <c r="C12" s="274" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D12" s="93">
         <v>53</v>
@@ -66160,25 +66329,36 @@
       <c r="G12" s="276">
         <v>44421</v>
       </c>
-      <c r="H12" s="677"/>
+      <c r="H12" s="677" t="s">
+        <v>655</v>
+      </c>
       <c r="I12" s="51">
-        <v>22675</v>
+        <f>22675-226.76</f>
+        <v>22448.240000000002</v>
       </c>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>5175</v>
+        <v>4948.2400000000016</v>
       </c>
       <c r="K12" s="322">
         <v>38</v>
       </c>
-      <c r="L12" s="323"/>
-      <c r="M12" s="323"/>
+      <c r="L12" s="735" t="s">
+        <v>565</v>
+      </c>
+      <c r="M12" s="735">
+        <v>1706.07</v>
+      </c>
       <c r="N12" s="38">
         <f t="shared" si="1"/>
-        <v>861650</v>
-      </c>
-      <c r="O12" s="510"/>
-      <c r="P12" s="699"/>
+        <v>853033.12000000011</v>
+      </c>
+      <c r="O12" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q12" s="645">
         <v>18840</v>
       </c>
@@ -66192,18 +66372,22 @@
       <c r="W12" s="43"/>
       <c r="X12" s="361"/>
     </row>
-    <row r="13" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="277" t="s">
         <v>363</v>
       </c>
       <c r="B13" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="274"/>
-      <c r="D13" s="93"/>
+      <c r="C13" s="274" t="s">
+        <v>650</v>
+      </c>
+      <c r="D13" s="93">
+        <v>53</v>
+      </c>
       <c r="E13" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>968310</v>
       </c>
       <c r="F13" s="275">
         <v>18270</v>
@@ -66212,14 +66396,15 @@
         <v>44423</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="I13" s="51">
-        <v>23730</v>
+        <f>23730-118.65</f>
+        <v>23611.35</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>5460</v>
+        <v>5341.3499999999985</v>
       </c>
       <c r="K13" s="322">
         <v>37.5</v>
@@ -66228,10 +66413,14 @@
       <c r="M13" s="52"/>
       <c r="N13" s="38">
         <f t="shared" si="1"/>
-        <v>889875</v>
-      </c>
-      <c r="O13" s="510"/>
-      <c r="P13" s="699"/>
+        <v>885425.625</v>
+      </c>
+      <c r="O13" s="510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="699">
+        <v>44438</v>
+      </c>
       <c r="Q13" s="645">
         <v>20040</v>
       </c>
@@ -66252,11 +66441,15 @@
       <c r="B14" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="274"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="274" t="s">
+        <v>651</v>
+      </c>
+      <c r="D14" s="93">
+        <v>53</v>
+      </c>
       <c r="E14" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>957180</v>
       </c>
       <c r="F14" s="275">
         <v>18060</v>
@@ -66265,7 +66458,7 @@
         <v>44426</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I14" s="51">
         <v>23380</v>
@@ -66305,11 +66498,15 @@
       <c r="B15" s="273" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="679"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="679" t="s">
+        <v>652</v>
+      </c>
+      <c r="D15" s="93">
+        <v>53</v>
+      </c>
       <c r="E15" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>944990</v>
       </c>
       <c r="F15" s="275">
         <v>17830</v>
@@ -66318,7 +66515,7 @@
         <v>44428</v>
       </c>
       <c r="H15" s="677" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I15" s="51">
         <v>22875</v>
@@ -66358,11 +66555,15 @@
       <c r="B16" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="274" t="s">
+        <v>653</v>
+      </c>
+      <c r="D16" s="93">
+        <v>53</v>
+      </c>
       <c r="E16" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1110880</v>
       </c>
       <c r="F16" s="275">
         <v>20960</v>
@@ -66607,28 +66808,40 @@
       <c r="X20" s="361"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="280"/>
-      <c r="B21" s="273"/>
+      <c r="A21" s="280" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="273" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="274"/>
       <c r="D21" s="93"/>
       <c r="E21" s="559">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="275"/>
-      <c r="G21" s="276"/>
+      <c r="F21" s="275">
+        <v>19720</v>
+      </c>
+      <c r="G21" s="276">
+        <v>44437</v>
+      </c>
       <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="51">
+        <v>20820</v>
+      </c>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="581"/>
+        <v>1100</v>
+      </c>
+      <c r="K21" s="581">
+        <v>36</v>
+      </c>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
       <c r="N21" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>749520</v>
       </c>
       <c r="O21" s="510"/>
       <c r="P21" s="699"/>
@@ -66642,28 +66855,40 @@
       <c r="X21" s="361"/>
     </row>
     <row r="22" spans="1:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="281"/>
-      <c r="B22" s="273"/>
+      <c r="A22" s="281" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="273" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="274"/>
       <c r="D22" s="93"/>
       <c r="E22" s="559">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="275"/>
-      <c r="G22" s="276"/>
+      <c r="F22" s="275">
+        <v>0</v>
+      </c>
+      <c r="G22" s="276">
+        <v>44437</v>
+      </c>
       <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="51">
+        <v>5015</v>
+      </c>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="581"/>
+        <v>5015</v>
+      </c>
+      <c r="K22" s="581">
+        <v>36</v>
+      </c>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180540</v>
       </c>
       <c r="O22" s="510"/>
       <c r="P22" s="699"/>
@@ -67681,13 +67906,13 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="904" t="s">
+      <c r="A53" s="906" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="906" t="s">
+      <c r="C53" s="908" t="s">
         <v>621</v>
       </c>
       <c r="D53" s="716"/>
@@ -67698,7 +67923,7 @@
       <c r="G53" s="321">
         <v>44410</v>
       </c>
-      <c r="H53" s="892">
+      <c r="H53" s="890">
         <v>520</v>
       </c>
       <c r="I53" s="275">
@@ -67717,7 +67942,7 @@
         <f t="shared" si="1"/>
         <v>101431.59779999999</v>
       </c>
-      <c r="O53" s="840" t="s">
+      <c r="O53" s="842" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -67733,11 +67958,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="905"/>
+      <c r="A54" s="907"/>
       <c r="B54" s="292" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="907"/>
+      <c r="C54" s="909"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -67746,7 +67971,7 @@
       <c r="G54" s="87">
         <v>44410</v>
       </c>
-      <c r="H54" s="893"/>
+      <c r="H54" s="891"/>
       <c r="I54" s="48">
         <v>99.4</v>
       </c>
@@ -67763,7 +67988,7 @@
         <f t="shared" si="1"/>
         <v>8548.4</v>
       </c>
-      <c r="O54" s="841"/>
+      <c r="O54" s="843"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -67960,7 +68185,7 @@
         <v>33</v>
       </c>
       <c r="C61" s="708" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D61" s="610"/>
       <c r="E61" s="609"/>
@@ -68054,13 +68279,13 @@
     </row>
     <row r="63" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="102" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B63" s="599" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="731" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D63" s="707"/>
       <c r="E63" s="609"/>
@@ -68174,7 +68399,7 @@
         <v>33</v>
       </c>
       <c r="C66" s="619" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D66" s="610"/>
       <c r="E66" s="609"/>
@@ -68185,7 +68410,7 @@
         <v>44432</v>
       </c>
       <c r="H66" s="622" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I66" s="51">
         <v>300</v>
@@ -68441,8 +68666,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="894"/>
-      <c r="M74" s="895"/>
+      <c r="L74" s="896"/>
+      <c r="M74" s="897"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -68471,8 +68696,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="894"/>
-      <c r="M75" s="895"/>
+      <c r="L75" s="896"/>
+      <c r="M75" s="897"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -73554,14 +73779,14 @@
     <row r="245" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A245" s="206"/>
       <c r="B245" s="207"/>
-      <c r="F245" s="761" t="s">
+      <c r="F245" s="800" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="761"/>
-      <c r="H245" s="762"/>
+      <c r="G245" s="800"/>
+      <c r="H245" s="801"/>
       <c r="I245" s="216">
         <f>SUM(I4:I244)</f>
-        <v>328657.75510000001</v>
+        <v>353578.64509999997</v>
       </c>
       <c r="J245" s="217"/>
       <c r="K245" s="213"/>
@@ -73648,7 +73873,7 @@
       <c r="M249" s="232"/>
       <c r="N249" s="233">
         <f>SUM(N4:N248)</f>
-        <v>12469661.072799999</v>
+        <v>13364931.137800001</v>
       </c>
       <c r="O249" s="306"/>
       <c r="Q249" s="234">
@@ -73708,7 +73933,7 @@
       <c r="M252" s="248"/>
       <c r="N252" s="249">
         <f>V249+S249+Q249+N249+L249</f>
-        <v>12765321.072799999</v>
+        <v>13660591.137800001</v>
       </c>
       <c r="O252" s="307"/>
       <c r="R252" s="222"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/ENTRADAS OBRADOR   DE  AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="8715" yWindow="1305" windowWidth="19275" windowHeight="13635" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO   2021" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="667">
   <si>
     <t>MATANZA</t>
   </si>
@@ -2064,6 +2064,15 @@
   <si>
     <t>CARGA CANCELADA</t>
   </si>
+  <si>
+    <t>0906 X</t>
+  </si>
+  <si>
+    <t>0925 X</t>
+  </si>
+  <si>
+    <t>0932 X</t>
+  </si>
 </sst>
 </file>
 
@@ -5685,12 +5694,148 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5733,9 +5878,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5751,127 +5893,28 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5910,30 +5953,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5973,12 +5992,57 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6006,49 +6070,22 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6063,12 +6100,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6102,18 +6133,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6156,16 +6175,6 @@
     <xf numFmtId="4" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="20" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6532,18 +6541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6565,22 +6574,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -9325,13 +9334,13 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" s="327" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="792" t="s">
+      <c r="A55" s="793" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="780" t="s">
+      <c r="C55" s="781" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="329"/>
@@ -9342,7 +9351,7 @@
       <c r="G55" s="321">
         <v>44200</v>
       </c>
-      <c r="H55" s="782">
+      <c r="H55" s="783">
         <v>195</v>
       </c>
       <c r="I55" s="275">
@@ -9361,10 +9370,10 @@
         <f t="shared" si="4"/>
         <v>23802.75</v>
       </c>
-      <c r="O55" s="794" t="s">
+      <c r="O55" s="795" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="796">
+      <c r="P55" s="797">
         <v>44222</v>
       </c>
       <c r="Q55" s="94"/>
@@ -9377,11 +9386,11 @@
       <c r="X55"/>
     </row>
     <row r="56" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="793"/>
+      <c r="A56" s="794"/>
       <c r="B56" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="781"/>
+      <c r="C56" s="782"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="51">
@@ -9390,7 +9399,7 @@
       <c r="G56" s="87">
         <v>44200</v>
       </c>
-      <c r="H56" s="783"/>
+      <c r="H56" s="784"/>
       <c r="I56" s="48">
         <v>184.1</v>
       </c>
@@ -9407,8 +9416,8 @@
         <f t="shared" si="4"/>
         <v>14728</v>
       </c>
-      <c r="O56" s="795"/>
-      <c r="P56" s="797"/>
+      <c r="O56" s="796"/>
+      <c r="P56" s="798"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -9567,13 +9576,13 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="784" t="s">
+      <c r="A60" s="785" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="786" t="s">
+      <c r="C60" s="787" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="293"/>
@@ -9584,7 +9593,7 @@
       <c r="G60" s="87">
         <v>44207</v>
       </c>
-      <c r="H60" s="788">
+      <c r="H60" s="789">
         <v>210</v>
       </c>
       <c r="I60" s="48">
@@ -9603,10 +9612,10 @@
         <f t="shared" si="4"/>
         <v>15624</v>
       </c>
-      <c r="O60" s="802" t="s">
+      <c r="O60" s="769" t="s">
         <v>35</v>
       </c>
-      <c r="P60" s="790">
+      <c r="P60" s="791">
         <v>44222</v>
       </c>
       <c r="Q60" s="94"/>
@@ -9617,11 +9626,11 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="785"/>
+      <c r="A61" s="786"/>
       <c r="B61" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="787"/>
+      <c r="C61" s="788"/>
       <c r="D61" s="293"/>
       <c r="E61" s="93"/>
       <c r="F61" s="51">
@@ -9630,7 +9639,7 @@
       <c r="G61" s="87">
         <v>44207</v>
       </c>
-      <c r="H61" s="789"/>
+      <c r="H61" s="790"/>
       <c r="I61" s="48">
         <v>344.7</v>
       </c>
@@ -9647,8 +9656,8 @@
         <f t="shared" si="4"/>
         <v>25680.149999999998</v>
       </c>
-      <c r="O61" s="803"/>
-      <c r="P61" s="791"/>
+      <c r="O61" s="770"/>
+      <c r="P61" s="792"/>
       <c r="Q61" s="94"/>
       <c r="R61" s="40"/>
       <c r="S61" s="41"/>
@@ -9707,13 +9716,13 @@
       <c r="V62" s="44"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="798" t="s">
+      <c r="A63" s="799" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="769" t="s">
+      <c r="C63" s="771" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="91"/>
@@ -9724,7 +9733,7 @@
       <c r="G63" s="49">
         <v>44211</v>
       </c>
-      <c r="H63" s="805">
+      <c r="H63" s="773">
         <v>219</v>
       </c>
       <c r="I63" s="51">
@@ -9743,10 +9752,10 @@
         <f t="shared" si="4"/>
         <v>33096</v>
       </c>
-      <c r="O63" s="807" t="s">
+      <c r="O63" s="774" t="s">
         <v>35</v>
       </c>
-      <c r="P63" s="775">
+      <c r="P63" s="776">
         <v>44235</v>
       </c>
       <c r="Q63" s="94"/>
@@ -9757,11 +9766,11 @@
       <c r="V63" s="44"/>
     </row>
     <row r="64" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="799"/>
+      <c r="A64" s="800"/>
       <c r="B64" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="804"/>
+      <c r="C64" s="772"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51">
@@ -9770,7 +9779,7 @@
       <c r="G64" s="419">
         <v>44211</v>
       </c>
-      <c r="H64" s="806"/>
+      <c r="H64" s="761"/>
       <c r="I64" s="51">
         <v>542.70000000000005</v>
       </c>
@@ -9787,8 +9796,8 @@
         <f t="shared" si="4"/>
         <v>40431.15</v>
       </c>
-      <c r="O64" s="808"/>
-      <c r="P64" s="776"/>
+      <c r="O64" s="775"/>
+      <c r="P64" s="777"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -9797,13 +9806,13 @@
       <c r="V64" s="44"/>
     </row>
     <row r="65" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="811" t="s">
+      <c r="A65" s="757" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="813" t="s">
+      <c r="C65" s="759" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="91"/>
@@ -9814,7 +9823,7 @@
       <c r="G65" s="420">
         <v>44214</v>
       </c>
-      <c r="H65" s="806">
+      <c r="H65" s="761">
         <v>224</v>
       </c>
       <c r="I65" s="51">
@@ -9833,10 +9842,10 @@
         <f t="shared" si="4"/>
         <v>65128.645000000004</v>
       </c>
-      <c r="O65" s="809" t="s">
+      <c r="O65" s="763" t="s">
         <v>35</v>
       </c>
-      <c r="P65" s="753">
+      <c r="P65" s="765">
         <v>44242</v>
       </c>
       <c r="Q65" s="94"/>
@@ -9847,11 +9856,11 @@
       <c r="V65" s="44"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="812"/>
+      <c r="A66" s="758"/>
       <c r="B66" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="814"/>
+      <c r="C66" s="760"/>
       <c r="D66" s="96"/>
       <c r="E66" s="97"/>
       <c r="F66" s="51">
@@ -9860,7 +9869,7 @@
       <c r="G66" s="419">
         <v>44214</v>
       </c>
-      <c r="H66" s="815"/>
+      <c r="H66" s="762"/>
       <c r="I66" s="51">
         <v>265.60000000000002</v>
       </c>
@@ -9877,8 +9886,8 @@
         <f t="shared" si="4"/>
         <v>19256</v>
       </c>
-      <c r="O66" s="810"/>
-      <c r="P66" s="754"/>
+      <c r="O66" s="764"/>
+      <c r="P66" s="766"/>
       <c r="Q66" s="94"/>
       <c r="R66" s="40"/>
       <c r="S66" s="41"/>
@@ -9887,13 +9896,13 @@
       <c r="V66" s="44"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="767" t="s">
+      <c r="A67" s="813" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="769" t="s">
+      <c r="C67" s="771" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="96"/>
@@ -9901,10 +9910,10 @@
       <c r="F67" s="418">
         <v>327.7</v>
       </c>
-      <c r="G67" s="771">
+      <c r="G67" s="816">
         <v>44216</v>
       </c>
-      <c r="H67" s="773">
+      <c r="H67" s="818">
         <v>228</v>
       </c>
       <c r="I67" s="51">
@@ -9923,10 +9932,10 @@
         <f t="shared" si="4"/>
         <v>24413.649999999998</v>
       </c>
-      <c r="O67" s="809" t="s">
+      <c r="O67" s="763" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="753">
+      <c r="P67" s="765">
         <v>5</v>
       </c>
       <c r="Q67" s="94"/>
@@ -9937,18 +9946,18 @@
       <c r="V67" s="44"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="768"/>
+      <c r="A68" s="814"/>
       <c r="B68" s="396" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="770"/>
+      <c r="C68" s="815"/>
       <c r="D68" s="96"/>
       <c r="E68" s="97"/>
       <c r="F68" s="418">
         <v>308.2</v>
       </c>
-      <c r="G68" s="772"/>
-      <c r="H68" s="774"/>
+      <c r="G68" s="817"/>
+      <c r="H68" s="819"/>
       <c r="I68" s="51">
         <v>308.2</v>
       </c>
@@ -9965,8 +9974,8 @@
         <f t="shared" si="4"/>
         <v>24656</v>
       </c>
-      <c r="O68" s="810"/>
-      <c r="P68" s="754"/>
+      <c r="O68" s="764"/>
+      <c r="P68" s="766"/>
       <c r="Q68" s="94"/>
       <c r="R68" s="40"/>
       <c r="S68" s="41"/>
@@ -10395,13 +10404,13 @@
       <c r="V77" s="44"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="765" t="s">
+      <c r="A78" s="811" t="s">
         <v>171</v>
       </c>
       <c r="B78" s="441" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="759" t="s">
+      <c r="C78" s="805" t="s">
         <v>180</v>
       </c>
       <c r="D78" s="438"/>
@@ -10412,7 +10421,7 @@
       <c r="G78" s="49">
         <v>44221</v>
       </c>
-      <c r="H78" s="761">
+      <c r="H78" s="807">
         <v>31601</v>
       </c>
       <c r="I78" s="51">
@@ -10431,10 +10440,10 @@
         <f t="shared" si="4"/>
         <v>8804.4000000000015</v>
       </c>
-      <c r="O78" s="809" t="s">
+      <c r="O78" s="763" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="755">
+      <c r="P78" s="801">
         <v>44260</v>
       </c>
       <c r="Q78" s="39"/>
@@ -10445,11 +10454,11 @@
       <c r="V78" s="44"/>
     </row>
     <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="766"/>
+      <c r="A79" s="812"/>
       <c r="B79" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="760"/>
+      <c r="C79" s="806"/>
       <c r="D79" s="438"/>
       <c r="E79" s="97"/>
       <c r="F79" s="51">
@@ -10458,7 +10467,7 @@
       <c r="G79" s="49">
         <v>44221</v>
       </c>
-      <c r="H79" s="762"/>
+      <c r="H79" s="808"/>
       <c r="I79" s="51">
         <v>441</v>
       </c>
@@ -10475,8 +10484,8 @@
         <f t="shared" si="4"/>
         <v>21609</v>
       </c>
-      <c r="O79" s="810"/>
-      <c r="P79" s="756"/>
+      <c r="O79" s="764"/>
+      <c r="P79" s="802"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="40"/>
       <c r="S79" s="41"/>
@@ -10485,13 +10494,13 @@
       <c r="V79" s="44"/>
     </row>
     <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="757" t="s">
+      <c r="A80" s="803" t="s">
         <v>171</v>
       </c>
       <c r="B80" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="759" t="s">
+      <c r="C80" s="805" t="s">
         <v>182</v>
       </c>
       <c r="D80" s="438"/>
@@ -10502,7 +10511,7 @@
       <c r="G80" s="49">
         <v>44226</v>
       </c>
-      <c r="H80" s="761">
+      <c r="H80" s="807">
         <v>31677</v>
       </c>
       <c r="I80" s="51">
@@ -10521,10 +10530,10 @@
         <f t="shared" si="4"/>
         <v>5047</v>
       </c>
-      <c r="O80" s="763" t="s">
+      <c r="O80" s="809" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="753">
+      <c r="P80" s="765">
         <v>44260</v>
       </c>
       <c r="Q80" s="39"/>
@@ -10535,11 +10544,11 @@
       <c r="V80" s="44"/>
     </row>
     <row r="81" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="758"/>
+      <c r="A81" s="804"/>
       <c r="B81" s="442" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="760"/>
+      <c r="C81" s="806"/>
       <c r="D81" s="438"/>
       <c r="E81" s="97"/>
       <c r="F81" s="51">
@@ -10549,7 +10558,7 @@
       <c r="G81" s="49">
         <v>44226</v>
       </c>
-      <c r="H81" s="762"/>
+      <c r="H81" s="808"/>
       <c r="I81" s="51">
         <f>23.2+20+94.2</f>
         <v>137.4</v>
@@ -10567,8 +10576,8 @@
         <f t="shared" si="4"/>
         <v>7969.2000000000007</v>
       </c>
-      <c r="O81" s="764"/>
-      <c r="P81" s="754"/>
+      <c r="O81" s="810"/>
+      <c r="P81" s="766"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="40"/>
       <c r="S81" s="41"/>
@@ -15193,11 +15202,11 @@
     <row r="236" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A236" s="206"/>
       <c r="B236" s="207"/>
-      <c r="F236" s="800" t="s">
+      <c r="F236" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="800"/>
-      <c r="H236" s="801"/>
+      <c r="G236" s="767"/>
+      <c r="H236" s="768"/>
       <c r="I236" s="216">
         <f>SUM(I6:I235)</f>
         <v>434282.17000000004</v>
@@ -15759,31 +15768,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="F236:H236"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="A63:A64"/>
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="A80:A81"/>
@@ -15798,6 +15782,31 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="H67:H68"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F236:H236"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15845,18 +15854,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -15878,22 +15887,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -17992,13 +18001,13 @@
       <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:24" s="327" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="824" t="s">
+      <c r="A38" s="836" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="822" t="s">
+      <c r="C38" s="834" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="329"/>
@@ -18009,7 +18018,7 @@
       <c r="G38" s="321">
         <v>44228</v>
       </c>
-      <c r="H38" s="826">
+      <c r="H38" s="838">
         <v>245</v>
       </c>
       <c r="I38" s="275">
@@ -18028,10 +18037,10 @@
         <f t="shared" si="1"/>
         <v>98459.199999999997</v>
       </c>
-      <c r="O38" s="794" t="s">
+      <c r="O38" s="795" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="796">
+      <c r="P38" s="797">
         <v>44251</v>
       </c>
       <c r="Q38" s="94"/>
@@ -18044,11 +18053,11 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="825"/>
+      <c r="A39" s="837"/>
       <c r="B39" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="823"/>
+      <c r="C39" s="835"/>
       <c r="D39" s="330"/>
       <c r="E39" s="47"/>
       <c r="F39" s="51">
@@ -18057,7 +18066,7 @@
       <c r="G39" s="87">
         <v>44228</v>
       </c>
-      <c r="H39" s="827"/>
+      <c r="H39" s="839"/>
       <c r="I39" s="48">
         <v>69.599999999999994</v>
       </c>
@@ -18074,8 +18083,8 @@
         <f t="shared" si="1"/>
         <v>4941.5999999999995</v>
       </c>
-      <c r="O39" s="795"/>
-      <c r="P39" s="797"/>
+      <c r="O39" s="796"/>
+      <c r="P39" s="798"/>
       <c r="Q39" s="94"/>
       <c r="R39" s="40"/>
       <c r="S39" s="67"/>
@@ -18280,13 +18289,13 @@
       <c r="V43" s="44"/>
     </row>
     <row r="44" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="816" t="s">
+      <c r="A44" s="828" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="832" t="s">
+      <c r="C44" s="824" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="69"/>
@@ -18294,10 +18303,10 @@
       <c r="F44" s="51">
         <v>961.2</v>
       </c>
-      <c r="G44" s="818">
+      <c r="G44" s="830">
         <v>44242</v>
       </c>
-      <c r="H44" s="834">
+      <c r="H44" s="826">
         <v>291</v>
       </c>
       <c r="I44" s="48">
@@ -18316,10 +18325,10 @@
         <f t="shared" si="1"/>
         <v>71609.400000000009</v>
       </c>
-      <c r="O44" s="820" t="s">
+      <c r="O44" s="832" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="830">
+      <c r="P44" s="822">
         <v>44277</v>
       </c>
       <c r="Q44" s="94"/>
@@ -18330,18 +18339,18 @@
       <c r="V44" s="44"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="817"/>
+      <c r="A45" s="829"/>
       <c r="B45" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="833"/>
+      <c r="C45" s="825"/>
       <c r="D45" s="293"/>
       <c r="E45" s="93"/>
       <c r="F45" s="51">
         <v>199.4</v>
       </c>
-      <c r="G45" s="819"/>
-      <c r="H45" s="835"/>
+      <c r="G45" s="831"/>
+      <c r="H45" s="827"/>
       <c r="I45" s="48">
         <v>199.4</v>
       </c>
@@ -18358,8 +18367,8 @@
         <f t="shared" si="1"/>
         <v>15952</v>
       </c>
-      <c r="O45" s="821"/>
-      <c r="P45" s="831"/>
+      <c r="O45" s="833"/>
+      <c r="P45" s="823"/>
       <c r="Q45" s="94"/>
       <c r="R45" s="40"/>
       <c r="S45" s="41"/>
@@ -18570,7 +18579,7 @@
     <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="389"/>
       <c r="B50" s="86"/>
-      <c r="C50" s="769"/>
+      <c r="C50" s="771"/>
       <c r="D50" s="91"/>
       <c r="E50" s="93"/>
       <c r="F50" s="51"/>
@@ -18588,8 +18597,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="807"/>
-      <c r="P50" s="775"/>
+      <c r="O50" s="774"/>
+      <c r="P50" s="776"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="40"/>
       <c r="S50" s="41"/>
@@ -18600,7 +18609,7 @@
     <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="390"/>
       <c r="B51" s="86"/>
-      <c r="C51" s="770"/>
+      <c r="C51" s="815"/>
       <c r="D51" s="91"/>
       <c r="E51" s="93"/>
       <c r="F51" s="51"/>
@@ -18618,8 +18627,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="828"/>
-      <c r="P51" s="829"/>
+      <c r="O51" s="820"/>
+      <c r="P51" s="821"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="40"/>
       <c r="S51" s="41"/>
@@ -19201,11 +19210,11 @@
     <row r="67" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="206"/>
       <c r="B67" s="207"/>
-      <c r="F67" s="800" t="s">
+      <c r="F67" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="800"/>
-      <c r="H67" s="801"/>
+      <c r="G67" s="767"/>
+      <c r="H67" s="768"/>
       <c r="I67" s="216">
         <f>SUM(I4:I66)</f>
         <v>496746.44999999995</v>
@@ -19784,13 +19793,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="H44:H45"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="O44:O45"/>
@@ -19801,6 +19803,13 @@
     <mergeCell ref="P38:P39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="H44:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19846,18 +19855,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -19879,22 +19888,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -23041,13 +23050,13 @@
       <c r="V54" s="44"/>
     </row>
     <row r="55" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="792" t="s">
+      <c r="A55" s="793" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="822" t="s">
+      <c r="C55" s="834" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="330"/>
@@ -23059,7 +23068,7 @@
       <c r="G55" s="87">
         <v>44270</v>
       </c>
-      <c r="H55" s="782">
+      <c r="H55" s="783">
         <v>324</v>
       </c>
       <c r="I55" s="524">
@@ -23078,10 +23087,10 @@
         <f t="shared" si="1"/>
         <v>37058.699999999997</v>
       </c>
-      <c r="O55" s="842" t="s">
+      <c r="O55" s="846" t="s">
         <v>224</v>
       </c>
-      <c r="P55" s="844">
+      <c r="P55" s="848">
         <v>44300</v>
       </c>
       <c r="Q55" s="94"/>
@@ -23092,11 +23101,11 @@
       <c r="V55" s="44"/>
     </row>
     <row r="56" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="793"/>
+      <c r="A56" s="794"/>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="823"/>
+      <c r="C56" s="835"/>
       <c r="D56" s="330"/>
       <c r="E56" s="47"/>
       <c r="F56" s="519">
@@ -23105,7 +23114,7 @@
       <c r="G56" s="87">
         <v>44270</v>
       </c>
-      <c r="H56" s="783"/>
+      <c r="H56" s="784"/>
       <c r="I56" s="524">
         <v>936.4</v>
       </c>
@@ -23122,8 +23131,8 @@
         <f t="shared" si="1"/>
         <v>70698.2</v>
       </c>
-      <c r="O56" s="843"/>
-      <c r="P56" s="845"/>
+      <c r="O56" s="847"/>
+      <c r="P56" s="849"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="40"/>
       <c r="S56" s="67"/>
@@ -23232,7 +23241,7 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="838" t="s">
+      <c r="A59" s="842" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -23249,7 +23258,7 @@
       <c r="G59" s="49">
         <v>44257</v>
       </c>
-      <c r="H59" s="840">
+      <c r="H59" s="844">
         <v>48</v>
       </c>
       <c r="I59" s="519">
@@ -23268,10 +23277,10 @@
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="O59" s="807" t="s">
+      <c r="O59" s="774" t="s">
         <v>206</v>
       </c>
-      <c r="P59" s="775">
+      <c r="P59" s="776">
         <v>44272</v>
       </c>
       <c r="Q59" s="94"/>
@@ -23282,7 +23291,7 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="839"/>
+      <c r="A60" s="843"/>
       <c r="B60" s="61" t="s">
         <v>205</v>
       </c>
@@ -23297,7 +23306,7 @@
       <c r="G60" s="49">
         <v>44261</v>
       </c>
-      <c r="H60" s="841"/>
+      <c r="H60" s="845"/>
       <c r="I60" s="519">
         <v>8994</v>
       </c>
@@ -23314,8 +23323,8 @@
         <f t="shared" si="1"/>
         <v>364257</v>
       </c>
-      <c r="O60" s="828"/>
-      <c r="P60" s="829"/>
+      <c r="O60" s="820"/>
+      <c r="P60" s="821"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -28190,11 +28199,11 @@
     <row r="222" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A222" s="206"/>
       <c r="B222" s="207"/>
-      <c r="F222" s="836" t="s">
+      <c r="F222" s="840" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="836"/>
-      <c r="H222" s="837"/>
+      <c r="G222" s="840"/>
+      <c r="H222" s="841"/>
       <c r="I222" s="536">
         <f>SUM(I4:I221)</f>
         <v>579418.55000000005</v>
@@ -28813,18 +28822,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -28840,22 +28849,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -29590,10 +29599,10 @@
       <c r="K13" s="477">
         <v>50</v>
       </c>
-      <c r="L13" s="846" t="s">
+      <c r="L13" s="850" t="s">
         <v>347</v>
       </c>
-      <c r="M13" s="847"/>
+      <c r="M13" s="851"/>
       <c r="N13" s="38">
         <f t="shared" si="1"/>
         <v>1187490</v>
@@ -36756,11 +36765,11 @@
     <row r="226" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A226" s="206"/>
       <c r="B226" s="207"/>
-      <c r="F226" s="800" t="s">
+      <c r="F226" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G226" s="800"/>
-      <c r="H226" s="801"/>
+      <c r="G226" s="767"/>
+      <c r="H226" s="768"/>
       <c r="I226" s="216">
         <f>SUM(I4:I225)</f>
         <v>405885.8</v>
@@ -37371,18 +37380,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -37398,22 +37407,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -40253,10 +40262,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="848" t="s">
+      <c r="O59" s="852" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="860">
+      <c r="P59" s="854">
         <v>44361</v>
       </c>
       <c r="Q59" s="94"/>
@@ -40303,8 +40312,8 @@
         <f t="shared" si="1"/>
         <v>132498</v>
       </c>
-      <c r="O60" s="850"/>
-      <c r="P60" s="861"/>
+      <c r="O60" s="853"/>
+      <c r="P60" s="855"/>
       <c r="Q60" s="94"/>
       <c r="R60" s="40"/>
       <c r="S60" s="41"/>
@@ -40313,13 +40322,13 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="871" t="s">
+      <c r="A61" s="865" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="786" t="s">
+      <c r="C61" s="787" t="s">
         <v>456</v>
       </c>
       <c r="D61" s="293"/>
@@ -40330,7 +40339,7 @@
       <c r="G61" s="49">
         <v>44347</v>
       </c>
-      <c r="H61" s="872">
+      <c r="H61" s="866">
         <v>426</v>
       </c>
       <c r="I61" s="51">
@@ -40349,10 +40358,10 @@
         <f t="shared" si="1"/>
         <v>78121.8</v>
       </c>
-      <c r="O61" s="873" t="s">
+      <c r="O61" s="867" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="874">
+      <c r="P61" s="868">
         <v>44365</v>
       </c>
       <c r="Q61" s="94"/>
@@ -40363,11 +40372,11 @@
       <c r="V61" s="44"/>
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="839"/>
+      <c r="A62" s="843"/>
       <c r="B62" s="328" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="787"/>
+      <c r="C62" s="788"/>
       <c r="D62" s="293"/>
       <c r="E62" s="93"/>
       <c r="F62" s="51">
@@ -40376,7 +40385,7 @@
       <c r="G62" s="49">
         <v>44347</v>
       </c>
-      <c r="H62" s="815"/>
+      <c r="H62" s="762"/>
       <c r="I62" s="51">
         <v>97.9</v>
       </c>
@@ -40393,8 +40402,8 @@
         <f t="shared" si="1"/>
         <v>8419.4</v>
       </c>
-      <c r="O62" s="810"/>
-      <c r="P62" s="754"/>
+      <c r="O62" s="764"/>
+      <c r="P62" s="766"/>
       <c r="Q62" s="94"/>
       <c r="R62" s="40"/>
       <c r="S62" s="41"/>
@@ -40405,7 +40414,7 @@
     <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="389"/>
       <c r="B63" s="86"/>
-      <c r="C63" s="804"/>
+      <c r="C63" s="772"/>
       <c r="D63" s="91"/>
       <c r="E63" s="93"/>
       <c r="F63" s="51"/>
@@ -40423,8 +40432,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="807"/>
-      <c r="P63" s="775"/>
+      <c r="O63" s="774"/>
+      <c r="P63" s="776"/>
       <c r="Q63" s="94"/>
       <c r="R63" s="40"/>
       <c r="S63" s="41"/>
@@ -40435,7 +40444,7 @@
     <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="390"/>
       <c r="B64" s="86"/>
-      <c r="C64" s="770"/>
+      <c r="C64" s="815"/>
       <c r="D64" s="91"/>
       <c r="E64" s="93"/>
       <c r="F64" s="51"/>
@@ -40453,8 +40462,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="828"/>
-      <c r="P64" s="829"/>
+      <c r="O64" s="820"/>
+      <c r="P64" s="821"/>
       <c r="Q64" s="94"/>
       <c r="R64" s="40"/>
       <c r="S64" s="41"/>
@@ -40553,13 +40562,13 @@
       <c r="V67" s="326"/>
     </row>
     <row r="68" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="862" t="s">
+      <c r="A68" s="856" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="599" t="s">
         <v>401</v>
       </c>
-      <c r="C68" s="865" t="s">
+      <c r="C68" s="859" t="s">
         <v>402</v>
       </c>
       <c r="D68" s="600"/>
@@ -40571,7 +40580,7 @@
       <c r="G68" s="321">
         <v>44319</v>
       </c>
-      <c r="H68" s="782">
+      <c r="H68" s="783">
         <v>32862</v>
       </c>
       <c r="I68" s="275">
@@ -40590,10 +40599,10 @@
         <f t="shared" si="1"/>
         <v>24507</v>
       </c>
-      <c r="O68" s="794" t="s">
+      <c r="O68" s="795" t="s">
         <v>224</v>
       </c>
-      <c r="P68" s="796">
+      <c r="P68" s="797">
         <v>44347</v>
       </c>
       <c r="Q68" s="94"/>
@@ -40604,11 +40613,11 @@
       <c r="V68" s="326"/>
     </row>
     <row r="69" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="863"/>
+      <c r="A69" s="857"/>
       <c r="B69" s="599" t="s">
         <v>399</v>
       </c>
-      <c r="C69" s="866"/>
+      <c r="C69" s="860"/>
       <c r="D69" s="600"/>
       <c r="E69" s="97"/>
       <c r="F69" s="320">
@@ -40618,7 +40627,7 @@
       <c r="G69" s="321">
         <v>44319</v>
       </c>
-      <c r="H69" s="868"/>
+      <c r="H69" s="862"/>
       <c r="I69" s="275">
         <v>210.3</v>
       </c>
@@ -40635,8 +40644,8 @@
         <f t="shared" si="1"/>
         <v>7360.5</v>
       </c>
-      <c r="O69" s="869"/>
-      <c r="P69" s="870"/>
+      <c r="O69" s="863"/>
+      <c r="P69" s="864"/>
       <c r="Q69" s="94"/>
       <c r="R69" s="324"/>
       <c r="S69" s="41"/>
@@ -40645,11 +40654,11 @@
       <c r="V69" s="326"/>
     </row>
     <row r="70" spans="1:22" s="327" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="864"/>
+      <c r="A70" s="858"/>
       <c r="B70" s="599" t="s">
         <v>403</v>
       </c>
-      <c r="C70" s="867"/>
+      <c r="C70" s="861"/>
       <c r="D70" s="600"/>
       <c r="E70" s="97"/>
       <c r="F70" s="320">
@@ -40658,7 +40667,7 @@
       <c r="G70" s="321">
         <v>44319</v>
       </c>
-      <c r="H70" s="783"/>
+      <c r="H70" s="784"/>
       <c r="I70" s="275">
         <v>23.4</v>
       </c>
@@ -40675,8 +40684,8 @@
         <f t="shared" si="1"/>
         <v>912.59999999999991</v>
       </c>
-      <c r="O70" s="795"/>
-      <c r="P70" s="797"/>
+      <c r="O70" s="796"/>
+      <c r="P70" s="798"/>
       <c r="Q70" s="94"/>
       <c r="R70" s="324"/>
       <c r="S70" s="41"/>
@@ -41236,13 +41245,13 @@
       <c r="V81" s="44"/>
     </row>
     <row r="82" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="854" t="s">
+      <c r="A82" s="873" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="659" t="s">
         <v>478</v>
       </c>
-      <c r="C82" s="759" t="s">
+      <c r="C82" s="805" t="s">
         <v>479</v>
       </c>
       <c r="D82" s="438"/>
@@ -41250,10 +41259,10 @@
       <c r="F82" s="418">
         <v>2525.1999999999998</v>
       </c>
-      <c r="G82" s="771">
+      <c r="G82" s="816">
         <v>44341</v>
       </c>
-      <c r="H82" s="834" t="s">
+      <c r="H82" s="826" t="s">
         <v>480</v>
       </c>
       <c r="I82" s="48">
@@ -41272,10 +41281,10 @@
         <f t="shared" si="1"/>
         <v>202016</v>
       </c>
-      <c r="O82" s="848" t="s">
+      <c r="O82" s="852" t="s">
         <v>206</v>
       </c>
-      <c r="P82" s="851">
+      <c r="P82" s="870">
         <v>44375</v>
       </c>
       <c r="Q82" s="94"/>
@@ -41286,18 +41295,18 @@
       <c r="V82" s="44"/>
     </row>
     <row r="83" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="855"/>
+      <c r="A83" s="874"/>
       <c r="B83" s="659" t="s">
         <v>438</v>
       </c>
-      <c r="C83" s="857"/>
+      <c r="C83" s="876"/>
       <c r="D83" s="438"/>
       <c r="E83" s="97"/>
       <c r="F83" s="418">
         <v>4048</v>
       </c>
-      <c r="G83" s="859"/>
-      <c r="H83" s="858"/>
+      <c r="G83" s="878"/>
+      <c r="H83" s="877"/>
       <c r="I83" s="48">
         <v>4048</v>
       </c>
@@ -41314,8 +41323,8 @@
         <f t="shared" si="1"/>
         <v>242880</v>
       </c>
-      <c r="O83" s="849"/>
-      <c r="P83" s="852"/>
+      <c r="O83" s="869"/>
+      <c r="P83" s="871"/>
       <c r="Q83" s="94"/>
       <c r="R83" s="40"/>
       <c r="S83" s="41"/>
@@ -41324,18 +41333,18 @@
       <c r="V83" s="44"/>
     </row>
     <row r="84" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="855"/>
+      <c r="A84" s="874"/>
       <c r="B84" s="659" t="s">
         <v>481</v>
       </c>
-      <c r="C84" s="857"/>
+      <c r="C84" s="876"/>
       <c r="D84" s="438"/>
       <c r="E84" s="97"/>
       <c r="F84" s="418">
         <v>2185.8000000000002</v>
       </c>
-      <c r="G84" s="859"/>
-      <c r="H84" s="858"/>
+      <c r="G84" s="878"/>
+      <c r="H84" s="877"/>
       <c r="I84" s="48">
         <v>2185.8000000000002</v>
       </c>
@@ -41352,8 +41361,8 @@
         <f t="shared" si="1"/>
         <v>198907.80000000002</v>
       </c>
-      <c r="O84" s="849"/>
-      <c r="P84" s="852"/>
+      <c r="O84" s="869"/>
+      <c r="P84" s="871"/>
       <c r="Q84" s="94"/>
       <c r="R84" s="40"/>
       <c r="S84" s="41"/>
@@ -41362,18 +41371,18 @@
       <c r="V84" s="44"/>
     </row>
     <row r="85" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="855"/>
+      <c r="A85" s="874"/>
       <c r="B85" s="659" t="s">
         <v>482</v>
       </c>
-      <c r="C85" s="857"/>
+      <c r="C85" s="876"/>
       <c r="D85" s="438"/>
       <c r="E85" s="97"/>
       <c r="F85" s="418">
         <v>413</v>
       </c>
-      <c r="G85" s="859"/>
-      <c r="H85" s="858"/>
+      <c r="G85" s="878"/>
+      <c r="H85" s="877"/>
       <c r="I85" s="48">
         <v>413</v>
       </c>
@@ -41390,8 +41399,8 @@
         <f t="shared" si="1"/>
         <v>25193</v>
       </c>
-      <c r="O85" s="849"/>
-      <c r="P85" s="852"/>
+      <c r="O85" s="869"/>
+      <c r="P85" s="871"/>
       <c r="Q85" s="94"/>
       <c r="R85" s="40"/>
       <c r="S85" s="41"/>
@@ -41400,18 +41409,18 @@
       <c r="V85" s="44"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="855"/>
+      <c r="A86" s="874"/>
       <c r="B86" s="659" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="857"/>
+      <c r="C86" s="876"/>
       <c r="D86" s="438"/>
       <c r="E86" s="97"/>
       <c r="F86" s="418">
         <v>518</v>
       </c>
-      <c r="G86" s="859"/>
-      <c r="H86" s="858"/>
+      <c r="G86" s="878"/>
+      <c r="H86" s="877"/>
       <c r="I86" s="48">
         <v>518</v>
       </c>
@@ -41428,8 +41437,8 @@
         <f t="shared" si="1"/>
         <v>18648</v>
       </c>
-      <c r="O86" s="849"/>
-      <c r="P86" s="852"/>
+      <c r="O86" s="869"/>
+      <c r="P86" s="871"/>
       <c r="Q86" s="94"/>
       <c r="R86" s="40"/>
       <c r="S86" s="41"/>
@@ -41438,18 +41447,18 @@
       <c r="V86" s="44"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="855"/>
+      <c r="A87" s="874"/>
       <c r="B87" s="659" t="s">
         <v>483</v>
       </c>
-      <c r="C87" s="857"/>
+      <c r="C87" s="876"/>
       <c r="D87" s="438"/>
       <c r="E87" s="97"/>
       <c r="F87" s="418">
         <v>1848.4</v>
       </c>
-      <c r="G87" s="859"/>
-      <c r="H87" s="858"/>
+      <c r="G87" s="878"/>
+      <c r="H87" s="877"/>
       <c r="I87" s="48">
         <v>1848.4</v>
       </c>
@@ -41466,8 +41475,8 @@
         <f t="shared" si="1"/>
         <v>53603.600000000006</v>
       </c>
-      <c r="O87" s="849"/>
-      <c r="P87" s="852"/>
+      <c r="O87" s="869"/>
+      <c r="P87" s="871"/>
       <c r="Q87" s="94"/>
       <c r="R87" s="40"/>
       <c r="S87" s="41"/>
@@ -41476,18 +41485,18 @@
       <c r="V87" s="44"/>
     </row>
     <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="855"/>
+      <c r="A88" s="874"/>
       <c r="B88" s="659" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="857"/>
+      <c r="C88" s="876"/>
       <c r="D88" s="438"/>
       <c r="E88" s="97"/>
       <c r="F88" s="418">
         <v>744</v>
       </c>
-      <c r="G88" s="859"/>
-      <c r="H88" s="858"/>
+      <c r="G88" s="878"/>
+      <c r="H88" s="877"/>
       <c r="I88" s="48">
         <v>744</v>
       </c>
@@ -41504,8 +41513,8 @@
         <f t="shared" si="1"/>
         <v>28272</v>
       </c>
-      <c r="O88" s="849"/>
-      <c r="P88" s="852"/>
+      <c r="O88" s="869"/>
+      <c r="P88" s="871"/>
       <c r="Q88" s="94"/>
       <c r="R88" s="40"/>
       <c r="S88" s="41"/>
@@ -41514,18 +41523,18 @@
       <c r="V88" s="44"/>
     </row>
     <row r="89" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="856"/>
+      <c r="A89" s="875"/>
       <c r="B89" s="659" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="760"/>
+      <c r="C89" s="806"/>
       <c r="D89" s="438"/>
       <c r="E89" s="97"/>
       <c r="F89" s="418">
         <v>1469</v>
       </c>
-      <c r="G89" s="772"/>
-      <c r="H89" s="835"/>
+      <c r="G89" s="817"/>
+      <c r="H89" s="827"/>
       <c r="I89" s="48">
         <v>1469</v>
       </c>
@@ -41542,8 +41551,8 @@
         <f t="shared" si="1"/>
         <v>117520</v>
       </c>
-      <c r="O89" s="850"/>
-      <c r="P89" s="853"/>
+      <c r="O89" s="853"/>
+      <c r="P89" s="872"/>
       <c r="Q89" s="94"/>
       <c r="R89" s="40"/>
       <c r="S89" s="41"/>
@@ -46483,11 +46492,11 @@
     <row r="253" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A253" s="206"/>
       <c r="B253" s="207"/>
-      <c r="F253" s="800" t="s">
+      <c r="F253" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G253" s="800"/>
-      <c r="H253" s="801"/>
+      <c r="G253" s="767"/>
+      <c r="H253" s="768"/>
       <c r="I253" s="216">
         <f>SUM(I4:I252)</f>
         <v>442400.9</v>
@@ -47052,6 +47061,14 @@
     <sortCondition ref="G53:G56"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="O82:O89"/>
+    <mergeCell ref="P82:P89"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="H82:H89"/>
+    <mergeCell ref="G82:G89"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="P59:P60"/>
@@ -47068,14 +47085,6 @@
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="P61:P62"/>
-    <mergeCell ref="O82:O89"/>
-    <mergeCell ref="P82:P89"/>
-    <mergeCell ref="F253:H253"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="H82:H89"/>
-    <mergeCell ref="G82:G89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47123,18 +47132,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -47150,22 +47159,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -49788,13 +49797,13 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="792" t="s">
+      <c r="A54" s="793" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="885" t="s">
+      <c r="C54" s="893" t="s">
         <v>521</v>
       </c>
       <c r="D54" s="608"/>
@@ -49805,7 +49814,7 @@
       <c r="G54" s="87">
         <v>44361</v>
       </c>
-      <c r="H54" s="890">
+      <c r="H54" s="898">
         <v>439</v>
       </c>
       <c r="I54" s="48">
@@ -49824,10 +49833,10 @@
         <f t="shared" si="1"/>
         <v>116188</v>
       </c>
-      <c r="O54" s="883" t="s">
+      <c r="O54" s="891" t="s">
         <v>224</v>
       </c>
-      <c r="P54" s="884">
+      <c r="P54" s="892">
         <v>44382</v>
       </c>
       <c r="Q54" s="508"/>
@@ -49838,11 +49847,11 @@
       <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="793"/>
+      <c r="A55" s="794"/>
       <c r="B55" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C55" s="886"/>
+      <c r="C55" s="894"/>
       <c r="D55" s="608"/>
       <c r="E55" s="607"/>
       <c r="F55" s="51">
@@ -49851,7 +49860,7 @@
       <c r="G55" s="87">
         <v>44361</v>
       </c>
-      <c r="H55" s="891"/>
+      <c r="H55" s="899"/>
       <c r="I55" s="48">
         <v>90</v>
       </c>
@@ -49868,8 +49877,8 @@
         <f t="shared" si="1"/>
         <v>7740</v>
       </c>
-      <c r="O55" s="883"/>
-      <c r="P55" s="884"/>
+      <c r="O55" s="891"/>
+      <c r="P55" s="892"/>
       <c r="Q55" s="508"/>
       <c r="R55" s="40"/>
       <c r="S55" s="67"/>
@@ -49878,13 +49887,13 @@
       <c r="V55" s="326"/>
     </row>
     <row r="56" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="887" t="s">
+      <c r="A56" s="895" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="889" t="s">
+      <c r="C56" s="897" t="s">
         <v>524</v>
       </c>
       <c r="D56" s="608"/>
@@ -49895,7 +49904,7 @@
       <c r="G56" s="87">
         <v>44368</v>
       </c>
-      <c r="H56" s="834">
+      <c r="H56" s="826">
         <v>457</v>
       </c>
       <c r="I56" s="48">
@@ -49914,10 +49923,10 @@
         <f t="shared" si="1"/>
         <v>102145</v>
       </c>
-      <c r="O56" s="809" t="s">
+      <c r="O56" s="763" t="s">
         <v>224</v>
       </c>
-      <c r="P56" s="892">
+      <c r="P56" s="879">
         <v>44393</v>
       </c>
       <c r="Q56" s="508"/>
@@ -49928,11 +49937,11 @@
       <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="888"/>
+      <c r="A57" s="896"/>
       <c r="B57" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="889"/>
+      <c r="C57" s="897"/>
       <c r="D57" s="608"/>
       <c r="E57" s="607"/>
       <c r="F57" s="51">
@@ -49941,7 +49950,7 @@
       <c r="G57" s="87">
         <v>44368</v>
       </c>
-      <c r="H57" s="835"/>
+      <c r="H57" s="827"/>
       <c r="I57" s="48">
         <v>112.8023</v>
       </c>
@@ -49958,8 +49967,8 @@
         <f t="shared" si="1"/>
         <v>9700.997800000001</v>
       </c>
-      <c r="O57" s="810"/>
-      <c r="P57" s="893"/>
+      <c r="O57" s="764"/>
+      <c r="P57" s="880"/>
       <c r="Q57" s="508"/>
       <c r="R57" s="40"/>
       <c r="S57" s="67"/>
@@ -49968,13 +49977,13 @@
       <c r="V57" s="44"/>
     </row>
     <row r="58" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="816" t="s">
+      <c r="A58" s="828" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="813" t="s">
+      <c r="C58" s="759" t="s">
         <v>525</v>
       </c>
       <c r="D58" s="608"/>
@@ -49982,10 +49991,10 @@
       <c r="F58" s="51">
         <v>1272.8</v>
       </c>
-      <c r="G58" s="894">
+      <c r="G58" s="883">
         <v>44375</v>
       </c>
-      <c r="H58" s="879">
+      <c r="H58" s="881">
         <v>469</v>
       </c>
       <c r="I58" s="48">
@@ -50004,10 +50013,10 @@
         <f t="shared" si="1"/>
         <v>98642</v>
       </c>
-      <c r="O58" s="809" t="s">
+      <c r="O58" s="763" t="s">
         <v>224</v>
       </c>
-      <c r="P58" s="892">
+      <c r="P58" s="879">
         <v>44393</v>
       </c>
       <c r="Q58" s="508"/>
@@ -50018,18 +50027,18 @@
       <c r="V58" s="44"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="817"/>
+      <c r="A59" s="829"/>
       <c r="B59" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="C59" s="814"/>
+      <c r="C59" s="760"/>
       <c r="D59" s="610"/>
       <c r="E59" s="609"/>
       <c r="F59" s="51">
         <v>91.4</v>
       </c>
-      <c r="G59" s="895"/>
-      <c r="H59" s="880"/>
+      <c r="G59" s="884"/>
+      <c r="H59" s="882"/>
       <c r="I59" s="48">
         <v>91.4</v>
       </c>
@@ -50046,8 +50055,8 @@
         <f t="shared" si="1"/>
         <v>7860.4000000000005</v>
       </c>
-      <c r="O59" s="810"/>
-      <c r="P59" s="893"/>
+      <c r="O59" s="764"/>
+      <c r="P59" s="880"/>
       <c r="Q59" s="508"/>
       <c r="R59" s="40"/>
       <c r="S59" s="41"/>
@@ -50462,13 +50471,13 @@
       <c r="V71" s="326"/>
     </row>
     <row r="72" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="877" t="s">
+      <c r="A72" s="887" t="s">
         <v>451</v>
       </c>
       <c r="B72" s="659" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="875" t="s">
+      <c r="C72" s="885" t="s">
         <v>453</v>
       </c>
       <c r="D72" s="660"/>
@@ -50479,7 +50488,7 @@
       <c r="G72" s="87">
         <v>44361</v>
       </c>
-      <c r="H72" s="879" t="s">
+      <c r="H72" s="881" t="s">
         <v>455</v>
       </c>
       <c r="I72" s="48">
@@ -50492,10 +50501,10 @@
       <c r="K72" s="56">
         <v>55</v>
       </c>
-      <c r="L72" s="881" t="s">
+      <c r="L72" s="889" t="s">
         <v>460</v>
       </c>
-      <c r="M72" s="882"/>
+      <c r="M72" s="890"/>
       <c r="N72" s="57">
         <f t="shared" si="1"/>
         <v>11111.1</v>
@@ -50514,11 +50523,11 @@
       <c r="V72" s="326"/>
     </row>
     <row r="73" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="878"/>
+      <c r="A73" s="888"/>
       <c r="B73" s="659" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="876"/>
+      <c r="C73" s="886"/>
       <c r="D73" s="660"/>
       <c r="E73" s="613"/>
       <c r="F73" s="51">
@@ -50527,7 +50536,7 @@
       <c r="G73" s="87">
         <v>44361</v>
       </c>
-      <c r="H73" s="880"/>
+      <c r="H73" s="882"/>
       <c r="I73" s="48">
         <v>72.849999999999994</v>
       </c>
@@ -50538,8 +50547,8 @@
       <c r="K73" s="56">
         <v>100</v>
       </c>
-      <c r="L73" s="881"/>
-      <c r="M73" s="882"/>
+      <c r="L73" s="889"/>
+      <c r="M73" s="890"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>7284.9999999999991</v>
@@ -55679,11 +55688,11 @@
     <row r="243" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A243" s="206"/>
       <c r="B243" s="207"/>
-      <c r="F243" s="800" t="s">
+      <c r="F243" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="800"/>
-      <c r="H243" s="801"/>
+      <c r="G243" s="767"/>
+      <c r="H243" s="768"/>
       <c r="I243" s="216">
         <f>SUM(I4:I242)</f>
         <v>406525.67229999998</v>
@@ -56251,13 +56260,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
@@ -56274,6 +56276,13 @@
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56286,11 +56295,11 @@
   </sheetPr>
   <dimension ref="A1:X277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="S19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56319,18 +56328,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -56346,22 +56355,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -58121,11 +58130,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="910"/>
-      <c r="G27" s="911">
+      <c r="F27" s="753"/>
+      <c r="G27" s="754">
         <v>29.7</v>
       </c>
-      <c r="H27" s="912" t="s">
+      <c r="H27" s="755" t="s">
         <v>663</v>
       </c>
       <c r="I27" s="51"/>
@@ -58149,7 +58158,7 @@
       <c r="U27" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="V27" s="913">
+      <c r="V27" s="756">
         <v>6032</v>
       </c>
       <c r="W27" s="43"/>
@@ -59008,13 +59017,13 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="904" t="s">
+      <c r="A53" s="908" t="s">
         <v>440</v>
       </c>
       <c r="B53" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="822" t="s">
+      <c r="C53" s="834" t="s">
         <v>558</v>
       </c>
       <c r="D53" s="716"/>
@@ -59025,7 +59034,7 @@
       <c r="G53" s="321">
         <v>44382</v>
       </c>
-      <c r="H53" s="826">
+      <c r="H53" s="838">
         <v>479</v>
       </c>
       <c r="I53" s="275">
@@ -59044,7 +59053,7 @@
         <f t="shared" si="1"/>
         <v>146382</v>
       </c>
-      <c r="O53" s="842" t="s">
+      <c r="O53" s="846" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -59060,11 +59069,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="905"/>
+      <c r="A54" s="909"/>
       <c r="B54" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C54" s="823"/>
+      <c r="C54" s="835"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -59073,7 +59082,7 @@
       <c r="G54" s="87">
         <v>44382</v>
       </c>
-      <c r="H54" s="827"/>
+      <c r="H54" s="839"/>
       <c r="I54" s="48">
         <v>101.8023</v>
       </c>
@@ -59090,7 +59099,7 @@
         <f t="shared" si="1"/>
         <v>8754.997800000001</v>
       </c>
-      <c r="O54" s="843"/>
+      <c r="O54" s="847"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -59350,13 +59359,13 @@
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="838" t="s">
+      <c r="A60" s="842" t="s">
         <v>551</v>
       </c>
       <c r="B60" s="738" t="s">
         <v>552</v>
       </c>
-      <c r="C60" s="898" t="s">
+      <c r="C60" s="902" t="s">
         <v>553</v>
       </c>
       <c r="D60" s="707"/>
@@ -59364,10 +59373,10 @@
       <c r="F60" s="51">
         <v>9342.59</v>
       </c>
-      <c r="G60" s="900">
+      <c r="G60" s="904">
         <v>44391</v>
       </c>
-      <c r="H60" s="805">
+      <c r="H60" s="773">
         <v>1021</v>
       </c>
       <c r="I60" s="51">
@@ -59386,10 +59395,10 @@
         <f t="shared" si="1"/>
         <v>443773.02500000002</v>
       </c>
-      <c r="O60" s="794" t="s">
+      <c r="O60" s="795" t="s">
         <v>224</v>
       </c>
-      <c r="P60" s="902">
+      <c r="P60" s="906">
         <v>44399</v>
       </c>
       <c r="Q60" s="712"/>
@@ -59400,18 +59409,18 @@
       <c r="V60" s="44"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="839"/>
+      <c r="A61" s="843"/>
       <c r="B61" s="599" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="899"/>
+      <c r="C61" s="903"/>
       <c r="D61" s="707"/>
       <c r="E61" s="609"/>
       <c r="F61" s="51">
         <v>1320</v>
       </c>
-      <c r="G61" s="901"/>
-      <c r="H61" s="815"/>
+      <c r="G61" s="905"/>
+      <c r="H61" s="762"/>
       <c r="I61" s="51">
         <v>1320</v>
       </c>
@@ -59428,8 +59437,8 @@
         <f t="shared" si="1"/>
         <v>36960</v>
       </c>
-      <c r="O61" s="795"/>
-      <c r="P61" s="903"/>
+      <c r="O61" s="796"/>
+      <c r="P61" s="907"/>
       <c r="Q61" s="712"/>
       <c r="R61" s="40"/>
       <c r="S61" s="41"/>
@@ -59922,8 +59931,8 @@
         <v>0</v>
       </c>
       <c r="K73" s="56"/>
-      <c r="L73" s="896"/>
-      <c r="M73" s="897"/>
+      <c r="L73" s="900"/>
+      <c r="M73" s="901"/>
       <c r="N73" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59952,8 +59961,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="896"/>
-      <c r="M74" s="897"/>
+      <c r="L74" s="900"/>
+      <c r="M74" s="901"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -65035,11 +65044,11 @@
     <row r="244" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A244" s="206"/>
       <c r="B244" s="207"/>
-      <c r="F244" s="800" t="s">
+      <c r="F244" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G244" s="800"/>
-      <c r="H244" s="801"/>
+      <c r="G244" s="767"/>
+      <c r="H244" s="768"/>
       <c r="I244" s="216">
         <f>SUM(I4:I243)</f>
         <v>420227.62230000005</v>
@@ -65631,20 +65640,20 @@
   </sheetPr>
   <dimension ref="A1:X278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="208" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="208" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="208" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="209" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="208" customWidth="1"/>
+    <col min="4" max="4" width="11" style="208" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="209" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="210" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="211" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="214" customWidth="1"/>
@@ -65664,18 +65673,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="779" t="s">
+      <c r="A1" s="780" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="779"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="779"/>
-      <c r="I1" s="779"/>
-      <c r="J1" s="779"/>
+      <c r="B1" s="780"/>
+      <c r="C1" s="780"/>
+      <c r="D1" s="780"/>
+      <c r="E1" s="780"/>
+      <c r="F1" s="780"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="780"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -65691,22 +65700,22 @@
       <c r="V1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="777" t="s">
+      <c r="W1" s="778" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="778"/>
+      <c r="X1" s="779"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="779"/>
-      <c r="B2" s="779"/>
-      <c r="C2" s="779"/>
-      <c r="D2" s="779"/>
-      <c r="E2" s="779"/>
-      <c r="F2" s="779"/>
-      <c r="G2" s="779"/>
-      <c r="H2" s="779"/>
-      <c r="I2" s="779"/>
-      <c r="J2" s="779"/>
+      <c r="A2" s="780"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="780"/>
+      <c r="J2" s="780"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -66610,8 +66619,12 @@
       <c r="B17" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="274" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="93">
+        <v>53</v>
+      </c>
       <c r="E17" s="559">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66661,11 +66674,15 @@
       <c r="B18" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="93"/>
+      <c r="C18" s="274" t="s">
+        <v>664</v>
+      </c>
+      <c r="D18" s="93">
+        <v>53</v>
+      </c>
       <c r="E18" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>846940</v>
       </c>
       <c r="F18" s="275">
         <v>15980</v>
@@ -66712,11 +66729,15 @@
       <c r="B19" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="274"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="274" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="93">
+        <v>53</v>
+      </c>
       <c r="E19" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1049930</v>
       </c>
       <c r="F19" s="275">
         <v>19810</v>
@@ -66763,8 +66784,12 @@
       <c r="B20" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="274"/>
-      <c r="D20" s="93"/>
+      <c r="C20" s="274" t="s">
+        <v>665</v>
+      </c>
+      <c r="D20" s="93">
+        <v>53</v>
+      </c>
       <c r="E20" s="559">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66814,11 +66839,15 @@
       <c r="B21" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="274"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="274" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="93">
+        <v>53</v>
+      </c>
       <c r="E21" s="559">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1045160</v>
       </c>
       <c r="F21" s="275">
         <v>19720</v>
@@ -66861,8 +66890,12 @@
       <c r="B22" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="274"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="274" t="s">
+        <v>666</v>
+      </c>
+      <c r="D22" s="93">
+        <v>53</v>
+      </c>
       <c r="E22" s="559">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -67906,13 +67939,13 @@
       <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:24" s="327" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="906" t="s">
+      <c r="A53" s="910" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="908" t="s">
+      <c r="C53" s="912" t="s">
         <v>621</v>
       </c>
       <c r="D53" s="716"/>
@@ -67923,7 +67956,7 @@
       <c r="G53" s="321">
         <v>44410</v>
       </c>
-      <c r="H53" s="890">
+      <c r="H53" s="898">
         <v>520</v>
       </c>
       <c r="I53" s="275">
@@ -67942,7 +67975,7 @@
         <f t="shared" si="1"/>
         <v>101431.59779999999</v>
       </c>
-      <c r="O53" s="842" t="s">
+      <c r="O53" s="846" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="702">
@@ -67958,11 +67991,11 @@
       <c r="X53"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="907"/>
+      <c r="A54" s="911"/>
       <c r="B54" s="292" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="909"/>
+      <c r="C54" s="913"/>
       <c r="D54" s="717"/>
       <c r="E54" s="607"/>
       <c r="F54" s="51">
@@ -67971,7 +68004,7 @@
       <c r="G54" s="87">
         <v>44410</v>
       </c>
-      <c r="H54" s="891"/>
+      <c r="H54" s="899"/>
       <c r="I54" s="48">
         <v>99.4</v>
       </c>
@@ -67988,7 +68021,7 @@
         <f t="shared" si="1"/>
         <v>8548.4</v>
       </c>
-      <c r="O54" s="843"/>
+      <c r="O54" s="847"/>
       <c r="P54" s="702"/>
       <c r="Q54" s="508"/>
       <c r="R54" s="40"/>
@@ -68666,8 +68699,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="56"/>
-      <c r="L74" s="896"/>
-      <c r="M74" s="897"/>
+      <c r="L74" s="900"/>
+      <c r="M74" s="901"/>
       <c r="N74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -68696,8 +68729,8 @@
         <v>0</v>
       </c>
       <c r="K75" s="56"/>
-      <c r="L75" s="896"/>
-      <c r="M75" s="897"/>
+      <c r="L75" s="900"/>
+      <c r="M75" s="901"/>
       <c r="N75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -73779,11 +73812,11 @@
     <row r="245" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A245" s="206"/>
       <c r="B245" s="207"/>
-      <c r="F245" s="800" t="s">
+      <c r="F245" s="767" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="800"/>
-      <c r="H245" s="801"/>
+      <c r="G245" s="767"/>
+      <c r="H245" s="768"/>
       <c r="I245" s="216">
         <f>SUM(I4:I244)</f>
         <v>353578.64509999997</v>
